--- a/output/fit_clients/fit_round_100.xlsx
+++ b/output/fit_clients/fit_round_100.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,24 +441,24 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>splitLayer</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>dataSize</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>frequency</t>
-        </is>
-      </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>computation</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>transPower</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>updateTime</t>
-        </is>
-      </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
           <t>isSelected</t>
@@ -466,37 +466,7 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
           <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>sigma</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>UCB_mu</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>UCB_U</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>g</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>UCB_omega</t>
         </is>
       </c>
     </row>
@@ -510,40 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>537</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
-        <v>3774986777.133273</v>
+        <v>502</v>
       </c>
       <c r="E2" t="n">
-        <v>0.002328856375017683</v>
+        <v>7255452676.349113</v>
       </c>
       <c r="F2" t="n">
-        <v>0.3726138694102082</v>
+        <v>0.00447600488421109</v>
       </c>
       <c r="G2" t="b">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0.5059254371431372</v>
-      </c>
-      <c r="I2" t="n">
-        <v>20</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0.6787846692501913</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0.5059254371431372</v>
-      </c>
-      <c r="L2" t="n">
-        <v>2.704886258824028</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0.9497233758090723</v>
-      </c>
-      <c r="N2" t="n">
-        <v>-2.704886258824028</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3">
@@ -556,40 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>506</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>6614434859.423958</v>
+        <v>542</v>
       </c>
       <c r="E3" t="n">
-        <v>0.001601023866104471</v>
+        <v>5471952226.575756</v>
       </c>
       <c r="F3" t="n">
-        <v>0.2003816453210076</v>
+        <v>0.004821119052262525</v>
       </c>
       <c r="G3" t="b">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1576475125433262</v>
-      </c>
-      <c r="I3" t="n">
-        <v>22</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.6787846692501913</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0.1576475125433262</v>
-      </c>
-      <c r="L3" t="n">
-        <v>2.254274391232803</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0.9046322876358218</v>
-      </c>
-      <c r="N3" t="n">
-        <v>-2.254274391232803</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4">
@@ -602,40 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>517</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>7057299520.002787</v>
+        <v>534</v>
       </c>
       <c r="E4" t="n">
-        <v>0.00475458632877329</v>
+        <v>5950514957.672828</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1918899185391901</v>
+        <v>0.002533287506343543</v>
       </c>
       <c r="G4" t="b">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1404760395772202</v>
-      </c>
-      <c r="I4" t="n">
-        <v>20</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0.6787846692501913</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0.1404760395772202</v>
-      </c>
-      <c r="L4" t="n">
-        <v>2.339436861258111</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0.9278645429643619</v>
-      </c>
-      <c r="N4" t="n">
-        <v>-2.339436861258111</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5">
@@ -648,40 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>457</v>
+        <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>4388248950.685743</v>
+        <v>494</v>
       </c>
       <c r="E5" t="n">
-        <v>0.004468194274220615</v>
+        <v>4759933741.473041</v>
       </c>
       <c r="F5" t="n">
-        <v>0.2727879032052039</v>
+        <v>0.004291945363927243</v>
       </c>
       <c r="G5" t="b">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0.304063210054648</v>
-      </c>
-      <c r="I5" t="n">
-        <v>23</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0.6787846692501913</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0.3040632100546479</v>
-      </c>
-      <c r="L5" t="n">
-        <v>2.35460474940415</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0.8413126462185836</v>
-      </c>
-      <c r="N5" t="n">
-        <v>-2.35460474940415</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -694,40 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>503</v>
+        <v>6</v>
       </c>
       <c r="D6" t="n">
-        <v>5158759218.929073</v>
+        <v>469</v>
       </c>
       <c r="E6" t="n">
-        <v>0.002674626227876958</v>
+        <v>6584978951.348936</v>
       </c>
       <c r="F6" t="n">
-        <v>0.2554011757644149</v>
+        <v>0.001881145084337515</v>
       </c>
       <c r="G6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>0.2689047872874635</v>
-      </c>
-      <c r="I6" t="n">
-        <v>28</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0.6787846692501913</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0.2689047872874636</v>
-      </c>
-      <c r="L6" t="n">
-        <v>2.127365881712383</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0.8672965431518005</v>
-      </c>
-      <c r="N6" t="n">
-        <v>-2.127365881712383</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7">
@@ -740,40 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>512</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
-        <v>6782530685.600801</v>
+        <v>539</v>
       </c>
       <c r="E7" t="n">
-        <v>0.004046256931989904</v>
+        <v>6564931983.985654</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1977326372952785</v>
+        <v>0.001331394145627476</v>
       </c>
       <c r="G7" t="b">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1522908435324719</v>
-      </c>
-      <c r="I7" t="n">
-        <v>19</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0.6787846692501913</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0.1522908435324718</v>
-      </c>
-      <c r="L7" t="n">
-        <v>2.408377043660448</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0.9277241723559515</v>
-      </c>
-      <c r="N7" t="n">
-        <v>-2.408377043660448</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8">
@@ -786,40 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>507</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
-        <v>7911290988.484811</v>
+        <v>513</v>
       </c>
       <c r="E8" t="n">
-        <v>0.001124098464773324</v>
+        <v>4840517459.203289</v>
       </c>
       <c r="F8" t="n">
-        <v>0.167865236145782</v>
+        <v>0.002412607427492496</v>
       </c>
       <c r="G8" t="b">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0.09189473275502938</v>
-      </c>
-      <c r="I8" t="n">
-        <v>12</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0.6787846692501913</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0.09189473275502937</v>
-      </c>
-      <c r="L8" t="n">
-        <v>2.930740946532584</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0.9593808784088861</v>
-      </c>
-      <c r="N8" t="n">
-        <v>-2.930740946532584</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9">
@@ -832,40 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>467</v>
+        <v>5</v>
       </c>
       <c r="D9" t="n">
-        <v>8275485145.129385</v>
+        <v>569</v>
       </c>
       <c r="E9" t="n">
-        <v>0.001160298933765199</v>
+        <v>5986332360.316442</v>
       </c>
       <c r="F9" t="n">
-        <v>0.147816727182449</v>
+        <v>0.005194746272982824</v>
       </c>
       <c r="G9" t="b">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0.05135381115923064</v>
-      </c>
-      <c r="I9" t="n">
-        <v>15</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0.6787846692501913</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0.05135381115923065</v>
-      </c>
-      <c r="L9" t="n">
-        <v>2.590495055829036</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0.8990705806115411</v>
-      </c>
-      <c r="N9" t="n">
-        <v>-2.590495055829036</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10">
@@ -878,40 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>532</v>
+        <v>6</v>
       </c>
       <c r="D10" t="n">
-        <v>7013801834.255452</v>
+        <v>529</v>
       </c>
       <c r="E10" t="n">
-        <v>0.002857293985944274</v>
+        <v>3623584157.519729</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1986819007623029</v>
+        <v>0.003506947954388457</v>
       </c>
       <c r="G10" t="b">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1542103885650115</v>
-      </c>
-      <c r="I10" t="n">
-        <v>22</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0.6787846692501913</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0.1542103885650116</v>
-      </c>
-      <c r="L10" t="n">
-        <v>2.250837267254489</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0.9336562646077256</v>
-      </c>
-      <c r="N10" t="n">
-        <v>-2.250837267254489</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -924,40 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>413</v>
+        <v>4</v>
       </c>
       <c r="D11" t="n">
-        <v>5818186551.41062</v>
+        <v>582</v>
       </c>
       <c r="E11" t="n">
-        <v>0.002615823055307827</v>
+        <v>3529711937.659952</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1859356107682239</v>
+        <v>0.001271318314191907</v>
       </c>
       <c r="G11" t="b">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0.1284355868462225</v>
-      </c>
-      <c r="I11" t="n">
-        <v>21</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0.6787846692501913</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0.1284355868462225</v>
-      </c>
-      <c r="L11" t="n">
-        <v>2.27440161313557</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0.7984452590242739</v>
-      </c>
-      <c r="N11" t="n">
-        <v>-2.27440161313557</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -970,40 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>555</v>
+        <v>3</v>
       </c>
       <c r="D12" t="n">
-        <v>5619512611.38813</v>
+        <v>537</v>
       </c>
       <c r="E12" t="n">
-        <v>0.00268072866557397</v>
+        <v>8934062280.337809</v>
       </c>
       <c r="F12" t="n">
-        <v>0.2586988499774703</v>
+        <v>0.001720217610492153</v>
       </c>
       <c r="G12" t="b">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0.2755731511026717</v>
-      </c>
-      <c r="I12" t="n">
-        <v>17</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0.6787846692501913</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0.2755731511026717</v>
-      </c>
-      <c r="L12" t="n">
-        <v>2.660681039965291</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0.9843333698392658</v>
-      </c>
-      <c r="N12" t="n">
-        <v>-2.660681039965291</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13">
@@ -1016,40 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>623</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
-        <v>8265963767.339729</v>
+        <v>480</v>
       </c>
       <c r="E13" t="n">
-        <v>0.002623951272544145</v>
+        <v>6167433609.007263</v>
       </c>
       <c r="F13" t="n">
-        <v>0.1974216214747812</v>
+        <v>0.003820998029829075</v>
       </c>
       <c r="G13" t="b">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0.1516619255407699</v>
-      </c>
-      <c r="I13" t="n">
-        <v>22</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0.6787846692501913</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0.15166192554077</v>
-      </c>
-      <c r="L13" t="n">
-        <v>2.248288804230247</v>
-      </c>
-      <c r="M13" t="n">
-        <v>1.028812216378363</v>
-      </c>
-      <c r="N13" t="n">
-        <v>-2.248288804230247</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14">
@@ -1062,40 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>472</v>
+        <v>5</v>
       </c>
       <c r="D14" t="n">
-        <v>5928203131.174623</v>
+        <v>486</v>
       </c>
       <c r="E14" t="n">
-        <v>0.001542642043342661</v>
+        <v>8938155300.133364</v>
       </c>
       <c r="F14" t="n">
-        <v>0.2085542706015587</v>
+        <v>0.003376404888590757</v>
       </c>
       <c r="G14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0.1741737171272498</v>
-      </c>
-      <c r="I14" t="n">
-        <v>18</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0.8836948583962257</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0.1741737171272497</v>
-      </c>
-      <c r="L14" t="n">
-        <v>2.492081944456244</v>
-      </c>
-      <c r="M14" t="n">
-        <v>1.03970377782387</v>
-      </c>
-      <c r="N14" t="n">
-        <v>-2.492081944456244</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15">
@@ -1108,40 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>554</v>
+        <v>6</v>
       </c>
       <c r="D15" t="n">
-        <v>4243790845.786891</v>
+        <v>538</v>
       </c>
       <c r="E15" t="n">
-        <v>0.004965350667070036</v>
+        <v>7001605580.654412</v>
       </c>
       <c r="F15" t="n">
-        <v>0.3419447641819225</v>
+        <v>0.005264640614985133</v>
       </c>
       <c r="G15" t="b">
         <v>1</v>
       </c>
       <c r="H15" t="n">
-        <v>0.4439081672929345</v>
-      </c>
-      <c r="I15" t="n">
-        <v>16</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0.370893405629556</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0.4439081672929345</v>
-      </c>
-      <c r="L15" t="n">
-        <v>2.902421105861567</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0.6791093440713215</v>
-      </c>
-      <c r="N15" t="n">
-        <v>-2.902421105861567</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16">
@@ -1154,40 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>488</v>
+        <v>4</v>
       </c>
       <c r="D16" t="n">
-        <v>5171080259.722651</v>
+        <v>569</v>
       </c>
       <c r="E16" t="n">
-        <v>0.00167100299863924</v>
+        <v>6615732905.303733</v>
       </c>
       <c r="F16" t="n">
-        <v>0.2471944459954213</v>
+        <v>0.003658309260603378</v>
       </c>
       <c r="G16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H16" t="n">
-        <v>0.2523096186027912</v>
-      </c>
-      <c r="I16" t="n">
-        <v>16</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0.6787846692501913</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0.2523096186027912</v>
-      </c>
-      <c r="L16" t="n">
-        <v>2.710822557171423</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0.9172905120038447</v>
-      </c>
-      <c r="N16" t="n">
-        <v>-2.710822557171423</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17">
@@ -1200,40 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>508</v>
+        <v>5</v>
       </c>
       <c r="D17" t="n">
-        <v>7685931331.203353</v>
+        <v>462</v>
       </c>
       <c r="E17" t="n">
-        <v>0.004381541380359111</v>
+        <v>5335264371.265779</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1731280260855083</v>
+        <v>0.002440000279379436</v>
       </c>
       <c r="G17" t="b">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0.1025368385950107</v>
-      </c>
-      <c r="I17" t="n">
-        <v>16</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0.6787846692501913</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0.1025368385950107</v>
-      </c>
-      <c r="L17" t="n">
-        <v>2.561049777163642</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0.9393954246641782</v>
-      </c>
-      <c r="N17" t="n">
-        <v>-2.561049777163642</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18">
@@ -1246,40 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>497</v>
+        <v>4</v>
       </c>
       <c r="D18" t="n">
-        <v>6872541171.616985</v>
+        <v>536</v>
       </c>
       <c r="E18" t="n">
-        <v>0.00116419486842914</v>
+        <v>6625441004.606771</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1894258320890788</v>
+        <v>0.00113040187761257</v>
       </c>
       <c r="G18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H18" t="n">
-        <v>0.1354933081550515</v>
-      </c>
-      <c r="I18" t="n">
-        <v>18</v>
-      </c>
-      <c r="J18" t="n">
-        <v>0.6787846692501913</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0.1354933081550515</v>
-      </c>
-      <c r="L18" t="n">
-        <v>2.453401535484046</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0.9164555251744342</v>
-      </c>
-      <c r="N18" t="n">
-        <v>-2.453401535484046</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19">
@@ -1292,40 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>502</v>
+        <v>3</v>
       </c>
       <c r="D19" t="n">
-        <v>6085072935.90115</v>
+        <v>512</v>
       </c>
       <c r="E19" t="n">
-        <v>0.001217401097988846</v>
+        <v>3706890668.695658</v>
       </c>
       <c r="F19" t="n">
-        <v>0.216091704052068</v>
+        <v>0.001454317654924998</v>
       </c>
       <c r="G19" t="b">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0.189415473963607</v>
-      </c>
-      <c r="I19" t="n">
-        <v>22</v>
-      </c>
-      <c r="J19" t="n">
-        <v>0.6787846692501913</v>
-      </c>
-      <c r="K19" t="n">
-        <v>0.1894154739636069</v>
-      </c>
-      <c r="L19" t="n">
-        <v>2.286042352653084</v>
-      </c>
-      <c r="M19" t="n">
-        <v>0.9000839959357555</v>
-      </c>
-      <c r="N19" t="n">
-        <v>-2.286042352653084</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -1338,40 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>406</v>
+        <v>5</v>
       </c>
       <c r="D20" t="n">
-        <v>5842947484.476484</v>
+        <v>508</v>
       </c>
       <c r="E20" t="n">
-        <v>0.002702245428946161</v>
+        <v>4577181332.141671</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1820095667170428</v>
+        <v>0.0009907254894104048</v>
       </c>
       <c r="G20" t="b">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0.1204965703162807</v>
-      </c>
-      <c r="I20" t="n">
-        <v>16</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0.6787846692501913</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0.1204965703162808</v>
-      </c>
-      <c r="L20" t="n">
-        <v>2.579009508884913</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0.8204572953509763</v>
-      </c>
-      <c r="N20" t="n">
-        <v>-2.579009508884913</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21">
@@ -1384,40 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>464</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
-        <v>4118902707.420316</v>
+        <v>440</v>
       </c>
       <c r="E21" t="n">
-        <v>0.003495120266565044</v>
+        <v>7043499447.079794</v>
       </c>
       <c r="F21" t="n">
-        <v>0.2950778511496349</v>
+        <v>0.006034199335441551</v>
       </c>
       <c r="G21" t="b">
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0.349136638390008</v>
-      </c>
-      <c r="I21" t="n">
-        <v>20</v>
-      </c>
-      <c r="J21" t="n">
-        <v>0.6787846692501913</v>
-      </c>
-      <c r="K21" t="n">
-        <v>0.349136638390008</v>
-      </c>
-      <c r="L21" t="n">
-        <v>2.548097460070899</v>
-      </c>
-      <c r="M21" t="n">
-        <v>0.867278286855503</v>
-      </c>
-      <c r="N21" t="n">
-        <v>-2.548097460070899</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22">
@@ -1430,40 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>421</v>
+        <v>1</v>
       </c>
       <c r="D22" t="n">
-        <v>4170796226.284842</v>
+        <v>441</v>
       </c>
       <c r="E22" t="n">
-        <v>0.001920615895399191</v>
+        <v>6071756457.667368</v>
       </c>
       <c r="F22" t="n">
-        <v>0.2644011191556803</v>
+        <v>0.003535841451273425</v>
       </c>
       <c r="G22" t="b">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0.2871039461405845</v>
-      </c>
-      <c r="I22" t="n">
-        <v>21</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0.6787846692501913</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0.2871039461405845</v>
-      </c>
-      <c r="L22" t="n">
-        <v>2.433069972429932</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0.8086603637160822</v>
-      </c>
-      <c r="N22" t="n">
-        <v>-2.433069972429932</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23">
@@ -1476,40 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>489</v>
+        <v>3</v>
       </c>
       <c r="D23" t="n">
-        <v>7073710656.462761</v>
+        <v>439</v>
       </c>
       <c r="E23" t="n">
-        <v>0.002005186979892943</v>
+        <v>6477575381.397971</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1810763504766408</v>
+        <v>0.001707943216788839</v>
       </c>
       <c r="G23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0.1186094750463404</v>
-      </c>
-      <c r="I23" t="n">
-        <v>24</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0.6787846692501913</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0.1186094750463404</v>
-      </c>
-      <c r="L23" t="n">
-        <v>2.125976883554205</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0.8737699797061361</v>
-      </c>
-      <c r="N23" t="n">
-        <v>-2.125976883554205</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24">
@@ -1522,40 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>561</v>
+        <v>4</v>
       </c>
       <c r="D24" t="n">
-        <v>5525064420.028789</v>
+        <v>513</v>
       </c>
       <c r="E24" t="n">
-        <v>0.004629431951755945</v>
+        <v>7200669160.644647</v>
       </c>
       <c r="F24" t="n">
-        <v>0.2659657296796448</v>
+        <v>0.00440264180428246</v>
       </c>
       <c r="G24" t="b">
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0.2902678099818315</v>
-      </c>
-      <c r="I24" t="n">
-        <v>19</v>
-      </c>
-      <c r="J24" t="n">
-        <v>0.6787846692501913</v>
-      </c>
-      <c r="K24" t="n">
-        <v>0.2902678099818316</v>
-      </c>
-      <c r="L24" t="n">
-        <v>2.546354010109808</v>
-      </c>
-      <c r="M24" t="n">
-        <v>0.9804206990468122</v>
-      </c>
-      <c r="N24" t="n">
-        <v>-2.546354010109808</v>
+        <v>27</v>
       </c>
     </row>
     <row r="25">
@@ -1568,40 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>502</v>
+        <v>5</v>
       </c>
       <c r="D25" t="n">
-        <v>5413259802.605798</v>
+        <v>473</v>
       </c>
       <c r="E25" t="n">
-        <v>0.001173784140480929</v>
+        <v>5543921819.890432</v>
       </c>
       <c r="F25" t="n">
-        <v>0.2429097859605826</v>
+        <v>0.002976491444658138</v>
       </c>
       <c r="G25" t="b">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0.2436454298167454</v>
-      </c>
-      <c r="I25" t="n">
-        <v>16</v>
-      </c>
-      <c r="J25" t="n">
-        <v>0.9419512514265468</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0.2436454298167455</v>
-      </c>
-      <c r="L25" t="n">
-        <v>2.702158368385378</v>
-      </c>
-      <c r="M25" t="n">
-        <v>1.126740209583639</v>
-      </c>
-      <c r="N25" t="n">
-        <v>-2.702158368385378</v>
+        <v>22</v>
       </c>
     </row>
     <row r="26">
@@ -1614,40 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>440</v>
+        <v>2</v>
       </c>
       <c r="D26" t="n">
-        <v>8878378545.372093</v>
+        <v>462</v>
       </c>
       <c r="E26" t="n">
-        <v>0.003343816849561506</v>
+        <v>4989963757.428444</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1298132980149584</v>
+        <v>0.0009443458854328622</v>
       </c>
       <c r="G26" t="b">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0.01494833024942155</v>
-      </c>
-      <c r="I26" t="n">
-        <v>24</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0.9485707223976335</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0.01494833024942155</v>
-      </c>
-      <c r="L26" t="n">
-        <v>2.022315738757286</v>
-      </c>
-      <c r="M26" t="n">
-        <v>1.010837066192449</v>
-      </c>
-      <c r="N26" t="n">
-        <v>-2.022315738757286</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -1660,40 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>520</v>
+        <v>2</v>
       </c>
       <c r="D27" t="n">
-        <v>6054631295.600825</v>
+        <v>517</v>
       </c>
       <c r="E27" t="n">
-        <v>0.004693124232801393</v>
+        <v>8691065230.591366</v>
       </c>
       <c r="F27" t="n">
-        <v>0.2249654410813855</v>
+        <v>0.002583119982391427</v>
       </c>
       <c r="G27" t="b">
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0.2073594256971372</v>
-      </c>
-      <c r="I27" t="n">
-        <v>19</v>
-      </c>
-      <c r="J27" t="n">
-        <v>0.6787846692501913</v>
-      </c>
-      <c r="K27" t="n">
-        <v>0.2073594256971373</v>
-      </c>
-      <c r="L27" t="n">
-        <v>2.463445625825114</v>
-      </c>
-      <c r="M27" t="n">
-        <v>0.9365302409215741</v>
-      </c>
-      <c r="N27" t="n">
-        <v>-2.463445625825114</v>
+        <v>27</v>
       </c>
     </row>
     <row r="28">
@@ -1706,40 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>488</v>
+        <v>5</v>
       </c>
       <c r="D28" t="n">
-        <v>5647876142.162022</v>
+        <v>507</v>
       </c>
       <c r="E28" t="n">
-        <v>0.003842736873459637</v>
+        <v>7373973381.568957</v>
       </c>
       <c r="F28" t="n">
-        <v>0.2263261955158029</v>
+        <v>0.004031364616042416</v>
       </c>
       <c r="G28" t="b">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0.21011106368367</v>
-      </c>
-      <c r="I28" t="n">
-        <v>16</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1</v>
-      </c>
-      <c r="K28" t="n">
-        <v>0.2101110636836699</v>
-      </c>
-      <c r="L28" t="n">
-        <v>2.668624002252302</v>
-      </c>
-      <c r="M28" t="n">
-        <v>1.146872268589997</v>
-      </c>
-      <c r="N28" t="n">
-        <v>-2.668624002252302</v>
+        <v>25</v>
       </c>
     </row>
     <row r="29">
@@ -1752,40 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>550</v>
+        <v>1</v>
       </c>
       <c r="D29" t="n">
-        <v>5434252017.002002</v>
+        <v>504</v>
       </c>
       <c r="E29" t="n">
-        <v>0.003512169427094836</v>
+        <v>7491697524.04766</v>
       </c>
       <c r="F29" t="n">
-        <v>0.2651081502095653</v>
+        <v>0.001218147554865718</v>
       </c>
       <c r="G29" t="b">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0.2885336629626071</v>
-      </c>
-      <c r="I29" t="n">
-        <v>20</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0.6787846692501913</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0.288533662962607</v>
-      </c>
-      <c r="L29" t="n">
-        <v>2.487494484643498</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0.9636657682320131</v>
-      </c>
-      <c r="N29" t="n">
-        <v>-2.487494484643498</v>
+        <v>26</v>
       </c>
     </row>
     <row r="30">
@@ -1798,40 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>483</v>
+        <v>6</v>
       </c>
       <c r="D30" t="n">
-        <v>8499320839.705422</v>
+        <v>564</v>
       </c>
       <c r="E30" t="n">
-        <v>0.003553472151139161</v>
+        <v>6189294165.474961</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1488548783909479</v>
+        <v>0.003333756205643532</v>
       </c>
       <c r="G30" t="b">
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0.05345309978090874</v>
-      </c>
-      <c r="I30" t="n">
-        <v>24</v>
-      </c>
-      <c r="J30" t="n">
-        <v>0.6787846692501913</v>
-      </c>
-      <c r="K30" t="n">
-        <v>0.05345309978090876</v>
-      </c>
-      <c r="L30" t="n">
-        <v>2.060820508288773</v>
-      </c>
-      <c r="M30" t="n">
-        <v>0.8666956866717098</v>
-      </c>
-      <c r="N30" t="n">
-        <v>-2.060820508288773</v>
+        <v>31</v>
       </c>
     </row>
     <row r="31">
@@ -1844,40 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>555</v>
+        <v>4</v>
       </c>
       <c r="D31" t="n">
-        <v>5830989036.590513</v>
+        <v>457</v>
       </c>
       <c r="E31" t="n">
-        <v>0.003502687500036464</v>
+        <v>7192634700.940011</v>
       </c>
       <c r="F31" t="n">
-        <v>0.2493164437246209</v>
+        <v>0.002577374556779757</v>
       </c>
       <c r="G31" t="b">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0.2566005982324126</v>
-      </c>
-      <c r="I31" t="n">
-        <v>22</v>
-      </c>
-      <c r="J31" t="n">
-        <v>0.6787846692501913</v>
-      </c>
-      <c r="K31" t="n">
-        <v>0.2566005982324126</v>
-      </c>
-      <c r="L31" t="n">
-        <v>2.353227476921889</v>
-      </c>
-      <c r="M31" t="n">
-        <v>0.9585990731161411</v>
-      </c>
-      <c r="N31" t="n">
-        <v>-2.353227476921889</v>
+        <v>20</v>
       </c>
     </row>
     <row r="32">
@@ -1890,40 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>516</v>
+        <v>5</v>
       </c>
       <c r="D32" t="n">
-        <v>3806884341.105919</v>
+        <v>574</v>
       </c>
       <c r="E32" t="n">
-        <v>0.002488747404637244</v>
+        <v>4470770216.112435</v>
       </c>
       <c r="F32" t="n">
-        <v>0.3550423703199115</v>
+        <v>0.001047030757048776</v>
       </c>
       <c r="G32" t="b">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0.4703933799590733</v>
-      </c>
-      <c r="I32" t="n">
-        <v>23</v>
-      </c>
-      <c r="J32" t="n">
-        <v>0.6787846692501913</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0.4703933799590734</v>
-      </c>
-      <c r="L32" t="n">
-        <v>2.520934919308575</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0.9104287539764319</v>
-      </c>
-      <c r="N32" t="n">
-        <v>-2.520934919308575</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1936,40 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>426</v>
+        <v>4</v>
       </c>
       <c r="D33" t="n">
-        <v>4298435356.710087</v>
+        <v>470</v>
       </c>
       <c r="E33" t="n">
-        <v>0.004380269177921706</v>
+        <v>7624010160.997456</v>
       </c>
       <c r="F33" t="n">
-        <v>0.2595968177718627</v>
+        <v>0.002399117540997977</v>
       </c>
       <c r="G33" t="b">
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0.2773889690278148</v>
-      </c>
-      <c r="I33" t="n">
-        <v>16</v>
-      </c>
-      <c r="J33" t="n">
-        <v>0.6787846692501913</v>
-      </c>
-      <c r="K33" t="n">
-        <v>0.2773889690278147</v>
-      </c>
-      <c r="L33" t="n">
-        <v>2.735901907596447</v>
-      </c>
-      <c r="M33" t="n">
-        <v>0.8450988427174394</v>
-      </c>
-      <c r="N33" t="n">
-        <v>-2.735901907596447</v>
+        <v>22</v>
       </c>
     </row>
     <row r="34">
@@ -1982,40 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>368</v>
+        <v>3</v>
       </c>
       <c r="D34" t="n">
-        <v>3372579813.752537</v>
+        <v>560</v>
       </c>
       <c r="E34" t="n">
-        <v>0.002693531213190146</v>
+        <v>7406242173.221609</v>
       </c>
       <c r="F34" t="n">
-        <v>0.2858154805022885</v>
+        <v>0.004929633454449007</v>
       </c>
       <c r="G34" t="b">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0.3304068144967667</v>
-      </c>
-      <c r="I34" t="n">
-        <v>19</v>
-      </c>
-      <c r="J34" t="n">
-        <v>0.5915341957378086</v>
-      </c>
-      <c r="K34" t="n">
-        <v>0.3304068144967668</v>
-      </c>
-      <c r="L34" t="n">
-        <v>2.586493014624743</v>
-      </c>
-      <c r="M34" t="n">
-        <v>0.6841794622975692</v>
-      </c>
-      <c r="N34" t="n">
-        <v>-2.586493014624743</v>
+        <v>31</v>
       </c>
     </row>
     <row r="35">
@@ -2028,40 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>509</v>
+        <v>5</v>
       </c>
       <c r="D35" t="n">
-        <v>6346940715.691374</v>
+        <v>514</v>
       </c>
       <c r="E35" t="n">
-        <v>0.002968528451979102</v>
+        <v>6071099964.404166</v>
       </c>
       <c r="F35" t="n">
-        <v>0.2100649068146789</v>
+        <v>0.002508741492561083</v>
       </c>
       <c r="G35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0.1772284372756603</v>
-      </c>
-      <c r="I35" t="n">
-        <v>17</v>
-      </c>
-      <c r="J35" t="n">
-        <v>0.6787846692501913</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0.1772284372756602</v>
-      </c>
-      <c r="L35" t="n">
-        <v>2.56233632613828</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0.9351555260508156</v>
-      </c>
-      <c r="N35" t="n">
-        <v>-2.56233632613828</v>
+        <v>26</v>
       </c>
     </row>
     <row r="36">
@@ -2074,40 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>589</v>
+        <v>6</v>
       </c>
       <c r="D36" t="n">
-        <v>7298371993.110824</v>
+        <v>538</v>
       </c>
       <c r="E36" t="n">
-        <v>0.001780031013941675</v>
+        <v>6599928822.306684</v>
       </c>
       <c r="F36" t="n">
-        <v>0.211392446350545</v>
+        <v>0.003137712967365479</v>
       </c>
       <c r="G36" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H36" t="n">
-        <v>0.1799129100380637</v>
-      </c>
-      <c r="I36" t="n">
-        <v>19</v>
-      </c>
-      <c r="J36" t="n">
-        <v>0.4307087505279307</v>
-      </c>
-      <c r="K36" t="n">
-        <v>0.1799129100380638</v>
-      </c>
-      <c r="L36" t="n">
-        <v>2.43599911016604</v>
-      </c>
-      <c r="M36" t="n">
-        <v>0.7595689568361068</v>
-      </c>
-      <c r="N36" t="n">
-        <v>-2.43599911016604</v>
+        <v>28</v>
       </c>
     </row>
     <row r="37">
@@ -2120,40 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>600</v>
+        <v>1</v>
       </c>
       <c r="D37" t="n">
-        <v>5259872171.049418</v>
+        <v>573</v>
       </c>
       <c r="E37" t="n">
-        <v>0.002908427406405509</v>
+        <v>6294736720.165327</v>
       </c>
       <c r="F37" t="n">
-        <v>0.2987969952293417</v>
+        <v>0.005050482920495215</v>
       </c>
       <c r="G37" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H37" t="n">
-        <v>0.356657273905329</v>
-      </c>
-      <c r="I37" t="n">
-        <v>24</v>
-      </c>
-      <c r="J37" t="n">
-        <v>0.4210854494565006</v>
-      </c>
-      <c r="K37" t="n">
-        <v>0.3566572739053289</v>
-      </c>
-      <c r="L37" t="n">
-        <v>2.364024682413194</v>
-      </c>
-      <c r="M37" t="n">
-        <v>0.7237488648970867</v>
-      </c>
-      <c r="N37" t="n">
-        <v>-2.364024682413194</v>
+        <v>25</v>
       </c>
     </row>
     <row r="38">
@@ -2166,40 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>494</v>
+        <v>1</v>
       </c>
       <c r="D38" t="n">
-        <v>7496605945.036965</v>
+        <v>461</v>
       </c>
       <c r="E38" t="n">
-        <v>0.00143927720525069</v>
+        <v>3878025230.079014</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1726086004102513</v>
+        <v>0.003563603387356427</v>
       </c>
       <c r="G38" t="b">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0.101486486391066</v>
-      </c>
-      <c r="I38" t="n">
-        <v>17</v>
-      </c>
-      <c r="J38" t="n">
-        <v>0.6787846692501913</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0.101486486391066</v>
-      </c>
-      <c r="L38" t="n">
-        <v>2.486594375253686</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0.9185501878245904</v>
-      </c>
-      <c r="N38" t="n">
-        <v>-2.486594375253686</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -2212,40 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>444</v>
+        <v>1</v>
       </c>
       <c r="D39" t="n">
-        <v>3760683806.714372</v>
+        <v>470</v>
       </c>
       <c r="E39" t="n">
-        <v>0.001576353555582976</v>
+        <v>4709304181.349472</v>
       </c>
       <c r="F39" t="n">
-        <v>0.3092547046692808</v>
+        <v>0.002398821699548019</v>
       </c>
       <c r="G39" t="b">
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0.3778042419542554</v>
-      </c>
-      <c r="I39" t="n">
-        <v>18</v>
-      </c>
-      <c r="J39" t="n">
-        <v>0.6787846692501913</v>
-      </c>
-      <c r="K39" t="n">
-        <v>0.3778042419542553</v>
-      </c>
-      <c r="L39" t="n">
-        <v>2.69571246928325</v>
-      </c>
-      <c r="M39" t="n">
-        <v>0.855061253000801</v>
-      </c>
-      <c r="N39" t="n">
-        <v>-2.69571246928325</v>
+        <v>13</v>
       </c>
     </row>
     <row r="40">
@@ -2258,40 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>563</v>
+        <v>1</v>
       </c>
       <c r="D40" t="n">
-        <v>4800759015.486515</v>
+        <v>523</v>
       </c>
       <c r="E40" t="n">
-        <v>0.003643763940889476</v>
+        <v>4571550410.073197</v>
       </c>
       <c r="F40" t="n">
-        <v>0.3071840442819124</v>
+        <v>0.005055553817890767</v>
       </c>
       <c r="G40" t="b">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0.3736170736930465</v>
-      </c>
-      <c r="I40" t="n">
-        <v>22</v>
-      </c>
-      <c r="J40" t="n">
-        <v>0.5943771038913171</v>
-      </c>
-      <c r="K40" t="n">
-        <v>0.3736170736930466</v>
-      </c>
-      <c r="L40" t="n">
-        <v>2.470243952382523</v>
-      </c>
-      <c r="M40" t="n">
-        <v>0.8897542383730093</v>
-      </c>
-      <c r="N40" t="n">
-        <v>-2.470243952382523</v>
+        <v>27</v>
       </c>
     </row>
     <row r="41">
@@ -2304,40 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>496</v>
+        <v>1</v>
       </c>
       <c r="D41" t="n">
-        <v>5814360010.920331</v>
+        <v>540</v>
       </c>
       <c r="E41" t="n">
-        <v>0.003441932960349784</v>
+        <v>5038233736.988955</v>
       </c>
       <c r="F41" t="n">
-        <v>0.2234497756519814</v>
+        <v>0.001344553199545092</v>
       </c>
       <c r="G41" t="b">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0.204294535761865</v>
-      </c>
-      <c r="I41" t="n">
-        <v>14</v>
-      </c>
-      <c r="J41" t="n">
-        <v>0.6787846692501913</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0.204294535761865</v>
-      </c>
-      <c r="L41" t="n">
-        <v>2.832555420640331</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0.936930432635936</v>
-      </c>
-      <c r="N41" t="n">
-        <v>-2.832555420640331</v>
+        <v>29</v>
       </c>
     </row>
     <row r="42">
@@ -2350,40 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>559</v>
+        <v>6</v>
       </c>
       <c r="D42" t="n">
-        <v>9009455758.474722</v>
+        <v>514</v>
       </c>
       <c r="E42" t="n">
-        <v>0.004120430989197746</v>
+        <v>5733733790.141481</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1625224707522058</v>
+        <v>0.005482861496618426</v>
       </c>
       <c r="G42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>0.08109090523240091</v>
-      </c>
-      <c r="I42" t="n">
-        <v>19</v>
-      </c>
-      <c r="J42" t="n">
-        <v>0.6787846692501913</v>
-      </c>
-      <c r="K42" t="n">
-        <v>0.08109090523240091</v>
-      </c>
-      <c r="L42" t="n">
-        <v>2.337177105360377</v>
-      </c>
-      <c r="M42" t="n">
-        <v>0.9783253850701557</v>
-      </c>
-      <c r="N42" t="n">
-        <v>-2.337177105360377</v>
+        <v>24</v>
       </c>
     </row>
     <row r="43">
@@ -2396,40 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>503</v>
+        <v>5</v>
       </c>
       <c r="D43" t="n">
-        <v>4839685259.079359</v>
+        <v>493</v>
       </c>
       <c r="E43" t="n">
-        <v>0.001751323143399764</v>
+        <v>4621906113.227325</v>
       </c>
       <c r="F43" t="n">
-        <v>0.2722394328284552</v>
+        <v>0.004623950930170083</v>
       </c>
       <c r="G43" t="b">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0.30295412535503</v>
-      </c>
-      <c r="I43" t="n">
-        <v>19</v>
-      </c>
-      <c r="J43" t="n">
-        <v>0.6787846692501913</v>
-      </c>
-      <c r="K43" t="n">
-        <v>0.30295412535503</v>
-      </c>
-      <c r="L43" t="n">
-        <v>2.559040325483006</v>
-      </c>
-      <c r="M43" t="n">
-        <v>0.9177163471155252</v>
-      </c>
-      <c r="N43" t="n">
-        <v>-2.559040325483006</v>
+        <v>25</v>
       </c>
     </row>
     <row r="44">
@@ -2442,40 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>535</v>
+        <v>1</v>
       </c>
       <c r="D44" t="n">
-        <v>5142818208.229213</v>
+        <v>523</v>
       </c>
       <c r="E44" t="n">
-        <v>0.002977863165484078</v>
+        <v>6867017958.123775</v>
       </c>
       <c r="F44" t="n">
-        <v>0.2724913837626246</v>
+        <v>0.001646951195589069</v>
       </c>
       <c r="G44" t="b">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0.3034636057900505</v>
-      </c>
-      <c r="I44" t="n">
-        <v>25</v>
-      </c>
-      <c r="J44" t="n">
-        <v>0.1927438563600357</v>
-      </c>
-      <c r="K44" t="n">
-        <v>0.3034636057900506</v>
-      </c>
-      <c r="L44" t="n">
-        <v>2.270273956644957</v>
-      </c>
-      <c r="M44" t="n">
-        <v>0.248485498529537</v>
-      </c>
-      <c r="N44" t="n">
-        <v>-2.270273956644957</v>
+        <v>27</v>
       </c>
     </row>
     <row r="45">
@@ -2488,40 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>534</v>
+        <v>3</v>
       </c>
       <c r="D45" t="n">
-        <v>3963283408.268007</v>
+        <v>520</v>
       </c>
       <c r="E45" t="n">
-        <v>0.001192640398095167</v>
+        <v>4897944155.461791</v>
       </c>
       <c r="F45" t="n">
-        <v>0.3529281446494559</v>
+        <v>0.001620953689836392</v>
       </c>
       <c r="G45" t="b">
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>0.4661181165318266</v>
-      </c>
-      <c r="I45" t="n">
-        <v>17</v>
-      </c>
-      <c r="J45" t="n">
-        <v>0.6787846692501913</v>
-      </c>
-      <c r="K45" t="n">
-        <v>0.4661181165318266</v>
-      </c>
-      <c r="L45" t="n">
-        <v>2.851226005394446</v>
-      </c>
-      <c r="M45" t="n">
-        <v>0.9621944753988265</v>
-      </c>
-      <c r="N45" t="n">
-        <v>-2.851226005394446</v>
+        <v>4</v>
       </c>
     </row>
     <row r="46">
@@ -2534,40 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>428</v>
+        <v>3</v>
       </c>
       <c r="D46" t="n">
-        <v>4971721447.376981</v>
+        <v>406</v>
       </c>
       <c r="E46" t="n">
-        <v>0.003654645328717432</v>
+        <v>7271316336.821228</v>
       </c>
       <c r="F46" t="n">
-        <v>0.225495119118445</v>
+        <v>0.005360171572362716</v>
       </c>
       <c r="G46" t="b">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0.2084305096271551</v>
-      </c>
-      <c r="I46" t="n">
-        <v>22</v>
-      </c>
-      <c r="J46" t="n">
-        <v>0.6787846692501913</v>
-      </c>
-      <c r="K46" t="n">
-        <v>0.2084305096271551</v>
-      </c>
-      <c r="L46" t="n">
-        <v>2.305057388316632</v>
-      </c>
-      <c r="M46" t="n">
-        <v>0.8113545723104831</v>
-      </c>
-      <c r="N46" t="n">
-        <v>-2.305057388316632</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47">
@@ -2580,40 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>484</v>
+        <v>4</v>
       </c>
       <c r="D47" t="n">
-        <v>7366426632.272665</v>
+        <v>368</v>
       </c>
       <c r="E47" t="n">
-        <v>0.004305234389428485</v>
+        <v>8025072662.999429</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1721030865149426</v>
+        <v>0.002152424753235814</v>
       </c>
       <c r="G47" t="b">
         <v>0</v>
       </c>
       <c r="H47" t="n">
-        <v>0.1004642657744218</v>
-      </c>
-      <c r="I47" t="n">
-        <v>20</v>
-      </c>
-      <c r="J47" t="n">
-        <v>0.6787846692501913</v>
-      </c>
-      <c r="K47" t="n">
-        <v>0.1004642657744218</v>
-      </c>
-      <c r="L47" t="n">
-        <v>2.299425087455312</v>
-      </c>
-      <c r="M47" t="n">
-        <v>0.8906253462139578</v>
-      </c>
-      <c r="N47" t="n">
-        <v>-2.299425087455312</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48">
@@ -2626,40 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>506</v>
+        <v>1</v>
       </c>
       <c r="D48" t="n">
-        <v>5596692203.920995</v>
+        <v>431</v>
       </c>
       <c r="E48" t="n">
-        <v>0.001896823417889677</v>
+        <v>6042267161.017452</v>
       </c>
       <c r="F48" t="n">
-        <v>0.2368204810461844</v>
+        <v>0.00271972818520039</v>
       </c>
       <c r="G48" t="b">
         <v>0</v>
       </c>
       <c r="H48" t="n">
-        <v>0.2313319937622725</v>
-      </c>
-      <c r="I48" t="n">
-        <v>15</v>
-      </c>
-      <c r="J48" t="n">
-        <v>0.6787846692501913</v>
-      </c>
-      <c r="K48" t="n">
-        <v>0.2313319937622725</v>
-      </c>
-      <c r="L48" t="n">
-        <v>2.770473238432078</v>
-      </c>
-      <c r="M48" t="n">
-        <v>0.9425282891421457</v>
-      </c>
-      <c r="N48" t="n">
-        <v>-2.770473238432078</v>
+        <v>18</v>
       </c>
     </row>
     <row r="49">
@@ -2672,40 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>479</v>
+        <v>6</v>
       </c>
       <c r="D49" t="n">
-        <v>4506669022.531095</v>
+        <v>581</v>
       </c>
       <c r="E49" t="n">
-        <v>0.001668197721890523</v>
+        <v>5937372531.513687</v>
       </c>
       <c r="F49" t="n">
-        <v>0.2784069128944654</v>
+        <v>0.004681783989784522</v>
       </c>
       <c r="G49" t="b">
         <v>0</v>
       </c>
       <c r="H49" t="n">
-        <v>0.3154256426263176</v>
-      </c>
-      <c r="I49" t="n">
-        <v>24</v>
-      </c>
-      <c r="J49" t="n">
-        <v>0.9596824509413211</v>
-      </c>
-      <c r="K49" t="n">
-        <v>0.3154256426263177</v>
-      </c>
-      <c r="L49" t="n">
-        <v>2.322793051134183</v>
-      </c>
-      <c r="M49" t="n">
-        <v>1.072251447408933</v>
-      </c>
-      <c r="N49" t="n">
-        <v>-2.322793051134183</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50">
@@ -2718,40 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>559</v>
+        <v>1</v>
       </c>
       <c r="D50" t="n">
-        <v>5877760196.501237</v>
+        <v>528</v>
       </c>
       <c r="E50" t="n">
-        <v>0.004838338444516511</v>
+        <v>7582715379.328855</v>
       </c>
       <c r="F50" t="n">
-        <v>0.2491151324736921</v>
+        <v>0.003511153954154077</v>
       </c>
       <c r="G50" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H50" t="n">
-        <v>0.2561935184014295</v>
-      </c>
-      <c r="I50" t="n">
-        <v>15</v>
-      </c>
-      <c r="J50" t="n">
-        <v>0.4789309415701215</v>
-      </c>
-      <c r="K50" t="n">
-        <v>0.2561935184014295</v>
-      </c>
-      <c r="L50" t="n">
-        <v>2.795334763071235</v>
-      </c>
-      <c r="M50" t="n">
-        <v>0.8120192587843524</v>
-      </c>
-      <c r="N50" t="n">
-        <v>-2.795334763071235</v>
+        <v>27</v>
       </c>
     </row>
     <row r="51">
@@ -2764,40 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>547</v>
+        <v>6</v>
       </c>
       <c r="D51" t="n">
-        <v>5810593363.515237</v>
+        <v>394</v>
       </c>
       <c r="E51" t="n">
-        <v>0.004467493220802955</v>
+        <v>4413569132.742912</v>
       </c>
       <c r="F51" t="n">
-        <v>0.2465852005746268</v>
+        <v>0.004099150099231995</v>
       </c>
       <c r="G51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H51" t="n">
-        <v>0.2510776381656324</v>
-      </c>
-      <c r="I51" t="n">
-        <v>21</v>
-      </c>
-      <c r="J51" t="n">
-        <v>0.6787846692501913</v>
-      </c>
-      <c r="K51" t="n">
-        <v>0.2510776381656325</v>
-      </c>
-      <c r="L51" t="n">
-        <v>2.39704366445498</v>
-      </c>
-      <c r="M51" t="n">
-        <v>0.9552462670913917</v>
-      </c>
-      <c r="N51" t="n">
-        <v>-2.39704366445498</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -2810,40 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>444</v>
+        <v>6</v>
       </c>
       <c r="D52" t="n">
-        <v>6470012241.540823</v>
+        <v>497</v>
       </c>
       <c r="E52" t="n">
-        <v>0.004773646221288592</v>
+        <v>6411806740.684496</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1797537804539039</v>
+        <v>0.00140547394010734</v>
       </c>
       <c r="G52" t="b">
         <v>0</v>
       </c>
       <c r="H52" t="n">
-        <v>0.1159350513425731</v>
-      </c>
-      <c r="I52" t="n">
-        <v>20</v>
-      </c>
-      <c r="J52" t="n">
-        <v>0.6787846692501913</v>
-      </c>
-      <c r="K52" t="n">
-        <v>0.1159350513425731</v>
-      </c>
-      <c r="L52" t="n">
-        <v>2.314895873023464</v>
-      </c>
-      <c r="M52" t="n">
-        <v>0.8432850919963544</v>
-      </c>
-      <c r="N52" t="n">
-        <v>-2.314895873023464</v>
+        <v>24</v>
       </c>
     </row>
     <row r="53">
@@ -2856,40 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>504</v>
+        <v>6</v>
       </c>
       <c r="D53" t="n">
-        <v>5986802561.862445</v>
+        <v>443</v>
       </c>
       <c r="E53" t="n">
-        <v>0.002647591793902008</v>
+        <v>7029321097.724893</v>
       </c>
       <c r="F53" t="n">
-        <v>0.2205137961972986</v>
+        <v>0.002360747418187561</v>
       </c>
       <c r="G53" t="b">
         <v>0</v>
       </c>
       <c r="H53" t="n">
-        <v>0.198357569920821</v>
-      </c>
-      <c r="I53" t="n">
-        <v>20</v>
-      </c>
-      <c r="J53" t="n">
-        <v>0.6787846692501913</v>
-      </c>
-      <c r="K53" t="n">
-        <v>0.1983575699208209</v>
-      </c>
-      <c r="L53" t="n">
-        <v>2.397318391601711</v>
-      </c>
-      <c r="M53" t="n">
-        <v>0.9133758195761746</v>
-      </c>
-      <c r="N53" t="n">
-        <v>-2.397318391601711</v>
+        <v>19</v>
       </c>
     </row>
     <row r="54">
@@ -2902,40 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>456</v>
+        <v>3</v>
       </c>
       <c r="D54" t="n">
-        <v>6883632404.78794</v>
+        <v>591</v>
       </c>
       <c r="E54" t="n">
-        <v>0.001273042417447379</v>
+        <v>5953722412.624709</v>
       </c>
       <c r="F54" t="n">
-        <v>0.173519120394808</v>
+        <v>0.004362907259626281</v>
       </c>
       <c r="G54" t="b">
         <v>0</v>
       </c>
       <c r="H54" t="n">
-        <v>0.1033276866206108</v>
-      </c>
-      <c r="I54" t="n">
-        <v>23</v>
-      </c>
-      <c r="J54" t="n">
-        <v>0.6787846692501913</v>
-      </c>
-      <c r="K54" t="n">
-        <v>0.1033276866206108</v>
-      </c>
-      <c r="L54" t="n">
-        <v>2.153869225970112</v>
-      </c>
-      <c r="M54" t="n">
-        <v>0.8400921822418833</v>
-      </c>
-      <c r="N54" t="n">
-        <v>-2.153869225970112</v>
+        <v>25</v>
       </c>
     </row>
     <row r="55">
@@ -2948,40 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>501</v>
+        <v>2</v>
       </c>
       <c r="D55" t="n">
-        <v>6289150161.433359</v>
+        <v>568</v>
       </c>
       <c r="E55" t="n">
-        <v>0.002644703070806149</v>
+        <v>7091571119.719472</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2086632305343001</v>
+        <v>0.003889797001313353</v>
       </c>
       <c r="G55" t="b">
         <v>0</v>
       </c>
       <c r="H55" t="n">
-        <v>0.1743940495269526</v>
-      </c>
-      <c r="I55" t="n">
-        <v>20</v>
-      </c>
-      <c r="J55" t="n">
-        <v>0.6787846692501913</v>
-      </c>
-      <c r="K55" t="n">
-        <v>0.1743940495269526</v>
-      </c>
-      <c r="L55" t="n">
-        <v>2.373354871207843</v>
-      </c>
-      <c r="M55" t="n">
-        <v>0.9099995086351922</v>
-      </c>
-      <c r="N55" t="n">
-        <v>-2.373354871207843</v>
+        <v>32</v>
       </c>
     </row>
     <row r="56">
@@ -2994,40 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>493</v>
+        <v>6</v>
       </c>
       <c r="D56" t="n">
-        <v>5596839608.75808</v>
+        <v>467</v>
       </c>
       <c r="E56" t="n">
-        <v>0.003304461626571624</v>
+        <v>6194097801.295312</v>
       </c>
       <c r="F56" t="n">
-        <v>0.230730083452677</v>
+        <v>0.002273317364638766</v>
       </c>
       <c r="G56" t="b">
         <v>0</v>
       </c>
       <c r="H56" t="n">
-        <v>0.2190163481560479</v>
-      </c>
-      <c r="I56" t="n">
-        <v>19</v>
-      </c>
-      <c r="J56" t="n">
-        <v>0.6787846692501913</v>
-      </c>
-      <c r="K56" t="n">
-        <v>0.2190163481560479</v>
-      </c>
-      <c r="L56" t="n">
-        <v>2.475102548284024</v>
-      </c>
-      <c r="M56" t="n">
-        <v>0.9064669621829605</v>
-      </c>
-      <c r="N56" t="n">
-        <v>-2.475102548284024</v>
+        <v>13</v>
       </c>
     </row>
     <row r="57">
@@ -3040,40 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>426</v>
+        <v>5</v>
       </c>
       <c r="D57" t="n">
-        <v>5810276155.501841</v>
+        <v>475</v>
       </c>
       <c r="E57" t="n">
-        <v>0.002658115859908592</v>
+        <v>5278135607.800415</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1920494155761211</v>
+        <v>0.003295957427418005</v>
       </c>
       <c r="G57" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H57" t="n">
-        <v>0.1407985651516062</v>
-      </c>
-      <c r="I57" t="n">
-        <v>22</v>
-      </c>
-      <c r="J57" t="n">
-        <v>0.6787846692501913</v>
-      </c>
-      <c r="K57" t="n">
-        <v>0.1407985651516062</v>
-      </c>
-      <c r="L57" t="n">
-        <v>2.237425443841083</v>
-      </c>
-      <c r="M57" t="n">
-        <v>0.8088213980616211</v>
-      </c>
-      <c r="N57" t="n">
-        <v>-2.237425443841083</v>
+        <v>24</v>
       </c>
     </row>
     <row r="58">
@@ -3086,40 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>440</v>
+        <v>5</v>
       </c>
       <c r="D58" t="n">
-        <v>8242525952.269956</v>
+        <v>484</v>
       </c>
       <c r="E58" t="n">
-        <v>0.001281571908175489</v>
+        <v>5334518279.843204</v>
       </c>
       <c r="F58" t="n">
-        <v>0.139827476027855</v>
+        <v>0.002545531557703139</v>
       </c>
       <c r="G58" t="b">
         <v>0</v>
       </c>
       <c r="H58" t="n">
-        <v>0.035198415001845</v>
-      </c>
-      <c r="I58" t="n">
-        <v>19</v>
-      </c>
-      <c r="J58" t="n">
-        <v>0.6787846692501913</v>
-      </c>
-      <c r="K58" t="n">
-        <v>0.03519841500184499</v>
-      </c>
-      <c r="L58" t="n">
-        <v>2.291284615129821</v>
-      </c>
-      <c r="M58" t="n">
-        <v>0.8443467121329702</v>
-      </c>
-      <c r="N58" t="n">
-        <v>-2.291284615129821</v>
+        <v>24</v>
       </c>
     </row>
     <row r="59">
@@ -3132,40 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>480</v>
+        <v>6</v>
       </c>
       <c r="D59" t="n">
-        <v>6466275997.81827</v>
+        <v>352</v>
       </c>
       <c r="E59" t="n">
-        <v>0.001864157960898031</v>
+        <v>6241987521.917897</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1944406951426474</v>
+        <v>0.003354082172058106</v>
       </c>
       <c r="G59" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H59" t="n">
-        <v>0.1456340707544159</v>
-      </c>
-      <c r="I59" t="n">
-        <v>21</v>
-      </c>
-      <c r="J59" t="n">
-        <v>0.8481712414376585</v>
-      </c>
-      <c r="K59" t="n">
-        <v>0.1456340707544159</v>
-      </c>
-      <c r="L59" t="n">
-        <v>2.291600097043763</v>
-      </c>
-      <c r="M59" t="n">
-        <v>1.010350014156098</v>
-      </c>
-      <c r="N59" t="n">
-        <v>-2.291600097043763</v>
+        <v>14</v>
       </c>
     </row>
     <row r="60">
@@ -3178,40 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>435</v>
+        <v>2</v>
       </c>
       <c r="D60" t="n">
-        <v>7458213348.712278</v>
+        <v>424</v>
       </c>
       <c r="E60" t="n">
-        <v>0.003912790763270439</v>
+        <v>3937929815.561856</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1527758186478713</v>
+        <v>0.003818787542876792</v>
       </c>
       <c r="G60" t="b">
         <v>0</v>
       </c>
       <c r="H60" t="n">
-        <v>0.06138179571677433</v>
-      </c>
-      <c r="I60" t="n">
-        <v>24</v>
-      </c>
-      <c r="J60" t="n">
-        <v>0.9133748847471372</v>
-      </c>
-      <c r="K60" t="n">
-        <v>0.06138179571677436</v>
-      </c>
-      <c r="L60" t="n">
-        <v>2.068749204224639</v>
-      </c>
-      <c r="M60" t="n">
-        <v>0.9803914753399695</v>
-      </c>
-      <c r="N60" t="n">
-        <v>-2.068749204224639</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61">
@@ -3224,40 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>549</v>
+        <v>2</v>
       </c>
       <c r="D61" t="n">
-        <v>2637048990.363001</v>
+        <v>488</v>
       </c>
       <c r="E61" t="n">
-        <v>0.001031373666018985</v>
+        <v>5754571521.00874</v>
       </c>
       <c r="F61" t="n">
-        <v>0.5453236232073364</v>
+        <v>0.005074370028592704</v>
       </c>
       <c r="G61" t="b">
         <v>0</v>
       </c>
       <c r="H61" t="n">
-        <v>0.8551689943734926</v>
-      </c>
-      <c r="I61" t="n">
-        <v>29</v>
-      </c>
-      <c r="J61" t="n">
-        <v>0.6392844924175786</v>
-      </c>
-      <c r="K61" t="n">
-        <v>0.8551689943734927</v>
-      </c>
-      <c r="L61" t="n">
-        <v>2.681306560534131</v>
-      </c>
-      <c r="M61" t="n">
-        <v>0.8780888170190154</v>
-      </c>
-      <c r="N61" t="n">
-        <v>-2.681306560534131</v>
+        <v>22</v>
       </c>
     </row>
     <row r="62">
@@ -3270,40 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>465</v>
+        <v>1</v>
       </c>
       <c r="D62" t="n">
-        <v>2433472544.51927</v>
+        <v>441</v>
       </c>
       <c r="E62" t="n">
-        <v>0.00356047916079438</v>
+        <v>6526297225.437593</v>
       </c>
       <c r="F62" t="n">
-        <v>0.5005260292511818</v>
+        <v>0.003672546854576509</v>
       </c>
       <c r="G62" t="b">
         <v>1</v>
       </c>
       <c r="H62" t="n">
-        <v>0.7645819214106879</v>
-      </c>
-      <c r="I62" t="n">
-        <v>19</v>
-      </c>
-      <c r="J62" t="n">
-        <v>0.6787846692501913</v>
-      </c>
-      <c r="K62" t="n">
-        <v>0.7645819214106879</v>
-      </c>
-      <c r="L62" t="n">
-        <v>3.020668121538664</v>
-      </c>
-      <c r="M62" t="n">
-        <v>0.8741989023525493</v>
-      </c>
-      <c r="N62" t="n">
-        <v>-3.020668121538664</v>
+        <v>18</v>
       </c>
     </row>
     <row r="63">
@@ -3316,40 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>513</v>
+        <v>4</v>
       </c>
       <c r="D63" t="n">
-        <v>6912856639.093707</v>
+        <v>490</v>
       </c>
       <c r="E63" t="n">
-        <v>0.003768429386582036</v>
+        <v>7831320959.702396</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1943837606006203</v>
+        <v>0.005338633142181242</v>
       </c>
       <c r="G63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H63" t="n">
-        <v>0.145518941055313</v>
-      </c>
-      <c r="I63" t="n">
-        <v>28</v>
-      </c>
-      <c r="J63" t="n">
-        <v>0.6787846692501913</v>
-      </c>
-      <c r="K63" t="n">
-        <v>0.1455189410553129</v>
-      </c>
-      <c r="L63" t="n">
-        <v>2.003980035480232</v>
-      </c>
-      <c r="M63" t="n">
-        <v>0.8790473445707694</v>
-      </c>
-      <c r="N63" t="n">
-        <v>-2.003980035480232</v>
+        <v>24</v>
       </c>
     </row>
     <row r="64">
@@ -3362,40 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>471</v>
+        <v>5</v>
       </c>
       <c r="D64" t="n">
-        <v>6391668090.078709</v>
+        <v>545</v>
       </c>
       <c r="E64" t="n">
-        <v>0.002179511539909362</v>
+        <v>4615305817.562628</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1930220206388732</v>
+        <v>0.004095524332042836</v>
       </c>
       <c r="G64" t="b">
         <v>0</v>
       </c>
       <c r="H64" t="n">
-        <v>0.1427653101930867</v>
-      </c>
-      <c r="I64" t="n">
-        <v>18</v>
-      </c>
-      <c r="J64" t="n">
-        <v>0.6787846692501913</v>
-      </c>
-      <c r="K64" t="n">
-        <v>0.1427653101930866</v>
-      </c>
-      <c r="L64" t="n">
-        <v>2.460673537522081</v>
-      </c>
-      <c r="M64" t="n">
-        <v>0.8868688093594885</v>
-      </c>
-      <c r="N64" t="n">
-        <v>-2.460673537522081</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -3408,40 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>588</v>
+        <v>5</v>
       </c>
       <c r="D65" t="n">
-        <v>3533388679.974515</v>
+        <v>507</v>
       </c>
       <c r="E65" t="n">
-        <v>0.003973875328748099</v>
+        <v>6164579822.464036</v>
       </c>
       <c r="F65" t="n">
-        <v>0.4358992059744497</v>
+        <v>0.003580228412028724</v>
       </c>
       <c r="G65" t="b">
         <v>0</v>
       </c>
       <c r="H65" t="n">
-        <v>0.633897341313517</v>
-      </c>
-      <c r="I65" t="n">
         <v>26</v>
-      </c>
-      <c r="J65" t="n">
-        <v>0.6787846692501913</v>
-      </c>
-      <c r="K65" t="n">
-        <v>0.633897341313517</v>
-      </c>
-      <c r="L65" t="n">
-        <v>2.562513564110716</v>
-      </c>
-      <c r="M65" t="n">
-        <v>0.9729497858321655</v>
-      </c>
-      <c r="N65" t="n">
-        <v>-2.562513564110716</v>
       </c>
     </row>
     <row r="66">
@@ -3454,40 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>491</v>
+        <v>6</v>
       </c>
       <c r="D66" t="n">
-        <v>5567110560.494678</v>
+        <v>472</v>
       </c>
       <c r="E66" t="n">
-        <v>0.001036876469909744</v>
+        <v>6341073219.299967</v>
       </c>
       <c r="F66" t="n">
-        <v>0.2310211870277135</v>
+        <v>0.003426978315539698</v>
       </c>
       <c r="G66" t="b">
         <v>1</v>
       </c>
       <c r="H66" t="n">
-        <v>0.2196050007702346</v>
-      </c>
-      <c r="I66" t="n">
-        <v>19</v>
-      </c>
-      <c r="J66" t="n">
-        <v>0.6787846692501913</v>
-      </c>
-      <c r="K66" t="n">
-        <v>0.2196050007702346</v>
-      </c>
-      <c r="L66" t="n">
-        <v>2.475691200898211</v>
-      </c>
-      <c r="M66" t="n">
-        <v>0.9042002905786046</v>
-      </c>
-      <c r="N66" t="n">
-        <v>-2.475691200898211</v>
+        <v>20</v>
       </c>
     </row>
     <row r="67">
@@ -3500,40 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>456</v>
+        <v>6</v>
       </c>
       <c r="D67" t="n">
-        <v>4654366646.283361</v>
+        <v>411</v>
       </c>
       <c r="E67" t="n">
-        <v>0.002839696911497791</v>
+        <v>5001587843.960146</v>
       </c>
       <c r="F67" t="n">
-        <v>0.2566282226506144</v>
+        <v>0.00497875533946151</v>
       </c>
       <c r="G67" t="b">
         <v>0</v>
       </c>
       <c r="H67" t="n">
-        <v>0.2713860496944966</v>
-      </c>
-      <c r="I67" t="n">
-        <v>17</v>
-      </c>
-      <c r="J67" t="n">
-        <v>0.7539195448495309</v>
-      </c>
-      <c r="K67" t="n">
-        <v>0.2713860496944966</v>
-      </c>
-      <c r="L67" t="n">
-        <v>2.656493938557116</v>
-      </c>
-      <c r="M67" t="n">
-        <v>0.9323807474563836</v>
-      </c>
-      <c r="N67" t="n">
-        <v>-2.656493938557116</v>
+        <v>19</v>
       </c>
     </row>
     <row r="68">
@@ -3546,40 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>366</v>
+        <v>5</v>
       </c>
       <c r="D68" t="n">
-        <v>6513821875.080105</v>
+        <v>462</v>
       </c>
       <c r="E68" t="n">
-        <v>0.003140511718216091</v>
+        <v>5496222048.717132</v>
       </c>
       <c r="F68" t="n">
-        <v>0.147178838842321</v>
+        <v>0.002446810946951256</v>
       </c>
       <c r="G68" t="b">
         <v>0</v>
       </c>
       <c r="H68" t="n">
-        <v>0.05006391068676649</v>
-      </c>
-      <c r="I68" t="n">
-        <v>23</v>
-      </c>
-      <c r="J68" t="n">
-        <v>0.6787846692501913</v>
-      </c>
-      <c r="K68" t="n">
-        <v>0.05006391068676649</v>
-      </c>
-      <c r="L68" t="n">
-        <v>2.100605450036268</v>
-      </c>
-      <c r="M68" t="n">
-        <v>0.7218493004493436</v>
-      </c>
-      <c r="N68" t="n">
-        <v>-2.100605450036268</v>
+        <v>21</v>
       </c>
     </row>
     <row r="69">
@@ -3592,40 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>536</v>
+        <v>2</v>
       </c>
       <c r="D69" t="n">
-        <v>5636052620.792421</v>
+        <v>517</v>
       </c>
       <c r="E69" t="n">
-        <v>0.004981285858341339</v>
+        <v>6300191325.972696</v>
       </c>
       <c r="F69" t="n">
-        <v>0.2491092852505342</v>
+        <v>0.001115382513328728</v>
       </c>
       <c r="G69" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H69" t="n">
-        <v>0.2561816944889364</v>
-      </c>
-      <c r="I69" t="n">
-        <v>14</v>
-      </c>
-      <c r="J69" t="n">
-        <v>0.6787846692501913</v>
-      </c>
-      <c r="K69" t="n">
-        <v>0.2561816944889364</v>
-      </c>
-      <c r="L69" t="n">
-        <v>2.884442579367402</v>
-      </c>
-      <c r="M69" t="n">
-        <v>0.9797562944604105</v>
-      </c>
-      <c r="N69" t="n">
-        <v>-2.884442579367402</v>
+        <v>23</v>
       </c>
     </row>
     <row r="70">
@@ -3638,40 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>463</v>
+        <v>4</v>
       </c>
       <c r="D70" t="n">
-        <v>1965775214.208023</v>
+        <v>490</v>
       </c>
       <c r="E70" t="n">
-        <v>0.003238681339025371</v>
+        <v>6244070675.452394</v>
       </c>
       <c r="F70" t="n">
-        <v>0.6169462109575978</v>
+        <v>0.002955889312038357</v>
       </c>
       <c r="G70" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>18</v>
-      </c>
-      <c r="J70" t="n">
-        <v>0.8596866385152058</v>
-      </c>
-      <c r="K70" t="n">
-        <v>1</v>
-      </c>
-      <c r="L70" t="n">
-        <v>3.317908227328994</v>
-      </c>
-      <c r="M70" t="n">
-        <v>1.011600011692346</v>
-      </c>
-      <c r="N70" t="n">
-        <v>-3.317908227328994</v>
+        <v>23</v>
       </c>
     </row>
     <row r="71">
@@ -3684,40 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>392</v>
+        <v>5</v>
       </c>
       <c r="D71" t="n">
-        <v>5407619371.805444</v>
+        <v>474</v>
       </c>
       <c r="E71" t="n">
-        <v>0.004938921305132829</v>
+        <v>4551363847.977331</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1898803908709983</v>
+        <v>0.003061392372805941</v>
       </c>
       <c r="G71" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H71" t="n">
-        <v>0.1364124903232707</v>
-      </c>
-      <c r="I71" t="n">
-        <v>15</v>
-      </c>
-      <c r="J71" t="n">
-        <v>0.6787846692501913</v>
-      </c>
-      <c r="K71" t="n">
-        <v>0.1364124903232707</v>
-      </c>
-      <c r="L71" t="n">
-        <v>2.675553734993076</v>
-      </c>
-      <c r="M71" t="n">
-        <v>0.8089628280503609</v>
-      </c>
-      <c r="N71" t="n">
-        <v>-2.675553734993076</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -3730,40 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>630</v>
+        <v>3</v>
       </c>
       <c r="D72" t="n">
-        <v>7800886068.803999</v>
+        <v>460</v>
       </c>
       <c r="E72" t="n">
-        <v>0.001261785409125543</v>
+        <v>5377022378.979925</v>
       </c>
       <c r="F72" t="n">
-        <v>0.2115420845074596</v>
+        <v>0.002162010967263963</v>
       </c>
       <c r="G72" t="b">
         <v>0</v>
       </c>
       <c r="H72" t="n">
-        <v>0.1802154995622179</v>
-      </c>
-      <c r="I72" t="n">
-        <v>18</v>
-      </c>
-      <c r="J72" t="n">
-        <v>0.6787846692501913</v>
-      </c>
-      <c r="K72" t="n">
-        <v>0.1802154995622179</v>
-      </c>
-      <c r="L72" t="n">
-        <v>2.498123726891212</v>
-      </c>
-      <c r="M72" t="n">
-        <v>1.05490247640863</v>
-      </c>
-      <c r="N72" t="n">
-        <v>-2.498123726891212</v>
+        <v>21</v>
       </c>
     </row>
     <row r="73">
@@ -3776,40 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>523</v>
+        <v>6</v>
       </c>
       <c r="D73" t="n">
-        <v>6719917299.934001</v>
+        <v>480</v>
       </c>
       <c r="E73" t="n">
-        <v>0.001731362858148437</v>
+        <v>5340338292.951619</v>
       </c>
       <c r="F73" t="n">
-        <v>0.2038627722417737</v>
+        <v>0.001283743373161289</v>
       </c>
       <c r="G73" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H73" t="n">
-        <v>0.1646868436884959</v>
-      </c>
-      <c r="I73" t="n">
-        <v>15</v>
-      </c>
-      <c r="J73" t="n">
-        <v>0.6787846692501913</v>
-      </c>
-      <c r="K73" t="n">
-        <v>0.1646868436884959</v>
-      </c>
-      <c r="L73" t="n">
-        <v>2.703828088358302</v>
-      </c>
-      <c r="M73" t="n">
-        <v>0.9608564795175079</v>
-      </c>
-      <c r="N73" t="n">
-        <v>-2.703828088358302</v>
+        <v>23</v>
       </c>
     </row>
     <row r="74">
@@ -3822,40 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>463</v>
+        <v>5</v>
       </c>
       <c r="D74" t="n">
-        <v>6682061397.388458</v>
+        <v>520</v>
       </c>
       <c r="E74" t="n">
-        <v>0.00120225037511986</v>
+        <v>4562129094.940001</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1814975196836695</v>
+        <v>0.004524018712855292</v>
       </c>
       <c r="G74" t="b">
         <v>0</v>
       </c>
       <c r="H74" t="n">
-        <v>0.1194611387701586</v>
-      </c>
-      <c r="I74" t="n">
-        <v>22</v>
-      </c>
-      <c r="J74" t="n">
-        <v>0.6787846692501913</v>
-      </c>
-      <c r="K74" t="n">
-        <v>0.1194611387701587</v>
-      </c>
-      <c r="L74" t="n">
-        <v>2.216088017459636</v>
-      </c>
-      <c r="M74" t="n">
-        <v>0.8544703229648356</v>
-      </c>
-      <c r="N74" t="n">
-        <v>-2.216088017459636</v>
+        <v>23</v>
       </c>
     </row>
     <row r="75">
@@ -3868,40 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>465</v>
+        <v>5</v>
       </c>
       <c r="D75" t="n">
-        <v>4792120646.976908</v>
+        <v>441</v>
       </c>
       <c r="E75" t="n">
-        <v>0.003854487465476196</v>
+        <v>6554036615.140812</v>
       </c>
       <c r="F75" t="n">
-        <v>0.2541706354510046</v>
+        <v>0.003678093635041734</v>
       </c>
       <c r="G75" t="b">
         <v>0</v>
       </c>
       <c r="H75" t="n">
-        <v>0.2664164606763587</v>
-      </c>
-      <c r="I75" t="n">
         <v>19</v>
-      </c>
-      <c r="J75" t="n">
-        <v>0.6787846692501913</v>
-      </c>
-      <c r="K75" t="n">
-        <v>0.2664164606763587</v>
-      </c>
-      <c r="L75" t="n">
-        <v>2.522502660804335</v>
-      </c>
-      <c r="M75" t="n">
-        <v>0.8741989023525493</v>
-      </c>
-      <c r="N75" t="n">
-        <v>-2.522502660804335</v>
       </c>
     </row>
     <row r="76">
@@ -3914,40 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>520</v>
+        <v>2</v>
       </c>
       <c r="D76" t="n">
-        <v>5295899379.971079</v>
+        <v>459</v>
       </c>
       <c r="E76" t="n">
-        <v>0.001266857043339143</v>
+        <v>7131667240.168633</v>
       </c>
       <c r="F76" t="n">
-        <v>0.2571957475535418</v>
+        <v>0.002563276592288582</v>
       </c>
       <c r="G76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H76" t="n">
-        <v>0.2725336653418907</v>
-      </c>
-      <c r="I76" t="n">
-        <v>21</v>
-      </c>
-      <c r="J76" t="n">
-        <v>0.6787846692501913</v>
-      </c>
-      <c r="K76" t="n">
-        <v>0.2725336653418908</v>
-      </c>
-      <c r="L76" t="n">
-        <v>2.418499691631238</v>
-      </c>
-      <c r="M76" t="n">
-        <v>0.9257909548924216</v>
-      </c>
-      <c r="N76" t="n">
-        <v>-2.418499691631238</v>
+        <v>20</v>
       </c>
     </row>
     <row r="77">
@@ -3960,40 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>541</v>
+        <v>6</v>
       </c>
       <c r="D77" t="n">
-        <v>6090836533.11596</v>
+        <v>576</v>
       </c>
       <c r="E77" t="n">
-        <v>0.001538019686585953</v>
+        <v>7753256775.772272</v>
       </c>
       <c r="F77" t="n">
-        <v>0.2326593370705752</v>
+        <v>0.003942040856121229</v>
       </c>
       <c r="G77" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H77" t="n">
-        <v>0.2229175719230956</v>
-      </c>
-      <c r="I77" t="n">
-        <v>14</v>
-      </c>
-      <c r="J77" t="n">
-        <v>0.6787846692501913</v>
-      </c>
-      <c r="K77" t="n">
-        <v>0.2229175719230955</v>
-      </c>
-      <c r="L77" t="n">
-        <v>2.851178456801561</v>
-      </c>
-      <c r="M77" t="n">
-        <v>0.9849786122813651</v>
-      </c>
-      <c r="N77" t="n">
-        <v>-2.851178456801561</v>
+        <v>33</v>
       </c>
     </row>
     <row r="78">
@@ -4006,40 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>508</v>
+        <v>6</v>
       </c>
       <c r="D78" t="n">
-        <v>5755377573.569175</v>
+        <v>454</v>
       </c>
       <c r="E78" t="n">
-        <v>0.003950433851355712</v>
+        <v>5315256786.780318</v>
       </c>
       <c r="F78" t="n">
-        <v>0.2312011858458841</v>
+        <v>0.00441011358264315</v>
       </c>
       <c r="G78" t="b">
         <v>0</v>
       </c>
       <c r="H78" t="n">
-        <v>0.2199689838468881</v>
-      </c>
-      <c r="I78" t="n">
-        <v>22</v>
-      </c>
-      <c r="J78" t="n">
-        <v>0.6787846692501913</v>
-      </c>
-      <c r="K78" t="n">
-        <v>0.2199689838468881</v>
-      </c>
-      <c r="L78" t="n">
-        <v>2.316595862536365</v>
-      </c>
-      <c r="M78" t="n">
-        <v>0.9068978795211685</v>
-      </c>
-      <c r="N78" t="n">
-        <v>-2.316595862536365</v>
+        <v>20</v>
       </c>
     </row>
     <row r="79">
@@ -4052,40 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>517</v>
+        <v>2</v>
       </c>
       <c r="D79" t="n">
-        <v>7735365364.397675</v>
+        <v>461</v>
       </c>
       <c r="E79" t="n">
-        <v>0.003364631192832288</v>
+        <v>6806500238.976439</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1750692522208288</v>
+        <v>0.001850511885557893</v>
       </c>
       <c r="G79" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H79" t="n">
-        <v>0.1064622724861632</v>
-      </c>
-      <c r="I79" t="n">
-        <v>17</v>
-      </c>
-      <c r="J79" t="n">
-        <v>0.6787846692501913</v>
-      </c>
-      <c r="K79" t="n">
-        <v>0.1064622724861632</v>
-      </c>
-      <c r="L79" t="n">
-        <v>2.491570161348783</v>
-      </c>
-      <c r="M79" t="n">
-        <v>0.9438922661461233</v>
-      </c>
-      <c r="N79" t="n">
-        <v>-2.491570161348783</v>
+        <v>21</v>
       </c>
     </row>
     <row r="80">
@@ -4098,40 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>562</v>
+        <v>5</v>
       </c>
       <c r="D80" t="n">
-        <v>4088529327.703747</v>
+        <v>573</v>
       </c>
       <c r="E80" t="n">
-        <v>0.003528505863791298</v>
+        <v>7703132165.511927</v>
       </c>
       <c r="F80" t="n">
-        <v>0.360055428739404</v>
+        <v>0.002825147413095985</v>
       </c>
       <c r="G80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H80" t="n">
-        <v>0.4805304933330156</v>
-      </c>
-      <c r="I80" t="n">
-        <v>21</v>
-      </c>
-      <c r="J80" t="n">
-        <v>0.6787846692501913</v>
-      </c>
-      <c r="K80" t="n">
-        <v>0.4805304933330154</v>
-      </c>
-      <c r="L80" t="n">
-        <v>2.626496519622362</v>
-      </c>
-      <c r="M80" t="n">
-        <v>0.9712244030824316</v>
-      </c>
-      <c r="N80" t="n">
-        <v>-2.626496519622362</v>
+        <v>32</v>
       </c>
     </row>
     <row r="81">
@@ -4144,40 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>525</v>
+        <v>6</v>
       </c>
       <c r="D81" t="n">
-        <v>7788620010.622391</v>
+        <v>427</v>
       </c>
       <c r="E81" t="n">
-        <v>0.001341926276424057</v>
+        <v>7312406148.039888</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1765626963601359</v>
+        <v>0.003219618370319369</v>
       </c>
       <c r="G81" t="b">
         <v>1</v>
       </c>
       <c r="H81" t="n">
-        <v>0.1094822278289814</v>
-      </c>
-      <c r="I81" t="n">
-        <v>12</v>
-      </c>
-      <c r="J81" t="n">
-        <v>0.6787846692501913</v>
-      </c>
-      <c r="K81" t="n">
-        <v>0.1094822278289813</v>
-      </c>
-      <c r="L81" t="n">
-        <v>2.948328441606536</v>
-      </c>
-      <c r="M81" t="n">
-        <v>0.9784423142309161</v>
-      </c>
-      <c r="N81" t="n">
-        <v>-2.948328441606536</v>
+        <v>18</v>
       </c>
     </row>
     <row r="82">
@@ -4190,40 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>492</v>
+        <v>6</v>
       </c>
       <c r="D82" t="n">
-        <v>5110137236.720218</v>
+        <v>423</v>
       </c>
       <c r="E82" t="n">
-        <v>0.003894114140797396</v>
+        <v>7820225395.763573</v>
       </c>
       <c r="F82" t="n">
-        <v>0.2521928121106856</v>
+        <v>0.004072614928300747</v>
       </c>
       <c r="G82" t="b">
         <v>0</v>
       </c>
       <c r="H82" t="n">
-        <v>0.2624170220589103</v>
-      </c>
-      <c r="I82" t="n">
-        <v>24</v>
-      </c>
-      <c r="J82" t="n">
-        <v>0.9846837775903323</v>
-      </c>
-      <c r="K82" t="n">
-        <v>0.2624170220589103</v>
-      </c>
-      <c r="L82" t="n">
-        <v>2.269784430566775</v>
-      </c>
-      <c r="M82" t="n">
-        <v>1.10662878656934</v>
-      </c>
-      <c r="N82" t="n">
-        <v>-2.269784430566775</v>
+        <v>19</v>
       </c>
     </row>
     <row r="83">
@@ -4236,40 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>459</v>
+        <v>1</v>
       </c>
       <c r="D83" t="n">
-        <v>6735153055.929583</v>
+        <v>504</v>
       </c>
       <c r="E83" t="n">
-        <v>0.0037012104166638</v>
+        <v>7370869907.699098</v>
       </c>
       <c r="F83" t="n">
-        <v>0.17851116374282</v>
+        <v>0.002501852875303209</v>
       </c>
       <c r="G83" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H83" t="n">
-        <v>0.1134223045467979</v>
-      </c>
-      <c r="I83" t="n">
-        <v>26</v>
-      </c>
-      <c r="J83" t="n">
-        <v>0.6787846692501913</v>
-      </c>
-      <c r="K83" t="n">
-        <v>0.1134223045467979</v>
-      </c>
-      <c r="L83" t="n">
-        <v>2.042038527343997</v>
-      </c>
-      <c r="M83" t="n">
-        <v>0.8257791210330322</v>
-      </c>
-      <c r="N83" t="n">
-        <v>-2.042038527343997</v>
+        <v>30</v>
       </c>
     </row>
     <row r="84">
@@ -4282,40 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>549</v>
+        <v>4</v>
       </c>
       <c r="D84" t="n">
-        <v>7195812894.707349</v>
+        <v>524</v>
       </c>
       <c r="E84" t="n">
-        <v>0.004963485888600078</v>
+        <v>5949526524.099541</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1998447056701138</v>
+        <v>0.004766639907450064</v>
       </c>
       <c r="G84" t="b">
         <v>0</v>
       </c>
       <c r="H84" t="n">
-        <v>0.1565617446027592</v>
-      </c>
-      <c r="I84" t="n">
-        <v>24</v>
-      </c>
-      <c r="J84" t="n">
-        <v>0.6787846692501913</v>
-      </c>
-      <c r="K84" t="n">
-        <v>0.1565617446027591</v>
-      </c>
-      <c r="L84" t="n">
-        <v>2.163929153110624</v>
-      </c>
-      <c r="M84" t="n">
-        <v>0.9415941901046385</v>
-      </c>
-      <c r="N84" t="n">
-        <v>-2.163929153110624</v>
+        <v>26</v>
       </c>
     </row>
     <row r="85">
@@ -4328,40 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>515</v>
+        <v>6</v>
       </c>
       <c r="D85" t="n">
-        <v>7343572059.348492</v>
+        <v>512</v>
       </c>
       <c r="E85" t="n">
-        <v>0.001686637261955489</v>
+        <v>4627729833.370674</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1836961412100148</v>
+        <v>0.00380750458509086</v>
       </c>
       <c r="G85" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H85" t="n">
-        <v>0.1239070625583775</v>
-      </c>
-      <c r="I85" t="n">
-        <v>25</v>
-      </c>
-      <c r="J85" t="n">
-        <v>0.6787846692501913</v>
-      </c>
-      <c r="K85" t="n">
-        <v>0.1239070625583775</v>
-      </c>
-      <c r="L85" t="n">
-        <v>2.090717413413283</v>
-      </c>
-      <c r="M85" t="n">
-        <v>0.8982362840832542</v>
-      </c>
-      <c r="N85" t="n">
-        <v>-2.090717413413283</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86">
@@ -4374,40 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>574</v>
+        <v>2</v>
       </c>
       <c r="D86" t="n">
-        <v>4377831733.119165</v>
+        <v>517</v>
       </c>
       <c r="E86" t="n">
-        <v>0.004067952650289239</v>
+        <v>7674173835.678667</v>
       </c>
       <c r="F86" t="n">
-        <v>0.3434416742483495</v>
+        <v>0.001784854664874144</v>
       </c>
       <c r="G86" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H86" t="n">
-        <v>0.4469351312307499</v>
-      </c>
-      <c r="I86" t="n">
-        <v>23</v>
-      </c>
-      <c r="J86" t="n">
-        <v>0.6787846692501913</v>
-      </c>
-      <c r="K86" t="n">
-        <v>0.44693513123075</v>
-      </c>
-      <c r="L86" t="n">
-        <v>2.497476670580252</v>
-      </c>
-      <c r="M86" t="n">
-        <v>0.973602572625738</v>
-      </c>
-      <c r="N86" t="n">
-        <v>-2.497476670580252</v>
+        <v>36</v>
       </c>
     </row>
     <row r="87">
@@ -4420,40 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>585</v>
+        <v>2</v>
       </c>
       <c r="D87" t="n">
-        <v>7449649415.639398</v>
+        <v>500</v>
       </c>
       <c r="E87" t="n">
-        <v>0.001649241042602768</v>
+        <v>5168106760.575327</v>
       </c>
       <c r="F87" t="n">
-        <v>0.2056933238741518</v>
+        <v>0.0012831502446259</v>
       </c>
       <c r="G87" t="b">
         <v>0</v>
       </c>
       <c r="H87" t="n">
-        <v>0.1683884780764212</v>
-      </c>
-      <c r="I87" t="n">
-        <v>30</v>
-      </c>
-      <c r="J87" t="n">
-        <v>0.6787846692501913</v>
-      </c>
-      <c r="K87" t="n">
-        <v>0.1683884780764212</v>
-      </c>
-      <c r="L87" t="n">
-        <v>1.963832470572891</v>
-      </c>
-      <c r="M87" t="n">
-        <v>0.9489336139481513</v>
-      </c>
-      <c r="N87" t="n">
-        <v>-1.963832470572891</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
@@ -4466,40 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>440</v>
+        <v>4</v>
       </c>
       <c r="D88" t="n">
-        <v>6398240578.25938</v>
+        <v>477</v>
       </c>
       <c r="E88" t="n">
-        <v>0.004918757018959292</v>
+        <v>8135779997.565862</v>
       </c>
       <c r="F88" t="n">
-        <v>0.180132582684714</v>
+        <v>0.005363233028940012</v>
       </c>
       <c r="G88" t="b">
         <v>0</v>
       </c>
       <c r="H88" t="n">
-        <v>0.1167010430463785</v>
-      </c>
-      <c r="I88" t="n">
-        <v>18</v>
-      </c>
-      <c r="J88" t="n">
-        <v>0.6787846692501913</v>
-      </c>
-      <c r="K88" t="n">
-        <v>0.1167010430463786</v>
-      </c>
-      <c r="L88" t="n">
-        <v>2.434609270375373</v>
-      </c>
-      <c r="M88" t="n">
-        <v>0.8502478287474522</v>
-      </c>
-      <c r="N88" t="n">
-        <v>-2.434609270375373</v>
+        <v>22</v>
       </c>
     </row>
     <row r="89">
@@ -4512,40 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>524</v>
+        <v>4</v>
       </c>
       <c r="D89" t="n">
-        <v>5174470637.695141</v>
+        <v>473</v>
       </c>
       <c r="E89" t="n">
-        <v>0.003816160062299888</v>
+        <v>7899018438.708801</v>
       </c>
       <c r="F89" t="n">
-        <v>0.2652561887202781</v>
+        <v>0.004242542226187272</v>
       </c>
       <c r="G89" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H89" t="n">
-        <v>0.2888330177758225</v>
-      </c>
-      <c r="I89" t="n">
-        <v>16</v>
-      </c>
-      <c r="J89" t="n">
-        <v>0.6787846692501913</v>
-      </c>
-      <c r="K89" t="n">
-        <v>0.2888330177758226</v>
-      </c>
-      <c r="L89" t="n">
-        <v>2.747345956344454</v>
-      </c>
-      <c r="M89" t="n">
-        <v>0.9567116954726563</v>
-      </c>
-      <c r="N89" t="n">
-        <v>-2.747345956344454</v>
+        <v>22</v>
       </c>
     </row>
     <row r="90">
@@ -4558,40 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>522</v>
+        <v>2</v>
       </c>
       <c r="D90" t="n">
-        <v>7673803833.100504</v>
+        <v>433</v>
       </c>
       <c r="E90" t="n">
-        <v>0.004942449594295887</v>
+        <v>7611948621.374656</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1781804186995422</v>
+        <v>0.003470489941330629</v>
       </c>
       <c r="G90" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H90" t="n">
-        <v>0.1127534912753349</v>
-      </c>
-      <c r="I90" t="n">
-        <v>16</v>
-      </c>
-      <c r="J90" t="n">
-        <v>0.6787846692501913</v>
-      </c>
-      <c r="K90" t="n">
-        <v>0.1127534912753349</v>
-      </c>
-      <c r="L90" t="n">
-        <v>2.571266429843967</v>
-      </c>
-      <c r="M90" t="n">
-        <v>0.9545643405278625</v>
-      </c>
-      <c r="N90" t="n">
-        <v>-2.571266429843967</v>
+        <v>18</v>
       </c>
     </row>
     <row r="91">
@@ -4604,40 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>394</v>
+        <v>2</v>
       </c>
       <c r="D91" t="n">
-        <v>6999966105.848434</v>
+        <v>556</v>
       </c>
       <c r="E91" t="n">
-        <v>0.003350828696333004</v>
+        <v>7109009035.260922</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1474349510260823</v>
+        <v>0.004406736073431434</v>
       </c>
       <c r="G91" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H91" t="n">
-        <v>0.0505818057571972</v>
-      </c>
-      <c r="I91" t="n">
-        <v>14</v>
-      </c>
-      <c r="J91" t="n">
-        <v>0.6787846692501913</v>
-      </c>
-      <c r="K91" t="n">
-        <v>0.05058180575719718</v>
-      </c>
-      <c r="L91" t="n">
-        <v>2.678842690635663</v>
-      </c>
-      <c r="M91" t="n">
-        <v>0.817633808751821</v>
-      </c>
-      <c r="N91" t="n">
-        <v>-2.678842690635663</v>
+        <v>29</v>
       </c>
     </row>
     <row r="92">
@@ -4650,40 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>613</v>
+        <v>1</v>
       </c>
       <c r="D92" t="n">
-        <v>6436374362.913134</v>
+        <v>534</v>
       </c>
       <c r="E92" t="n">
-        <v>0.002467237847201718</v>
+        <v>5216204925.677921</v>
       </c>
       <c r="F92" t="n">
-        <v>0.2494705838199969</v>
+        <v>0.003699697494912689</v>
       </c>
       <c r="G92" t="b">
         <v>0</v>
       </c>
       <c r="H92" t="n">
-        <v>0.256912291313072</v>
-      </c>
-      <c r="I92" t="n">
-        <v>15</v>
-      </c>
-      <c r="J92" t="n">
-        <v>0.6787846692501913</v>
-      </c>
-      <c r="K92" t="n">
-        <v>0.256912291313072</v>
-      </c>
-      <c r="L92" t="n">
-        <v>2.796053535982878</v>
-      </c>
-      <c r="M92" t="n">
-        <v>1.052584265669738</v>
-      </c>
-      <c r="N92" t="n">
-        <v>-2.796053535982878</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -4696,40 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>514</v>
+        <v>5</v>
       </c>
       <c r="D93" t="n">
-        <v>6075216945.814507</v>
+        <v>588</v>
       </c>
       <c r="E93" t="n">
-        <v>0.001278181697244812</v>
+        <v>8001130714.067178</v>
       </c>
       <c r="F93" t="n">
-        <v>0.221616194451718</v>
+        <v>0.001889737957746517</v>
       </c>
       <c r="G93" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H93" t="n">
-        <v>0.200586775159051</v>
-      </c>
-      <c r="I93" t="n">
-        <v>21</v>
-      </c>
-      <c r="J93" t="n">
-        <v>0</v>
-      </c>
-      <c r="K93" t="n">
-        <v>0.200586775159051</v>
-      </c>
-      <c r="L93" t="n">
-        <v>2.346552801448398</v>
-      </c>
-      <c r="M93" t="n">
-        <v>-0.458257569495584</v>
-      </c>
-      <c r="N93" t="n">
-        <v>-2.346552801448398</v>
+        <v>36</v>
       </c>
     </row>
     <row r="94">
@@ -4742,40 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>571</v>
+        <v>5</v>
       </c>
       <c r="D94" t="n">
-        <v>6253933650.121945</v>
+        <v>588</v>
       </c>
       <c r="E94" t="n">
-        <v>0.004966283386816425</v>
+        <v>6562788788.454404</v>
       </c>
       <c r="F94" t="n">
-        <v>0.2391569488382461</v>
+        <v>0.00154206885828184</v>
       </c>
       <c r="G94" t="b">
         <v>1</v>
       </c>
       <c r="H94" t="n">
-        <v>0.2360566622023207</v>
-      </c>
-      <c r="I94" t="n">
-        <v>17</v>
-      </c>
-      <c r="J94" t="n">
-        <v>0.6787846692501913</v>
-      </c>
-      <c r="K94" t="n">
-        <v>0.2360566622023206</v>
-      </c>
-      <c r="L94" t="n">
-        <v>2.62116455106494</v>
-      </c>
-      <c r="M94" t="n">
-        <v>1.000872463080735</v>
-      </c>
-      <c r="N94" t="n">
-        <v>-2.62116455106494</v>
+        <v>33</v>
       </c>
     </row>
     <row r="95">
@@ -4788,40 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>492</v>
+        <v>2</v>
       </c>
       <c r="D95" t="n">
-        <v>7142389052.36998</v>
+        <v>511</v>
       </c>
       <c r="E95" t="n">
-        <v>0.002735000566987866</v>
+        <v>6283682338.187423</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1804354076136992</v>
+        <v>0.002644071987525936</v>
       </c>
       <c r="G95" t="b">
         <v>0</v>
       </c>
       <c r="H95" t="n">
-        <v>0.1173133978965919</v>
-      </c>
-      <c r="I95" t="n">
-        <v>16</v>
-      </c>
-      <c r="J95" t="n">
-        <v>0.6787846692501913</v>
-      </c>
-      <c r="K95" t="n">
-        <v>0.1173133978965919</v>
-      </c>
-      <c r="L95" t="n">
-        <v>2.575826336465224</v>
-      </c>
-      <c r="M95" t="n">
-        <v>0.9217539039818702</v>
-      </c>
-      <c r="N95" t="n">
-        <v>-2.575826336465224</v>
+        <v>26</v>
       </c>
     </row>
     <row r="96">
@@ -4834,40 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>533</v>
+        <v>3</v>
       </c>
       <c r="D96" t="n">
-        <v>5860872598.109471</v>
+        <v>520</v>
       </c>
       <c r="E96" t="n">
-        <v>0.001051412104368176</v>
+        <v>8614934623.317621</v>
       </c>
       <c r="F96" t="n">
-        <v>0.2382127996521112</v>
+        <v>0.003138320046421974</v>
       </c>
       <c r="G96" t="b">
         <v>0</v>
       </c>
       <c r="H96" t="n">
-        <v>0.2341474589693102</v>
-      </c>
-      <c r="I96" t="n">
-        <v>25</v>
-      </c>
-      <c r="J96" t="n">
-        <v>0.6787846692501913</v>
-      </c>
-      <c r="K96" t="n">
-        <v>0.2341474589693104</v>
-      </c>
-      <c r="L96" t="n">
-        <v>2.200957809824216</v>
-      </c>
-      <c r="M96" t="n">
-        <v>0.9185674251053306</v>
-      </c>
-      <c r="N96" t="n">
-        <v>-2.200957809824216</v>
+        <v>27</v>
       </c>
     </row>
     <row r="97">
@@ -4880,40 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>476</v>
+        <v>5</v>
       </c>
       <c r="D97" t="n">
-        <v>4407918607.277596</v>
+        <v>514</v>
       </c>
       <c r="E97" t="n">
-        <v>0.004684108216307766</v>
+        <v>5901892323.454343</v>
       </c>
       <c r="F97" t="n">
-        <v>0.2828613118993281</v>
+        <v>0.005319531416081333</v>
       </c>
       <c r="G97" t="b">
         <v>0</v>
       </c>
       <c r="H97" t="n">
-        <v>0.3244330676244966</v>
-      </c>
-      <c r="I97" t="n">
-        <v>20</v>
-      </c>
-      <c r="J97" t="n">
-        <v>0.6787846692501913</v>
-      </c>
-      <c r="K97" t="n">
-        <v>0.3244330676244965</v>
-      </c>
-      <c r="L97" t="n">
-        <v>2.523393889305387</v>
-      </c>
-      <c r="M97" t="n">
-        <v>0.8813607406344158</v>
-      </c>
-      <c r="N97" t="n">
-        <v>-2.523393889305387</v>
+        <v>26</v>
       </c>
     </row>
     <row r="98">
@@ -4926,40 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>451</v>
+        <v>3</v>
       </c>
       <c r="D98" t="n">
-        <v>9649857179.860353</v>
+        <v>616</v>
       </c>
       <c r="E98" t="n">
-        <v>0.004780297636508175</v>
+        <v>6814702963.914359</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1224209714176408</v>
+        <v>0.00386803418078365</v>
       </c>
       <c r="G98" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>18</v>
-      </c>
-      <c r="J98" t="n">
-        <v>0.7623998191113853</v>
-      </c>
-      <c r="K98" t="n">
-        <v>0</v>
-      </c>
-      <c r="L98" t="n">
-        <v>2.317908227328994</v>
-      </c>
-      <c r="M98" t="n">
-        <v>0.9270923102033372</v>
-      </c>
-      <c r="N98" t="n">
-        <v>-2.317908227328994</v>
+        <v>37</v>
       </c>
     </row>
     <row r="99">
@@ -4972,40 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>501</v>
+        <v>5</v>
       </c>
       <c r="D99" t="n">
-        <v>5534389195.83054</v>
+        <v>567</v>
       </c>
       <c r="E99" t="n">
-        <v>0.004884433672264467</v>
+        <v>2899576511.338937</v>
       </c>
       <c r="F99" t="n">
-        <v>0.2371200043156818</v>
+        <v>0.005954358640102104</v>
       </c>
       <c r="G99" t="b">
         <v>0</v>
       </c>
       <c r="H99" t="n">
-        <v>0.2319376721898811</v>
-      </c>
-      <c r="I99" t="n">
-        <v>24</v>
-      </c>
-      <c r="J99" t="n">
-        <v>0.6787846692501913</v>
-      </c>
-      <c r="K99" t="n">
-        <v>0.231937672189881</v>
-      </c>
-      <c r="L99" t="n">
-        <v>2.239305080697746</v>
-      </c>
-      <c r="M99" t="n">
-        <v>0.8877494611185586</v>
-      </c>
-      <c r="N99" t="n">
-        <v>-2.239305080697746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -5018,40 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>418</v>
+        <v>3</v>
       </c>
       <c r="D100" t="n">
-        <v>6104910509.812019</v>
+        <v>422</v>
       </c>
       <c r="E100" t="n">
-        <v>0.002440107138719167</v>
+        <v>6114167925.899566</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1793482505992891</v>
+        <v>0.002857362453171929</v>
       </c>
       <c r="G100" t="b">
         <v>0</v>
       </c>
       <c r="H100" t="n">
-        <v>0.1151150126019982</v>
-      </c>
-      <c r="I100" t="n">
-        <v>16</v>
-      </c>
-      <c r="J100" t="n">
-        <v>0.6787846692501913</v>
-      </c>
-      <c r="K100" t="n">
-        <v>0.1151150126019982</v>
-      </c>
-      <c r="L100" t="n">
-        <v>2.57362795117063</v>
-      </c>
-      <c r="M100" t="n">
-        <v>0.8353294570259503</v>
-      </c>
-      <c r="N100" t="n">
-        <v>-2.57362795117063</v>
+        <v>8</v>
       </c>
     </row>
     <row r="101">
@@ -5064,40 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>486</v>
+        <v>2</v>
       </c>
       <c r="D101" t="n">
-        <v>3597566932.069057</v>
+        <v>573</v>
       </c>
       <c r="E101" t="n">
-        <v>0.003962580192655031</v>
+        <v>6484101687.260198</v>
       </c>
       <c r="F101" t="n">
-        <v>0.353856804901153</v>
+        <v>0.001363208862925909</v>
       </c>
       <c r="G101" t="b">
         <v>0</v>
       </c>
       <c r="H101" t="n">
-        <v>0.4679959989480223</v>
-      </c>
-      <c r="I101" t="n">
-        <v>23</v>
-      </c>
-      <c r="J101" t="n">
-        <v>0.6787846692501913</v>
-      </c>
-      <c r="K101" t="n">
-        <v>0.4679959989480225</v>
-      </c>
-      <c r="L101" t="n">
-        <v>2.518537538297524</v>
-      </c>
-      <c r="M101" t="n">
-        <v>0.8759667204668816</v>
-      </c>
-      <c r="N101" t="n">
-        <v>-2.518537538297524</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_100.xlsx
+++ b/output/fit_clients/fit_round_100.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:J101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,12 +461,22 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>channelGain</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>isSelected</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>reward</t>
         </is>
       </c>
     </row>
@@ -483,19 +493,25 @@
         <v>3</v>
       </c>
       <c r="D2" t="n">
-        <v>502</v>
+        <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>7255452676.349113</v>
+        <v>2076391141.245896</v>
       </c>
       <c r="F2" t="n">
-        <v>0.00447600488421109</v>
-      </c>
-      <c r="G2" t="b">
-        <v>0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>25</v>
+        <v>0.0883151635351989</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.04329420976620017</v>
+      </c>
+      <c r="H2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>1038195576.471594</v>
       </c>
     </row>
     <row r="3">
@@ -508,22 +524,28 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>5471952226.575756</v>
+        <v>1805570214.015691</v>
       </c>
       <c r="F3" t="n">
-        <v>0.004821119052262525</v>
-      </c>
-      <c r="G3" t="b">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>25</v>
+        <v>0.1607040387685684</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.03420273072648431</v>
+      </c>
+      <c r="H3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J3" t="n">
+        <v>902785116.8883752</v>
       </c>
     </row>
     <row r="4">
@@ -536,22 +558,28 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>5950514957.672828</v>
+        <v>3737572538.774767</v>
       </c>
       <c r="F4" t="n">
-        <v>0.002533287506343543</v>
-      </c>
-      <c r="G4" t="b">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>22</v>
+        <v>0.1537299775945236</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.03473346277264068</v>
+      </c>
+      <c r="H4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>36</v>
+      </c>
+      <c r="J4" t="n">
+        <v>1868786264.90113</v>
       </c>
     </row>
     <row r="5">
@@ -564,22 +592,28 @@
         </is>
       </c>
       <c r="C5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" t="n">
+        <v>535</v>
+      </c>
+      <c r="E5" t="n">
+        <v>3027261738.703651</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.09354544067259936</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.03775289593841311</v>
+      </c>
+      <c r="H5" t="b">
         <v>1</v>
       </c>
-      <c r="D5" t="n">
-        <v>494</v>
-      </c>
-      <c r="E5" t="n">
-        <v>4759933741.473041</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.004291945363927243</v>
-      </c>
-      <c r="G5" t="b">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
+      <c r="I5" t="n">
+        <v>37</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1513630937.348387</v>
       </c>
     </row>
     <row r="6">
@@ -592,22 +626,28 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
-        <v>469</v>
+        <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>6584978951.348936</v>
+        <v>2786139432.361793</v>
       </c>
       <c r="F6" t="n">
-        <v>0.001881145084337515</v>
-      </c>
-      <c r="G6" t="b">
+        <v>0.1230307332523129</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.05128778370931418</v>
+      </c>
+      <c r="H6" t="b">
         <v>1</v>
       </c>
-      <c r="H6" t="n">
-        <v>21</v>
+      <c r="I6" t="n">
+        <v>16</v>
+      </c>
+      <c r="J6" t="n">
+        <v>1393069660.630958</v>
       </c>
     </row>
     <row r="7">
@@ -620,22 +660,28 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
-        <v>539</v>
+        <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>6564931983.985654</v>
+        <v>2564361746.268241</v>
       </c>
       <c r="F7" t="n">
-        <v>0.001331394145627476</v>
-      </c>
-      <c r="G7" t="b">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>29</v>
+        <v>0.1021194711631946</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.03218594337426876</v>
+      </c>
+      <c r="H7" t="b">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>30</v>
+      </c>
+      <c r="J7" t="n">
+        <v>1282180879.901012</v>
       </c>
     </row>
     <row r="8">
@@ -648,22 +694,28 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
-        <v>513</v>
+        <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>4840517459.203289</v>
+        <v>3680559756.375012</v>
       </c>
       <c r="F8" t="n">
-        <v>0.002412607427492496</v>
-      </c>
-      <c r="G8" t="b">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>26</v>
+        <v>0.2035753761171213</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.03154363034496407</v>
+      </c>
+      <c r="H8" t="b">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>33</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1840280005.194931</v>
       </c>
     </row>
     <row r="9">
@@ -676,22 +728,28 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
-        <v>569</v>
+        <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>5986332360.316442</v>
+        <v>1604794115.616613</v>
       </c>
       <c r="F9" t="n">
-        <v>0.005194746272982824</v>
-      </c>
-      <c r="G9" t="b">
-        <v>0</v>
-      </c>
-      <c r="H9" t="n">
-        <v>30</v>
+        <v>0.133838472654632</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.02574703261065354</v>
+      </c>
+      <c r="H9" t="b">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>802397139.1771576</v>
       </c>
     </row>
     <row r="10">
@@ -704,22 +762,28 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
-        <v>529</v>
+        <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>3623584157.519729</v>
+        <v>4664257634.92543</v>
       </c>
       <c r="F10" t="n">
-        <v>0.003506947954388457</v>
-      </c>
-      <c r="G10" t="b">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
+        <v>0.1570165809337286</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.04998080882994194</v>
+      </c>
+      <c r="H10" t="b">
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>42</v>
+      </c>
+      <c r="J10" t="n">
+        <v>2332128890.713315</v>
       </c>
     </row>
     <row r="11">
@@ -732,22 +796,28 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
-        <v>582</v>
+        <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3529711937.659952</v>
+        <v>4130834982.722104</v>
       </c>
       <c r="F11" t="n">
-        <v>0.001271318314191907</v>
-      </c>
-      <c r="G11" t="b">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
+        <v>0.1314942818434973</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.0444582242761346</v>
+      </c>
+      <c r="H11" t="b">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>42</v>
+      </c>
+      <c r="J11" t="n">
+        <v>2065417513.149645</v>
       </c>
     </row>
     <row r="12">
@@ -760,22 +830,28 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D12" t="n">
-        <v>537</v>
+        <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>8934062280.337809</v>
+        <v>2024139079.688287</v>
       </c>
       <c r="F12" t="n">
-        <v>0.001720217610492153</v>
-      </c>
-      <c r="G12" t="b">
-        <v>0</v>
-      </c>
-      <c r="H12" t="n">
-        <v>28</v>
+        <v>0.1232811611877329</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.03778437006195781</v>
+      </c>
+      <c r="H12" t="b">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>35</v>
+      </c>
+      <c r="J12" t="n">
+        <v>1012069468.441685</v>
       </c>
     </row>
     <row r="13">
@@ -788,22 +864,28 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D13" t="n">
-        <v>480</v>
+        <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>6167433609.007263</v>
+        <v>3491139435.314563</v>
       </c>
       <c r="F13" t="n">
-        <v>0.003820998029829075</v>
-      </c>
-      <c r="G13" t="b">
-        <v>0</v>
-      </c>
-      <c r="H13" t="n">
-        <v>20</v>
+        <v>0.1014765416029295</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.02138228801075959</v>
+      </c>
+      <c r="H13" t="b">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>34</v>
+      </c>
+      <c r="J13" t="n">
+        <v>1745569798.371089</v>
       </c>
     </row>
     <row r="14">
@@ -819,19 +901,25 @@
         <v>5</v>
       </c>
       <c r="D14" t="n">
-        <v>486</v>
+        <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>8938155300.133364</v>
+        <v>2411889635.680249</v>
       </c>
       <c r="F14" t="n">
-        <v>0.003376404888590757</v>
-      </c>
-      <c r="G14" t="b">
-        <v>0</v>
-      </c>
-      <c r="H14" t="n">
-        <v>23</v>
+        <v>0.1401831495010173</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.03310125560983586</v>
+      </c>
+      <c r="H14" t="b">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>32</v>
+      </c>
+      <c r="J14" t="n">
+        <v>1205944894.80046</v>
       </c>
     </row>
     <row r="15">
@@ -844,22 +932,28 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D15" t="n">
-        <v>538</v>
+        <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>7001605580.654412</v>
+        <v>1823923945.223676</v>
       </c>
       <c r="F15" t="n">
-        <v>0.005264640614985133</v>
-      </c>
-      <c r="G15" t="b">
-        <v>1</v>
-      </c>
-      <c r="H15" t="n">
-        <v>28</v>
+        <v>0.1081024735143516</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.03905518858574943</v>
+      </c>
+      <c r="H15" t="b">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>911962131.4722787</v>
       </c>
     </row>
     <row r="16">
@@ -872,22 +966,28 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D16" t="n">
-        <v>569</v>
+        <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>6615732905.303733</v>
+        <v>1767870520.14909</v>
       </c>
       <c r="F16" t="n">
-        <v>0.003658309260603378</v>
-      </c>
-      <c r="G16" t="b">
-        <v>1</v>
-      </c>
-      <c r="H16" t="n">
-        <v>31</v>
+        <v>0.07639461787449664</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.03542519779124782</v>
+      </c>
+      <c r="H16" t="b">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>15</v>
+      </c>
+      <c r="J16" t="n">
+        <v>883935356.2289653</v>
       </c>
     </row>
     <row r="17">
@@ -900,22 +1000,28 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D17" t="n">
-        <v>462</v>
+        <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>5335264371.265779</v>
+        <v>4558352186.673143</v>
       </c>
       <c r="F17" t="n">
-        <v>0.002440000279379436</v>
-      </c>
-      <c r="G17" t="b">
-        <v>0</v>
-      </c>
-      <c r="H17" t="n">
-        <v>20</v>
+        <v>0.1261187501496799</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.05304091194621439</v>
+      </c>
+      <c r="H17" t="b">
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>29</v>
+      </c>
+      <c r="J17" t="n">
+        <v>2279176100.218824</v>
       </c>
     </row>
     <row r="18">
@@ -928,22 +1034,28 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D18" t="n">
-        <v>536</v>
+        <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>6625441004.606771</v>
+        <v>2653235404.609937</v>
       </c>
       <c r="F18" t="n">
-        <v>0.00113040187761257</v>
-      </c>
-      <c r="G18" t="b">
-        <v>1</v>
-      </c>
-      <c r="H18" t="n">
-        <v>27</v>
+        <v>0.1140249477285096</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.02640814785357964</v>
+      </c>
+      <c r="H18" t="b">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>33</v>
+      </c>
+      <c r="J18" t="n">
+        <v>1326617757.555837</v>
       </c>
     </row>
     <row r="19">
@@ -959,19 +1071,25 @@
         <v>3</v>
       </c>
       <c r="D19" t="n">
-        <v>512</v>
+        <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>3706890668.695658</v>
+        <v>880459902.237848</v>
       </c>
       <c r="F19" t="n">
-        <v>0.001454317654924998</v>
-      </c>
-      <c r="G19" t="b">
-        <v>0</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
+        <v>0.1769556776855203</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.02144872949784235</v>
+      </c>
+      <c r="H19" t="b">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>440229951.2029571</v>
       </c>
     </row>
     <row r="20">
@@ -987,19 +1105,25 @@
         <v>5</v>
       </c>
       <c r="D20" t="n">
-        <v>508</v>
+        <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>4577181332.141671</v>
+        <v>1909328679.337503</v>
       </c>
       <c r="F20" t="n">
-        <v>0.0009907254894104048</v>
-      </c>
-      <c r="G20" t="b">
-        <v>0</v>
-      </c>
-      <c r="H20" t="n">
-        <v>10</v>
+        <v>0.1383980676106445</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.02062915005848946</v>
+      </c>
+      <c r="H20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>12</v>
+      </c>
+      <c r="J20" t="n">
+        <v>954664375.626377</v>
       </c>
     </row>
     <row r="21">
@@ -1012,22 +1136,28 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D21" t="n">
-        <v>440</v>
+        <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>7043499447.079794</v>
+        <v>2110125280.495546</v>
       </c>
       <c r="F21" t="n">
-        <v>0.006034199335441551</v>
-      </c>
-      <c r="G21" t="b">
-        <v>0</v>
-      </c>
-      <c r="H21" t="n">
-        <v>19</v>
+        <v>0.06701631860447585</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.029678522923969</v>
+      </c>
+      <c r="H21" t="b">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
+        <v>9</v>
+      </c>
+      <c r="J21" t="n">
+        <v>1055062665.596524</v>
       </c>
     </row>
     <row r="22">
@@ -1040,22 +1170,28 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D22" t="n">
-        <v>441</v>
+        <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>6071756457.667368</v>
+        <v>3560481463.919548</v>
       </c>
       <c r="F22" t="n">
-        <v>0.003535841451273425</v>
-      </c>
-      <c r="G22" t="b">
-        <v>0</v>
-      </c>
-      <c r="H22" t="n">
-        <v>8</v>
+        <v>0.09204300979641997</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.03557279863897487</v>
+      </c>
+      <c r="H22" t="b">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>28</v>
+      </c>
+      <c r="J22" t="n">
+        <v>1780240759.859792</v>
       </c>
     </row>
     <row r="23">
@@ -1068,22 +1204,28 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D23" t="n">
-        <v>439</v>
+        <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>6477575381.397971</v>
+        <v>1545893465.039869</v>
       </c>
       <c r="F23" t="n">
-        <v>0.001707943216788839</v>
-      </c>
-      <c r="G23" t="b">
-        <v>0</v>
-      </c>
-      <c r="H23" t="n">
-        <v>19</v>
+        <v>0.1148961063514654</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.04548899934834443</v>
+      </c>
+      <c r="H23" t="b">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>772946710.6544229</v>
       </c>
     </row>
     <row r="24">
@@ -1096,22 +1238,28 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D24" t="n">
-        <v>513</v>
+        <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>7200669160.644647</v>
+        <v>2915084909.12251</v>
       </c>
       <c r="F24" t="n">
-        <v>0.00440264180428246</v>
-      </c>
-      <c r="G24" t="b">
-        <v>0</v>
-      </c>
-      <c r="H24" t="n">
-        <v>27</v>
+        <v>0.09877317065662337</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.02750135665869453</v>
+      </c>
+      <c r="H24" t="b">
+        <v>1</v>
+      </c>
+      <c r="I24" t="n">
+        <v>29</v>
+      </c>
+      <c r="J24" t="n">
+        <v>1457542495.462808</v>
       </c>
     </row>
     <row r="25">
@@ -1124,22 +1272,28 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D25" t="n">
-        <v>473</v>
+        <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>5543921819.890432</v>
+        <v>1346364771.99726</v>
       </c>
       <c r="F25" t="n">
-        <v>0.002976491444658138</v>
-      </c>
-      <c r="G25" t="b">
-        <v>0</v>
-      </c>
-      <c r="H25" t="n">
-        <v>22</v>
+        <v>0.0989235033489247</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.02598131413142259</v>
+      </c>
+      <c r="H25" t="b">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>673182370.2273376</v>
       </c>
     </row>
     <row r="26">
@@ -1152,22 +1306,28 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D26" t="n">
-        <v>462</v>
+        <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>4989963757.428444</v>
+        <v>1080105670.534859</v>
       </c>
       <c r="F26" t="n">
-        <v>0.0009443458854328622</v>
-      </c>
-      <c r="G26" t="b">
-        <v>0</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
+        <v>0.09040368990209315</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.03388992895997772</v>
+      </c>
+      <c r="H26" t="b">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>540052826.858882</v>
       </c>
     </row>
     <row r="27">
@@ -1180,22 +1340,28 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D27" t="n">
-        <v>517</v>
+        <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>8691065230.591366</v>
+        <v>4592175303.400017</v>
       </c>
       <c r="F27" t="n">
-        <v>0.002583119982391427</v>
-      </c>
-      <c r="G27" t="b">
-        <v>0</v>
-      </c>
-      <c r="H27" t="n">
-        <v>27</v>
+        <v>0.1425332044802574</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.02304096073254878</v>
+      </c>
+      <c r="H27" t="b">
+        <v>1</v>
+      </c>
+      <c r="I27" t="n">
+        <v>22</v>
+      </c>
+      <c r="J27" t="n">
+        <v>2296087632.357955</v>
       </c>
     </row>
     <row r="28">
@@ -1208,22 +1374,28 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D28" t="n">
-        <v>507</v>
+        <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>7373973381.568957</v>
+        <v>3348374582.657924</v>
       </c>
       <c r="F28" t="n">
-        <v>0.004031364616042416</v>
-      </c>
-      <c r="G28" t="b">
-        <v>0</v>
-      </c>
-      <c r="H28" t="n">
-        <v>25</v>
+        <v>0.1202110277700862</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.03544732205334596</v>
+      </c>
+      <c r="H28" t="b">
+        <v>1</v>
+      </c>
+      <c r="I28" t="n">
+        <v>32</v>
+      </c>
+      <c r="J28" t="n">
+        <v>1674187332.727404</v>
       </c>
     </row>
     <row r="29">
@@ -1236,22 +1408,28 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D29" t="n">
-        <v>504</v>
+        <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>7491697524.04766</v>
+        <v>5677665130.805969</v>
       </c>
       <c r="F29" t="n">
-        <v>0.001218147554865718</v>
-      </c>
-      <c r="G29" t="b">
-        <v>0</v>
-      </c>
-      <c r="H29" t="n">
-        <v>26</v>
+        <v>0.1414501547051514</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.04199471320655748</v>
+      </c>
+      <c r="H29" t="b">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>45</v>
+      </c>
+      <c r="J29" t="n">
+        <v>2838832465.893529</v>
       </c>
     </row>
     <row r="30">
@@ -1264,22 +1442,28 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D30" t="n">
-        <v>564</v>
+        <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>6189294165.474961</v>
+        <v>1523704150.002849</v>
       </c>
       <c r="F30" t="n">
-        <v>0.003333756205643532</v>
-      </c>
-      <c r="G30" t="b">
-        <v>0</v>
-      </c>
-      <c r="H30" t="n">
-        <v>31</v>
+        <v>0.1091053680788059</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.03526828613389831</v>
+      </c>
+      <c r="H30" t="b">
+        <v>0</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>761852058.1267092</v>
       </c>
     </row>
     <row r="31">
@@ -1292,22 +1476,28 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D31" t="n">
-        <v>457</v>
+        <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>7192634700.940011</v>
+        <v>1209177354.216194</v>
       </c>
       <c r="F31" t="n">
-        <v>0.002577374556779757</v>
-      </c>
-      <c r="G31" t="b">
-        <v>0</v>
-      </c>
-      <c r="H31" t="n">
-        <v>20</v>
+        <v>0.07866342889485538</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.04416232913422913</v>
+      </c>
+      <c r="H31" t="b">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>604588626.3355591</v>
       </c>
     </row>
     <row r="32">
@@ -1323,19 +1513,25 @@
         <v>5</v>
       </c>
       <c r="D32" t="n">
-        <v>574</v>
+        <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>4470770216.112435</v>
+        <v>1273433715.722421</v>
       </c>
       <c r="F32" t="n">
-        <v>0.001047030757048776</v>
-      </c>
-      <c r="G32" t="b">
-        <v>0</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
+        <v>0.09762382632559155</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.03762576811729033</v>
+      </c>
+      <c r="H32" t="b">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>636716879.2344514</v>
       </c>
     </row>
     <row r="33">
@@ -1348,22 +1544,28 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D33" t="n">
-        <v>470</v>
+        <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>7624010160.997456</v>
+        <v>2074482279.320056</v>
       </c>
       <c r="F33" t="n">
-        <v>0.002399117540997977</v>
-      </c>
-      <c r="G33" t="b">
-        <v>0</v>
-      </c>
-      <c r="H33" t="n">
-        <v>22</v>
+        <v>0.1885107215027691</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.0526905618060078</v>
+      </c>
+      <c r="H33" t="b">
+        <v>0</v>
+      </c>
+      <c r="I33" t="n">
+        <v>28</v>
+      </c>
+      <c r="J33" t="n">
+        <v>1037241214.038017</v>
       </c>
     </row>
     <row r="34">
@@ -1376,22 +1578,28 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D34" t="n">
-        <v>560</v>
+        <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>7406242173.221609</v>
+        <v>1092447132.516786</v>
       </c>
       <c r="F34" t="n">
-        <v>0.004929633454449007</v>
-      </c>
-      <c r="G34" t="b">
-        <v>0</v>
-      </c>
-      <c r="H34" t="n">
-        <v>31</v>
+        <v>0.08877688152999086</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.02810395158105878</v>
+      </c>
+      <c r="H34" t="b">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>546223588.8565298</v>
       </c>
     </row>
     <row r="35">
@@ -1407,19 +1615,25 @@
         <v>5</v>
       </c>
       <c r="D35" t="n">
-        <v>514</v>
+        <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>6071099964.404166</v>
+        <v>828127204.8674855</v>
       </c>
       <c r="F35" t="n">
-        <v>0.002508741492561083</v>
-      </c>
-      <c r="G35" t="b">
-        <v>0</v>
-      </c>
-      <c r="H35" t="n">
-        <v>26</v>
+        <v>0.1032301114305282</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0.029874154638843</v>
+      </c>
+      <c r="H35" t="b">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>414063658.6382461</v>
       </c>
     </row>
     <row r="36">
@@ -1432,22 +1646,28 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D36" t="n">
-        <v>538</v>
+        <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>6599928822.306684</v>
+        <v>3000995395.686619</v>
       </c>
       <c r="F36" t="n">
-        <v>0.003137712967365479</v>
-      </c>
-      <c r="G36" t="b">
-        <v>1</v>
-      </c>
-      <c r="H36" t="n">
-        <v>28</v>
+        <v>0.1358585091710683</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.02253234952691934</v>
+      </c>
+      <c r="H36" t="b">
+        <v>0</v>
+      </c>
+      <c r="I36" t="n">
+        <v>26</v>
+      </c>
+      <c r="J36" t="n">
+        <v>1500497679.608901</v>
       </c>
     </row>
     <row r="37">
@@ -1460,22 +1680,28 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D37" t="n">
-        <v>573</v>
+        <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>6294736720.165327</v>
+        <v>2254894194.651406</v>
       </c>
       <c r="F37" t="n">
-        <v>0.005050482920495215</v>
-      </c>
-      <c r="G37" t="b">
-        <v>1</v>
-      </c>
-      <c r="H37" t="n">
+        <v>0.09304994393591856</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.03001060977063859</v>
+      </c>
+      <c r="H37" t="b">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
         <v>25</v>
+      </c>
+      <c r="J37" t="n">
+        <v>1127447159.596622</v>
       </c>
     </row>
     <row r="38">
@@ -1488,22 +1714,28 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D38" t="n">
-        <v>461</v>
+        <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>3878025230.079014</v>
+        <v>1362530690.441272</v>
       </c>
       <c r="F38" t="n">
-        <v>0.003563603387356427</v>
-      </c>
-      <c r="G38" t="b">
-        <v>0</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
+        <v>0.08480191147338578</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0.03469380240660361</v>
+      </c>
+      <c r="H38" t="b">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>681265413.8193775</v>
       </c>
     </row>
     <row r="39">
@@ -1516,22 +1748,28 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D39" t="n">
-        <v>470</v>
+        <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>4709304181.349472</v>
+        <v>1494622625.604923</v>
       </c>
       <c r="F39" t="n">
-        <v>0.002398821699548019</v>
-      </c>
-      <c r="G39" t="b">
-        <v>0</v>
-      </c>
-      <c r="H39" t="n">
-        <v>13</v>
+        <v>0.1214340698545099</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.03107994651885495</v>
+      </c>
+      <c r="H39" t="b">
+        <v>0</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>747311383.9963448</v>
       </c>
     </row>
     <row r="40">
@@ -1544,22 +1782,28 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D40" t="n">
-        <v>523</v>
+        <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>4571550410.073197</v>
+        <v>1391957904.614766</v>
       </c>
       <c r="F40" t="n">
-        <v>0.005055553817890767</v>
-      </c>
-      <c r="G40" t="b">
-        <v>0</v>
-      </c>
-      <c r="H40" t="n">
-        <v>27</v>
+        <v>0.1349578674432985</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0.04432423467098394</v>
+      </c>
+      <c r="H40" t="b">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>695978945.5000557</v>
       </c>
     </row>
     <row r="41">
@@ -1572,22 +1816,28 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D41" t="n">
-        <v>540</v>
+        <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>5038233736.988955</v>
+        <v>2487952701.850095</v>
       </c>
       <c r="F41" t="n">
-        <v>0.001344553199545092</v>
-      </c>
-      <c r="G41" t="b">
-        <v>0</v>
-      </c>
-      <c r="H41" t="n">
-        <v>29</v>
+        <v>0.159004776606948</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0.04598921622884761</v>
+      </c>
+      <c r="H41" t="b">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
+        <v>24</v>
+      </c>
+      <c r="J41" t="n">
+        <v>1243976377.313391</v>
       </c>
     </row>
     <row r="42">
@@ -1600,22 +1850,28 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D42" t="n">
-        <v>514</v>
+        <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>5733733790.141481</v>
+        <v>2787790711.175261</v>
       </c>
       <c r="F42" t="n">
-        <v>0.005482861496618426</v>
-      </c>
-      <c r="G42" t="b">
-        <v>0</v>
-      </c>
-      <c r="H42" t="n">
-        <v>24</v>
+        <v>0.07915950025393657</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0.04400304908394621</v>
+      </c>
+      <c r="H42" t="b">
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>33</v>
+      </c>
+      <c r="J42" t="n">
+        <v>1393895301.333829</v>
       </c>
     </row>
     <row r="43">
@@ -1628,22 +1884,28 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D43" t="n">
-        <v>493</v>
+        <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>4621906113.227325</v>
+        <v>1966582777.779399</v>
       </c>
       <c r="F43" t="n">
-        <v>0.004623950930170083</v>
-      </c>
-      <c r="G43" t="b">
-        <v>0</v>
-      </c>
-      <c r="H43" t="n">
-        <v>25</v>
+        <v>0.1850947452213089</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0.0232919600822377</v>
+      </c>
+      <c r="H43" t="b">
+        <v>0</v>
+      </c>
+      <c r="I43" t="n">
+        <v>32</v>
+      </c>
+      <c r="J43" t="n">
+        <v>983291491.0967541</v>
       </c>
     </row>
     <row r="44">
@@ -1656,22 +1918,28 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D44" t="n">
-        <v>523</v>
+        <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>6867017958.123775</v>
+        <v>1594902351.317092</v>
       </c>
       <c r="F44" t="n">
-        <v>0.001646951195589069</v>
-      </c>
-      <c r="G44" t="b">
-        <v>0</v>
-      </c>
-      <c r="H44" t="n">
-        <v>27</v>
+        <v>0.09735596687306793</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0.02337018992123742</v>
+      </c>
+      <c r="H44" t="b">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>797451201.0914407</v>
       </c>
     </row>
     <row r="45">
@@ -1684,22 +1952,28 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D45" t="n">
-        <v>520</v>
+        <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>4897944155.461791</v>
+        <v>1906786535.992574</v>
       </c>
       <c r="F45" t="n">
-        <v>0.001620953689836392</v>
-      </c>
-      <c r="G45" t="b">
-        <v>0</v>
-      </c>
-      <c r="H45" t="n">
-        <v>4</v>
+        <v>0.1243876535349427</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0.04392256426168578</v>
+      </c>
+      <c r="H45" t="b">
+        <v>0</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>953393249.3952944</v>
       </c>
     </row>
     <row r="46">
@@ -1715,19 +1989,25 @@
         <v>3</v>
       </c>
       <c r="D46" t="n">
-        <v>406</v>
+        <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>7271316336.821228</v>
+        <v>4960370576.373846</v>
       </c>
       <c r="F46" t="n">
-        <v>0.005360171572362716</v>
-      </c>
-      <c r="G46" t="b">
-        <v>0</v>
-      </c>
-      <c r="H46" t="n">
-        <v>16</v>
+        <v>0.1767079177972635</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0.04088375910905695</v>
+      </c>
+      <c r="H46" t="b">
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>36</v>
+      </c>
+      <c r="J46" t="n">
+        <v>2480185312.646605</v>
       </c>
     </row>
     <row r="47">
@@ -1740,22 +2020,28 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D47" t="n">
-        <v>368</v>
+        <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>8025072662.999429</v>
+        <v>4332553279.16836</v>
       </c>
       <c r="F47" t="n">
-        <v>0.002152424753235814</v>
-      </c>
-      <c r="G47" t="b">
-        <v>0</v>
-      </c>
-      <c r="H47" t="n">
-        <v>16</v>
+        <v>0.1737192428997879</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0.055680226049466</v>
+      </c>
+      <c r="H47" t="b">
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>27</v>
+      </c>
+      <c r="J47" t="n">
+        <v>2166276657.478708</v>
       </c>
     </row>
     <row r="48">
@@ -1768,22 +2054,28 @@
         </is>
       </c>
       <c r="C48" t="n">
+        <v>5</v>
+      </c>
+      <c r="D48" t="n">
+        <v>502</v>
+      </c>
+      <c r="E48" t="n">
+        <v>3714456743.263422</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0.07845518123151635</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0.03571524201091369</v>
+      </c>
+      <c r="H48" t="b">
         <v>1</v>
       </c>
-      <c r="D48" t="n">
-        <v>431</v>
-      </c>
-      <c r="E48" t="n">
-        <v>6042267161.017452</v>
-      </c>
-      <c r="F48" t="n">
-        <v>0.00271972818520039</v>
-      </c>
-      <c r="G48" t="b">
-        <v>0</v>
-      </c>
-      <c r="H48" t="n">
-        <v>18</v>
+      <c r="I48" t="n">
+        <v>35</v>
+      </c>
+      <c r="J48" t="n">
+        <v>1857228422.51013</v>
       </c>
     </row>
     <row r="49">
@@ -1796,22 +2088,28 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D49" t="n">
-        <v>581</v>
+        <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>5937372531.513687</v>
+        <v>1734058292.685299</v>
       </c>
       <c r="F49" t="n">
-        <v>0.004681783989784522</v>
-      </c>
-      <c r="G49" t="b">
-        <v>0</v>
-      </c>
-      <c r="H49" t="n">
-        <v>2</v>
+        <v>0.1947937900021629</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0.03198052501231567</v>
+      </c>
+      <c r="H49" t="b">
+        <v>0</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>867029141.9038119</v>
       </c>
     </row>
     <row r="50">
@@ -1824,22 +2122,28 @@
         </is>
       </c>
       <c r="C50" t="n">
+        <v>2</v>
+      </c>
+      <c r="D50" t="n">
+        <v>514</v>
+      </c>
+      <c r="E50" t="n">
+        <v>2649445394.181611</v>
+      </c>
+      <c r="F50" t="n">
+        <v>0.1314373719941353</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0.03602944415146478</v>
+      </c>
+      <c r="H50" t="b">
         <v>1</v>
       </c>
-      <c r="D50" t="n">
-        <v>528</v>
-      </c>
-      <c r="E50" t="n">
-        <v>7582715379.328855</v>
-      </c>
-      <c r="F50" t="n">
-        <v>0.003511153954154077</v>
-      </c>
-      <c r="G50" t="b">
-        <v>1</v>
-      </c>
-      <c r="H50" t="n">
-        <v>27</v>
+      <c r="I50" t="n">
+        <v>34</v>
+      </c>
+      <c r="J50" t="n">
+        <v>1324722781.811826</v>
       </c>
     </row>
     <row r="51">
@@ -1852,22 +2156,28 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D51" t="n">
-        <v>394</v>
+        <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>4413569132.742912</v>
+        <v>1074623002.808088</v>
       </c>
       <c r="F51" t="n">
-        <v>0.004099150099231995</v>
-      </c>
-      <c r="G51" t="b">
-        <v>0</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
+        <v>0.1234026406494395</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0.03443043457199166</v>
+      </c>
+      <c r="H51" t="b">
+        <v>0</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>537311573.2189907</v>
       </c>
     </row>
     <row r="52">
@@ -1880,22 +2190,28 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D52" t="n">
-        <v>497</v>
+        <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>6411806740.684496</v>
+        <v>4015769803.55659</v>
       </c>
       <c r="F52" t="n">
-        <v>0.00140547394010734</v>
-      </c>
-      <c r="G52" t="b">
-        <v>0</v>
-      </c>
-      <c r="H52" t="n">
-        <v>24</v>
+        <v>0.1376396088997819</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0.04508125306147173</v>
+      </c>
+      <c r="H52" t="b">
+        <v>0</v>
+      </c>
+      <c r="I52" t="n">
+        <v>42</v>
+      </c>
+      <c r="J52" t="n">
+        <v>2007884957.263023</v>
       </c>
     </row>
     <row r="53">
@@ -1908,22 +2224,28 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D53" t="n">
-        <v>443</v>
+        <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>7029321097.724893</v>
+        <v>3678798087.688557</v>
       </c>
       <c r="F53" t="n">
-        <v>0.002360747418187561</v>
-      </c>
-      <c r="G53" t="b">
-        <v>0</v>
-      </c>
-      <c r="H53" t="n">
-        <v>19</v>
+        <v>0.1809788251643751</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0.02955955314058741</v>
+      </c>
+      <c r="H53" t="b">
+        <v>1</v>
+      </c>
+      <c r="I53" t="n">
+        <v>28</v>
+      </c>
+      <c r="J53" t="n">
+        <v>1839399029.304343</v>
       </c>
     </row>
     <row r="54">
@@ -1939,19 +2261,25 @@
         <v>3</v>
       </c>
       <c r="D54" t="n">
-        <v>591</v>
+        <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>5953722412.624709</v>
+        <v>4714488858.565747</v>
       </c>
       <c r="F54" t="n">
-        <v>0.004362907259626281</v>
-      </c>
-      <c r="G54" t="b">
-        <v>0</v>
-      </c>
-      <c r="H54" t="n">
-        <v>25</v>
+        <v>0.1542431049292527</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0.03805177101396549</v>
+      </c>
+      <c r="H54" t="b">
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
+        <v>35</v>
+      </c>
+      <c r="J54" t="n">
+        <v>2357244549.37457</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +2292,28 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D55" t="n">
-        <v>568</v>
+        <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>7091571119.719472</v>
+        <v>4933658478.259859</v>
       </c>
       <c r="F55" t="n">
-        <v>0.003889797001313353</v>
-      </c>
-      <c r="G55" t="b">
-        <v>0</v>
-      </c>
-      <c r="H55" t="n">
-        <v>32</v>
+        <v>0.2008909839417064</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0.02088963489480523</v>
+      </c>
+      <c r="H55" t="b">
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>27</v>
+      </c>
+      <c r="J55" t="n">
+        <v>2466829255.184532</v>
       </c>
     </row>
     <row r="56">
@@ -1992,22 +2326,28 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D56" t="n">
-        <v>467</v>
+        <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>6194097801.295312</v>
+        <v>1478065124.629454</v>
       </c>
       <c r="F56" t="n">
-        <v>0.002273317364638766</v>
-      </c>
-      <c r="G56" t="b">
-        <v>0</v>
-      </c>
-      <c r="H56" t="n">
-        <v>13</v>
+        <v>0.1344271536412728</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0.0493787699529154</v>
+      </c>
+      <c r="H56" t="b">
+        <v>0</v>
+      </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>739032607.7682077</v>
       </c>
     </row>
     <row r="57">
@@ -2020,22 +2360,28 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D57" t="n">
-        <v>475</v>
+        <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>5278135607.800415</v>
+        <v>3314941122.371314</v>
       </c>
       <c r="F57" t="n">
-        <v>0.003295957427418005</v>
-      </c>
-      <c r="G57" t="b">
-        <v>0</v>
-      </c>
-      <c r="H57" t="n">
-        <v>24</v>
+        <v>0.1261699412953067</v>
+      </c>
+      <c r="G57" t="n">
+        <v>0.02750819818301304</v>
+      </c>
+      <c r="H57" t="b">
+        <v>0</v>
+      </c>
+      <c r="I57" t="n">
+        <v>32</v>
+      </c>
+      <c r="J57" t="n">
+        <v>1657470591.973725</v>
       </c>
     </row>
     <row r="58">
@@ -2048,22 +2394,28 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D58" t="n">
-        <v>484</v>
+        <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>5334518279.843204</v>
+        <v>1434021787.112101</v>
       </c>
       <c r="F58" t="n">
-        <v>0.002545531557703139</v>
-      </c>
-      <c r="G58" t="b">
-        <v>0</v>
-      </c>
-      <c r="H58" t="n">
-        <v>24</v>
+        <v>0.1483808710815772</v>
+      </c>
+      <c r="G58" t="n">
+        <v>0.03210443147309883</v>
+      </c>
+      <c r="H58" t="b">
+        <v>0</v>
+      </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>717010930.6525772</v>
       </c>
     </row>
     <row r="59">
@@ -2076,22 +2428,28 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D59" t="n">
-        <v>352</v>
+        <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>6241987521.917897</v>
+        <v>3684097997.53827</v>
       </c>
       <c r="F59" t="n">
-        <v>0.003354082172058106</v>
-      </c>
-      <c r="G59" t="b">
-        <v>0</v>
-      </c>
-      <c r="H59" t="n">
-        <v>14</v>
+        <v>0.1145086221052508</v>
+      </c>
+      <c r="G59" t="n">
+        <v>0.04964897996831933</v>
+      </c>
+      <c r="H59" t="b">
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>29</v>
+      </c>
+      <c r="J59" t="n">
+        <v>1842048989.895859</v>
       </c>
     </row>
     <row r="60">
@@ -2107,19 +2465,25 @@
         <v>2</v>
       </c>
       <c r="D60" t="n">
-        <v>424</v>
+        <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3937929815.561856</v>
+        <v>2526507529.893143</v>
       </c>
       <c r="F60" t="n">
-        <v>0.003818787542876792</v>
-      </c>
-      <c r="G60" t="b">
-        <v>0</v>
-      </c>
-      <c r="H60" t="n">
-        <v>1</v>
+        <v>0.1717931913326104</v>
+      </c>
+      <c r="G60" t="n">
+        <v>0.02772255926676183</v>
+      </c>
+      <c r="H60" t="b">
+        <v>0</v>
+      </c>
+      <c r="I60" t="n">
+        <v>33</v>
+      </c>
+      <c r="J60" t="n">
+        <v>1263253785.573228</v>
       </c>
     </row>
     <row r="61">
@@ -2132,22 +2496,28 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D61" t="n">
-        <v>488</v>
+        <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>5754571521.00874</v>
+        <v>3168689004.028101</v>
       </c>
       <c r="F61" t="n">
-        <v>0.005074370028592704</v>
-      </c>
-      <c r="G61" t="b">
-        <v>0</v>
-      </c>
-      <c r="H61" t="n">
-        <v>22</v>
+        <v>0.1530769899841937</v>
+      </c>
+      <c r="G61" t="n">
+        <v>0.03151310315858605</v>
+      </c>
+      <c r="H61" t="b">
+        <v>1</v>
+      </c>
+      <c r="I61" t="n">
+        <v>34</v>
+      </c>
+      <c r="J61" t="n">
+        <v>1584344466.511788</v>
       </c>
     </row>
     <row r="62">
@@ -2160,22 +2530,28 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D62" t="n">
-        <v>441</v>
+        <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>6526297225.437593</v>
+        <v>1726189080.275075</v>
       </c>
       <c r="F62" t="n">
-        <v>0.003672546854576509</v>
-      </c>
-      <c r="G62" t="b">
-        <v>1</v>
-      </c>
-      <c r="H62" t="n">
-        <v>18</v>
+        <v>0.1900068589101196</v>
+      </c>
+      <c r="G62" t="n">
+        <v>0.03585868929342393</v>
+      </c>
+      <c r="H62" t="b">
+        <v>0</v>
+      </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>863094557.0752808</v>
       </c>
     </row>
     <row r="63">
@@ -2191,19 +2567,25 @@
         <v>4</v>
       </c>
       <c r="D63" t="n">
-        <v>490</v>
+        <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>7831320959.702396</v>
+        <v>5448276857.435495</v>
       </c>
       <c r="F63" t="n">
-        <v>0.005338633142181242</v>
-      </c>
-      <c r="G63" t="b">
-        <v>1</v>
-      </c>
-      <c r="H63" t="n">
-        <v>24</v>
+        <v>0.08085956343773081</v>
+      </c>
+      <c r="G63" t="n">
+        <v>0.04267581611504601</v>
+      </c>
+      <c r="H63" t="b">
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
+        <v>29</v>
+      </c>
+      <c r="J63" t="n">
+        <v>2724138426.405128</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2598,28 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D64" t="n">
-        <v>545</v>
+        <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4615305817.562628</v>
+        <v>4542129606.670889</v>
       </c>
       <c r="F64" t="n">
-        <v>0.004095524332042836</v>
-      </c>
-      <c r="G64" t="b">
-        <v>0</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
+        <v>0.1736172475582889</v>
+      </c>
+      <c r="G64" t="n">
+        <v>0.02185230459111451</v>
+      </c>
+      <c r="H64" t="b">
+        <v>1</v>
+      </c>
+      <c r="I64" t="n">
+        <v>31</v>
+      </c>
+      <c r="J64" t="n">
+        <v>2271064877.260189</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2632,28 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D65" t="n">
-        <v>507</v>
+        <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>6164579822.464036</v>
+        <v>4750760044.78238</v>
       </c>
       <c r="F65" t="n">
-        <v>0.003580228412028724</v>
-      </c>
-      <c r="G65" t="b">
-        <v>0</v>
-      </c>
-      <c r="H65" t="n">
-        <v>26</v>
+        <v>0.168531091681071</v>
+      </c>
+      <c r="G65" t="n">
+        <v>0.02233693089038196</v>
+      </c>
+      <c r="H65" t="b">
+        <v>0</v>
+      </c>
+      <c r="I65" t="n">
+        <v>36</v>
+      </c>
+      <c r="J65" t="n">
+        <v>2375379996.108547</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2666,28 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D66" t="n">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>6341073219.299967</v>
+        <v>5346407192.499845</v>
       </c>
       <c r="F66" t="n">
-        <v>0.003426978315539698</v>
-      </c>
-      <c r="G66" t="b">
+        <v>0.1402918715662858</v>
+      </c>
+      <c r="G66" t="n">
+        <v>0.04096115785636122</v>
+      </c>
+      <c r="H66" t="b">
         <v>1</v>
       </c>
-      <c r="H66" t="n">
-        <v>20</v>
+      <c r="I66" t="n">
+        <v>29</v>
+      </c>
+      <c r="J66" t="n">
+        <v>2673203641.892025</v>
       </c>
     </row>
     <row r="67">
@@ -2300,22 +2700,28 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D67" t="n">
-        <v>411</v>
+        <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>5001587843.960146</v>
+        <v>2544348860.590019</v>
       </c>
       <c r="F67" t="n">
-        <v>0.00497875533946151</v>
-      </c>
-      <c r="G67" t="b">
-        <v>0</v>
-      </c>
-      <c r="H67" t="n">
-        <v>19</v>
+        <v>0.07316704355187394</v>
+      </c>
+      <c r="G67" t="n">
+        <v>0.05117656209422092</v>
+      </c>
+      <c r="H67" t="b">
+        <v>0</v>
+      </c>
+      <c r="I67" t="n">
+        <v>32</v>
+      </c>
+      <c r="J67" t="n">
+        <v>1272174487.028973</v>
       </c>
     </row>
     <row r="68">
@@ -2328,22 +2734,28 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D68" t="n">
-        <v>462</v>
+        <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5496222048.717132</v>
+        <v>4152551049.308905</v>
       </c>
       <c r="F68" t="n">
-        <v>0.002446810946951256</v>
-      </c>
-      <c r="G68" t="b">
-        <v>0</v>
-      </c>
-      <c r="H68" t="n">
-        <v>21</v>
+        <v>0.1317321329164543</v>
+      </c>
+      <c r="G68" t="n">
+        <v>0.04062348861927076</v>
+      </c>
+      <c r="H68" t="b">
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
+        <v>32</v>
+      </c>
+      <c r="J68" t="n">
+        <v>2076275529.634907</v>
       </c>
     </row>
     <row r="69">
@@ -2356,22 +2768,28 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D69" t="n">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>6300191325.972696</v>
+        <v>2454041550.532777</v>
       </c>
       <c r="F69" t="n">
-        <v>0.001115382513328728</v>
-      </c>
-      <c r="G69" t="b">
-        <v>1</v>
-      </c>
-      <c r="H69" t="n">
-        <v>23</v>
+        <v>0.1637142241845198</v>
+      </c>
+      <c r="G69" t="n">
+        <v>0.03693747131392246</v>
+      </c>
+      <c r="H69" t="b">
+        <v>0</v>
+      </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>1227020838.844913</v>
       </c>
     </row>
     <row r="70">
@@ -2384,22 +2802,28 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D70" t="n">
-        <v>490</v>
+        <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>6244070675.452394</v>
+        <v>3126692945.896418</v>
       </c>
       <c r="F70" t="n">
-        <v>0.002955889312038357</v>
-      </c>
-      <c r="G70" t="b">
+        <v>0.0830851716405855</v>
+      </c>
+      <c r="G70" t="n">
+        <v>0.03877892056725383</v>
+      </c>
+      <c r="H70" t="b">
         <v>1</v>
       </c>
-      <c r="H70" t="n">
-        <v>23</v>
+      <c r="I70" t="n">
+        <v>29</v>
+      </c>
+      <c r="J70" t="n">
+        <v>1563346458.163294</v>
       </c>
     </row>
     <row r="71">
@@ -2415,19 +2839,25 @@
         <v>5</v>
       </c>
       <c r="D71" t="n">
-        <v>474</v>
+        <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4551363847.977331</v>
+        <v>4835804582.444754</v>
       </c>
       <c r="F71" t="n">
-        <v>0.003061392372805941</v>
-      </c>
-      <c r="G71" t="b">
-        <v>0</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
+        <v>0.1543240154680987</v>
+      </c>
+      <c r="G71" t="n">
+        <v>0.02512246374608383</v>
+      </c>
+      <c r="H71" t="b">
+        <v>0</v>
+      </c>
+      <c r="I71" t="n">
+        <v>37</v>
+      </c>
+      <c r="J71" t="n">
+        <v>2417902384.583705</v>
       </c>
     </row>
     <row r="72">
@@ -2443,19 +2873,25 @@
         <v>3</v>
       </c>
       <c r="D72" t="n">
-        <v>460</v>
+        <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>5377022378.979925</v>
+        <v>2137989791.377462</v>
       </c>
       <c r="F72" t="n">
-        <v>0.002162010967263963</v>
-      </c>
-      <c r="G72" t="b">
-        <v>0</v>
-      </c>
-      <c r="H72" t="n">
-        <v>21</v>
+        <v>0.08346149206180965</v>
+      </c>
+      <c r="G72" t="n">
+        <v>0.03391441489217755</v>
+      </c>
+      <c r="H72" t="b">
+        <v>0</v>
+      </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>1068994819.703057</v>
       </c>
     </row>
     <row r="73">
@@ -2468,22 +2904,28 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D73" t="n">
-        <v>480</v>
+        <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>5340338292.951619</v>
+        <v>3086489975.739919</v>
       </c>
       <c r="F73" t="n">
-        <v>0.001283743373161289</v>
-      </c>
-      <c r="G73" t="b">
-        <v>0</v>
-      </c>
-      <c r="H73" t="n">
-        <v>23</v>
+        <v>0.07122405553122459</v>
+      </c>
+      <c r="G73" t="n">
+        <v>0.03224223128677988</v>
+      </c>
+      <c r="H73" t="b">
+        <v>0</v>
+      </c>
+      <c r="I73" t="n">
+        <v>39</v>
+      </c>
+      <c r="J73" t="n">
+        <v>1543244975.851214</v>
       </c>
     </row>
     <row r="74">
@@ -2496,22 +2938,28 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D74" t="n">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>4562129094.940001</v>
+        <v>2790083476.62848</v>
       </c>
       <c r="F74" t="n">
-        <v>0.004524018712855292</v>
-      </c>
-      <c r="G74" t="b">
-        <v>0</v>
-      </c>
-      <c r="H74" t="n">
-        <v>23</v>
+        <v>0.1507279464988619</v>
+      </c>
+      <c r="G74" t="n">
+        <v>0.02376313829818028</v>
+      </c>
+      <c r="H74" t="b">
+        <v>1</v>
+      </c>
+      <c r="I74" t="n">
+        <v>34</v>
+      </c>
+      <c r="J74" t="n">
+        <v>1395041821.795817</v>
       </c>
     </row>
     <row r="75">
@@ -2524,22 +2972,28 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D75" t="n">
-        <v>441</v>
+        <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>6554036615.140812</v>
+        <v>1766493005.728717</v>
       </c>
       <c r="F75" t="n">
-        <v>0.003678093635041734</v>
-      </c>
-      <c r="G75" t="b">
-        <v>0</v>
-      </c>
-      <c r="H75" t="n">
-        <v>19</v>
+        <v>0.1024568397605655</v>
+      </c>
+      <c r="G75" t="n">
+        <v>0.0294274281720087</v>
+      </c>
+      <c r="H75" t="b">
+        <v>0</v>
+      </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>883246488.9275708</v>
       </c>
     </row>
     <row r="76">
@@ -2555,19 +3009,25 @@
         <v>2</v>
       </c>
       <c r="D76" t="n">
-        <v>459</v>
+        <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>7131667240.168633</v>
+        <v>4171182658.916883</v>
       </c>
       <c r="F76" t="n">
-        <v>0.002563276592288582</v>
-      </c>
-      <c r="G76" t="b">
-        <v>1</v>
-      </c>
-      <c r="H76" t="n">
-        <v>20</v>
+        <v>0.08815260928458993</v>
+      </c>
+      <c r="G76" t="n">
+        <v>0.03225483292468356</v>
+      </c>
+      <c r="H76" t="b">
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
+        <v>22</v>
+      </c>
+      <c r="J76" t="n">
+        <v>2085591321.256033</v>
       </c>
     </row>
     <row r="77">
@@ -2580,22 +3040,28 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D77" t="n">
-        <v>576</v>
+        <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>7753256775.772272</v>
+        <v>1718246981.402621</v>
       </c>
       <c r="F77" t="n">
-        <v>0.003942040856121229</v>
-      </c>
-      <c r="G77" t="b">
-        <v>1</v>
-      </c>
-      <c r="H77" t="n">
-        <v>33</v>
+        <v>0.1359096516430908</v>
+      </c>
+      <c r="G77" t="n">
+        <v>0.02194616170142637</v>
+      </c>
+      <c r="H77" t="b">
+        <v>0</v>
+      </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>859123510.574334</v>
       </c>
     </row>
     <row r="78">
@@ -2608,22 +3074,28 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D78" t="n">
-        <v>454</v>
+        <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>5315256786.780318</v>
+        <v>4446357740.300551</v>
       </c>
       <c r="F78" t="n">
-        <v>0.00441011358264315</v>
-      </c>
-      <c r="G78" t="b">
-        <v>0</v>
-      </c>
-      <c r="H78" t="n">
-        <v>20</v>
+        <v>0.09749117582796138</v>
+      </c>
+      <c r="G78" t="n">
+        <v>0.03623550601973557</v>
+      </c>
+      <c r="H78" t="b">
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
+        <v>35</v>
+      </c>
+      <c r="J78" t="n">
+        <v>2223178803.871639</v>
       </c>
     </row>
     <row r="79">
@@ -2636,22 +3108,28 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D79" t="n">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>6806500238.976439</v>
+        <v>1507674114.424253</v>
       </c>
       <c r="F79" t="n">
-        <v>0.001850511885557893</v>
-      </c>
-      <c r="G79" t="b">
-        <v>0</v>
-      </c>
-      <c r="H79" t="n">
-        <v>21</v>
+        <v>0.1197369068194545</v>
+      </c>
+      <c r="G79" t="n">
+        <v>0.02587627398607997</v>
+      </c>
+      <c r="H79" t="b">
+        <v>0</v>
+      </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>753837092.7039076</v>
       </c>
     </row>
     <row r="80">
@@ -2667,19 +3145,25 @@
         <v>5</v>
       </c>
       <c r="D80" t="n">
-        <v>573</v>
+        <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>7703132165.511927</v>
+        <v>4296835480.633787</v>
       </c>
       <c r="F80" t="n">
-        <v>0.002825147413095985</v>
-      </c>
-      <c r="G80" t="b">
-        <v>1</v>
-      </c>
-      <c r="H80" t="n">
-        <v>32</v>
+        <v>0.06920599664435839</v>
+      </c>
+      <c r="G80" t="n">
+        <v>0.03058664729719007</v>
+      </c>
+      <c r="H80" t="b">
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
+        <v>21</v>
+      </c>
+      <c r="J80" t="n">
+        <v>2148417754.479159</v>
       </c>
     </row>
     <row r="81">
@@ -2692,22 +3176,28 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D81" t="n">
-        <v>427</v>
+        <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>7312406148.039888</v>
+        <v>4646758592.339092</v>
       </c>
       <c r="F81" t="n">
-        <v>0.003219618370319369</v>
-      </c>
-      <c r="G81" t="b">
-        <v>1</v>
-      </c>
-      <c r="H81" t="n">
-        <v>18</v>
+        <v>0.124837305225156</v>
+      </c>
+      <c r="G81" t="n">
+        <v>0.02188698753222528</v>
+      </c>
+      <c r="H81" t="b">
+        <v>0</v>
+      </c>
+      <c r="I81" t="n">
+        <v>24</v>
+      </c>
+      <c r="J81" t="n">
+        <v>2323379283.346829</v>
       </c>
     </row>
     <row r="82">
@@ -2720,22 +3210,28 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D82" t="n">
-        <v>423</v>
+        <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>7820225395.763573</v>
+        <v>3780697133.256433</v>
       </c>
       <c r="F82" t="n">
-        <v>0.004072614928300747</v>
-      </c>
-      <c r="G82" t="b">
-        <v>0</v>
-      </c>
-      <c r="H82" t="n">
-        <v>19</v>
+        <v>0.2023715009934609</v>
+      </c>
+      <c r="G82" t="n">
+        <v>0.02255478998059914</v>
+      </c>
+      <c r="H82" t="b">
+        <v>0</v>
+      </c>
+      <c r="I82" t="n">
+        <v>39</v>
+      </c>
+      <c r="J82" t="n">
+        <v>1890348618.573123</v>
       </c>
     </row>
     <row r="83">
@@ -2748,22 +3244,28 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D83" t="n">
-        <v>504</v>
+        <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>7370869907.699098</v>
+        <v>2188612569.839855</v>
       </c>
       <c r="F83" t="n">
-        <v>0.002501852875303209</v>
-      </c>
-      <c r="G83" t="b">
-        <v>0</v>
-      </c>
-      <c r="H83" t="n">
-        <v>30</v>
+        <v>0.1237061193826574</v>
+      </c>
+      <c r="G83" t="n">
+        <v>0.03814592589144501</v>
+      </c>
+      <c r="H83" t="b">
+        <v>0</v>
+      </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>1094306293.673877</v>
       </c>
     </row>
     <row r="84">
@@ -2776,22 +3278,28 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D84" t="n">
-        <v>524</v>
+        <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>5949526524.099541</v>
+        <v>2274239679.682918</v>
       </c>
       <c r="F84" t="n">
-        <v>0.004766639907450064</v>
-      </c>
-      <c r="G84" t="b">
-        <v>0</v>
-      </c>
-      <c r="H84" t="n">
-        <v>26</v>
+        <v>0.09834121797664755</v>
+      </c>
+      <c r="G84" t="n">
+        <v>0.04896778833798683</v>
+      </c>
+      <c r="H84" t="b">
+        <v>0</v>
+      </c>
+      <c r="I84" t="n">
+        <v>1</v>
+      </c>
+      <c r="J84" t="n">
+        <v>1137119804.603057</v>
       </c>
     </row>
     <row r="85">
@@ -2804,22 +3312,28 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D85" t="n">
-        <v>512</v>
+        <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>4627729833.370674</v>
+        <v>2282390422.321252</v>
       </c>
       <c r="F85" t="n">
-        <v>0.00380750458509086</v>
-      </c>
-      <c r="G85" t="b">
-        <v>0</v>
-      </c>
-      <c r="H85" t="n">
-        <v>2</v>
+        <v>0.1365556596479936</v>
+      </c>
+      <c r="G85" t="n">
+        <v>0.04347397697621796</v>
+      </c>
+      <c r="H85" t="b">
+        <v>0</v>
+      </c>
+      <c r="I85" t="n">
+        <v>36</v>
+      </c>
+      <c r="J85" t="n">
+        <v>1141195192.022735</v>
       </c>
     </row>
     <row r="86">
@@ -2832,22 +3346,28 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D86" t="n">
-        <v>517</v>
+        <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>7674173835.678667</v>
+        <v>2028652872.5103</v>
       </c>
       <c r="F86" t="n">
-        <v>0.001784854664874144</v>
-      </c>
-      <c r="G86" t="b">
-        <v>1</v>
-      </c>
-      <c r="H86" t="n">
-        <v>36</v>
+        <v>0.1699222667004086</v>
+      </c>
+      <c r="G86" t="n">
+        <v>0.0182590073242765</v>
+      </c>
+      <c r="H86" t="b">
+        <v>0</v>
+      </c>
+      <c r="I86" t="n">
+        <v>9</v>
+      </c>
+      <c r="J86" t="n">
+        <v>1014326467.806604</v>
       </c>
     </row>
     <row r="87">
@@ -2860,22 +3380,28 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D87" t="n">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>5168106760.575327</v>
+        <v>1126423281.121844</v>
       </c>
       <c r="F87" t="n">
-        <v>0.0012831502446259</v>
-      </c>
-      <c r="G87" t="b">
-        <v>0</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
+        <v>0.1876443785554289</v>
+      </c>
+      <c r="G87" t="n">
+        <v>0.04106352886813024</v>
+      </c>
+      <c r="H87" t="b">
+        <v>0</v>
+      </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>563211677.2152947</v>
       </c>
     </row>
     <row r="88">
@@ -2888,22 +3414,28 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D88" t="n">
-        <v>477</v>
+        <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>8135779997.565862</v>
+        <v>2581539263.208878</v>
       </c>
       <c r="F88" t="n">
-        <v>0.005363233028940012</v>
-      </c>
-      <c r="G88" t="b">
-        <v>0</v>
-      </c>
-      <c r="H88" t="n">
-        <v>22</v>
+        <v>0.1690082967557174</v>
+      </c>
+      <c r="G88" t="n">
+        <v>0.03380320318750654</v>
+      </c>
+      <c r="H88" t="b">
+        <v>0</v>
+      </c>
+      <c r="I88" t="n">
+        <v>40</v>
+      </c>
+      <c r="J88" t="n">
+        <v>1290769620.630198</v>
       </c>
     </row>
     <row r="89">
@@ -2919,19 +3451,25 @@
         <v>4</v>
       </c>
       <c r="D89" t="n">
-        <v>473</v>
+        <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>7899018438.708801</v>
+        <v>3464620666.590072</v>
       </c>
       <c r="F89" t="n">
-        <v>0.004242542226187272</v>
-      </c>
-      <c r="G89" t="b">
-        <v>0</v>
-      </c>
-      <c r="H89" t="n">
-        <v>22</v>
+        <v>0.1475591518217012</v>
+      </c>
+      <c r="G89" t="n">
+        <v>0.02661028868393899</v>
+      </c>
+      <c r="H89" t="b">
+        <v>0</v>
+      </c>
+      <c r="I89" t="n">
+        <v>34</v>
+      </c>
+      <c r="J89" t="n">
+        <v>1732310337.275004</v>
       </c>
     </row>
     <row r="90">
@@ -2944,22 +3482,28 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D90" t="n">
-        <v>433</v>
+        <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>7611948621.374656</v>
+        <v>2106663331.601302</v>
       </c>
       <c r="F90" t="n">
-        <v>0.003470489941330629</v>
-      </c>
-      <c r="G90" t="b">
-        <v>0</v>
-      </c>
-      <c r="H90" t="n">
-        <v>18</v>
+        <v>0.09699516808908182</v>
+      </c>
+      <c r="G90" t="n">
+        <v>0.04156642612650395</v>
+      </c>
+      <c r="H90" t="b">
+        <v>0</v>
+      </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>1053331755.494534</v>
       </c>
     </row>
     <row r="91">
@@ -2972,22 +3516,28 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D91" t="n">
-        <v>556</v>
+        <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>7109009035.260922</v>
+        <v>1377375538.607659</v>
       </c>
       <c r="F91" t="n">
-        <v>0.004406736073431434</v>
-      </c>
-      <c r="G91" t="b">
-        <v>1</v>
-      </c>
-      <c r="H91" t="n">
-        <v>29</v>
+        <v>0.1400232162171163</v>
+      </c>
+      <c r="G91" t="n">
+        <v>0.03879900453571717</v>
+      </c>
+      <c r="H91" t="b">
+        <v>0</v>
+      </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>688687824.479822</v>
       </c>
     </row>
     <row r="92">
@@ -3000,22 +3550,28 @@
         </is>
       </c>
       <c r="C92" t="n">
+        <v>3</v>
+      </c>
+      <c r="D92" t="n">
+        <v>515</v>
+      </c>
+      <c r="E92" t="n">
+        <v>2588511833.940243</v>
+      </c>
+      <c r="F92" t="n">
+        <v>0.08666120380806241</v>
+      </c>
+      <c r="G92" t="n">
+        <v>0.03213758529777867</v>
+      </c>
+      <c r="H92" t="b">
         <v>1</v>
       </c>
-      <c r="D92" t="n">
-        <v>534</v>
-      </c>
-      <c r="E92" t="n">
-        <v>5216204925.677921</v>
-      </c>
-      <c r="F92" t="n">
-        <v>0.003699697494912689</v>
-      </c>
-      <c r="G92" t="b">
-        <v>0</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
+      <c r="I92" t="n">
+        <v>20</v>
+      </c>
+      <c r="J92" t="n">
+        <v>1294255907.541234</v>
       </c>
     </row>
     <row r="93">
@@ -3028,22 +3584,28 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D93" t="n">
-        <v>588</v>
+        <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>8001130714.067178</v>
+        <v>4503204822.318931</v>
       </c>
       <c r="F93" t="n">
-        <v>0.001889737957746517</v>
-      </c>
-      <c r="G93" t="b">
-        <v>0</v>
-      </c>
-      <c r="H93" t="n">
-        <v>36</v>
+        <v>0.09518321871602316</v>
+      </c>
+      <c r="G93" t="n">
+        <v>0.03477680105914591</v>
+      </c>
+      <c r="H93" t="b">
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
+        <v>30</v>
+      </c>
+      <c r="J93" t="n">
+        <v>2251602379.184247</v>
       </c>
     </row>
     <row r="94">
@@ -3056,22 +3618,28 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D94" t="n">
-        <v>588</v>
+        <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>6562788788.454404</v>
+        <v>1896641221.713378</v>
       </c>
       <c r="F94" t="n">
-        <v>0.00154206885828184</v>
-      </c>
-      <c r="G94" t="b">
-        <v>1</v>
-      </c>
-      <c r="H94" t="n">
-        <v>33</v>
+        <v>0.146222489294646</v>
+      </c>
+      <c r="G94" t="n">
+        <v>0.02997857018974435</v>
+      </c>
+      <c r="H94" t="b">
+        <v>0</v>
+      </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>948320595.7432097</v>
       </c>
     </row>
     <row r="95">
@@ -3087,19 +3655,25 @@
         <v>2</v>
       </c>
       <c r="D95" t="n">
-        <v>511</v>
+        <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>6283682338.187423</v>
+        <v>2022048444.245473</v>
       </c>
       <c r="F95" t="n">
-        <v>0.002644071987525936</v>
-      </c>
-      <c r="G95" t="b">
-        <v>0</v>
-      </c>
-      <c r="H95" t="n">
-        <v>26</v>
+        <v>0.1230461944615286</v>
+      </c>
+      <c r="G95" t="n">
+        <v>0.04450391862251799</v>
+      </c>
+      <c r="H95" t="b">
+        <v>0</v>
+      </c>
+      <c r="I95" t="n">
+        <v>24</v>
+      </c>
+      <c r="J95" t="n">
+        <v>1011024292.926928</v>
       </c>
     </row>
     <row r="96">
@@ -3112,22 +3686,28 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D96" t="n">
-        <v>520</v>
+        <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>8614934623.317621</v>
+        <v>1651413824.472545</v>
       </c>
       <c r="F96" t="n">
-        <v>0.003138320046421974</v>
-      </c>
-      <c r="G96" t="b">
-        <v>0</v>
-      </c>
-      <c r="H96" t="n">
-        <v>27</v>
+        <v>0.1053306707018454</v>
+      </c>
+      <c r="G96" t="n">
+        <v>0.041154734602807</v>
+      </c>
+      <c r="H96" t="b">
+        <v>0</v>
+      </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>825706936.3740757</v>
       </c>
     </row>
     <row r="97">
@@ -3140,22 +3720,28 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D97" t="n">
-        <v>514</v>
+        <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>5901892323.454343</v>
+        <v>3737357699.727519</v>
       </c>
       <c r="F97" t="n">
-        <v>0.005319531416081333</v>
-      </c>
-      <c r="G97" t="b">
-        <v>0</v>
-      </c>
-      <c r="H97" t="n">
-        <v>26</v>
+        <v>0.1301769979098707</v>
+      </c>
+      <c r="G97" t="n">
+        <v>0.01768062228900858</v>
+      </c>
+      <c r="H97" t="b">
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
+        <v>33</v>
+      </c>
+      <c r="J97" t="n">
+        <v>1868678885.046772</v>
       </c>
     </row>
     <row r="98">
@@ -3168,22 +3754,28 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D98" t="n">
-        <v>616</v>
+        <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>6814702963.914359</v>
+        <v>2962218104.570079</v>
       </c>
       <c r="F98" t="n">
-        <v>0.00386803418078365</v>
-      </c>
-      <c r="G98" t="b">
-        <v>1</v>
-      </c>
-      <c r="H98" t="n">
-        <v>37</v>
+        <v>0.1299058506980776</v>
+      </c>
+      <c r="G98" t="n">
+        <v>0.02247694272113007</v>
+      </c>
+      <c r="H98" t="b">
+        <v>0</v>
+      </c>
+      <c r="I98" t="n">
+        <v>27</v>
+      </c>
+      <c r="J98" t="n">
+        <v>1481109034.350533</v>
       </c>
     </row>
     <row r="99">
@@ -3196,22 +3788,28 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D99" t="n">
-        <v>567</v>
+        <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2899576511.338937</v>
+        <v>3253328702.834146</v>
       </c>
       <c r="F99" t="n">
-        <v>0.005954358640102104</v>
-      </c>
-      <c r="G99" t="b">
-        <v>0</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
+        <v>0.1066464584169067</v>
+      </c>
+      <c r="G99" t="n">
+        <v>0.02144329560384023</v>
+      </c>
+      <c r="H99" t="b">
+        <v>0</v>
+      </c>
+      <c r="I99" t="n">
+        <v>32</v>
+      </c>
+      <c r="J99" t="n">
+        <v>1626664355.694174</v>
       </c>
     </row>
     <row r="100">
@@ -3224,22 +3822,28 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D100" t="n">
-        <v>422</v>
+        <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>6114167925.899566</v>
+        <v>4425258668.312953</v>
       </c>
       <c r="F100" t="n">
-        <v>0.002857362453171929</v>
-      </c>
-      <c r="G100" t="b">
-        <v>0</v>
-      </c>
-      <c r="H100" t="n">
-        <v>8</v>
+        <v>0.1166751841623999</v>
+      </c>
+      <c r="G100" t="n">
+        <v>0.0230881762079276</v>
+      </c>
+      <c r="H100" t="b">
+        <v>0</v>
+      </c>
+      <c r="I100" t="n">
+        <v>31</v>
+      </c>
+      <c r="J100" t="n">
+        <v>2212629438.703869</v>
       </c>
     </row>
     <row r="101">
@@ -3252,22 +3856,28 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D101" t="n">
-        <v>573</v>
+        <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>6484101687.260198</v>
+        <v>3367102009.531937</v>
       </c>
       <c r="F101" t="n">
-        <v>0.001363208862925909</v>
-      </c>
-      <c r="G101" t="b">
-        <v>0</v>
-      </c>
-      <c r="H101" t="n">
-        <v>32</v>
+        <v>0.1396978546248968</v>
+      </c>
+      <c r="G101" t="n">
+        <v>0.05680670251452888</v>
+      </c>
+      <c r="H101" t="b">
+        <v>1</v>
+      </c>
+      <c r="I101" t="n">
+        <v>42</v>
+      </c>
+      <c r="J101" t="n">
+        <v>1683551142.251012</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_100.xlsx
+++ b/output/fit_clients/fit_round_100.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -496,22 +486,16 @@
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2076391141.245896</v>
+        <v>2091775806.788141</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0883151635351989</v>
+        <v>0.09046201950094797</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04329420976620017</v>
+        <v>0.04277161026691714</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>1038195576.471594</v>
       </c>
     </row>
     <row r="3">
@@ -530,22 +514,16 @@
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1805570214.015691</v>
+        <v>2009556252.354353</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1607040387685684</v>
+        <v>0.1419472486165079</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03420273072648431</v>
+        <v>0.04408051440249551</v>
       </c>
       <c r="H3" t="b">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
         <v>1</v>
-      </c>
-      <c r="J3" t="n">
-        <v>902785116.8883752</v>
       </c>
     </row>
     <row r="4">
@@ -558,28 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3737572538.774767</v>
+        <v>3368079865.364101</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1537299775945236</v>
+        <v>0.1286947728715943</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03473346277264068</v>
+        <v>0.02326847321710065</v>
       </c>
       <c r="H4" t="b">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>36</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1868786264.90113</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -592,28 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3027261738.703651</v>
+        <v>4125492275.741315</v>
       </c>
       <c r="F5" t="n">
-        <v>0.09354544067259936</v>
+        <v>0.09952529357263702</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03775289593841311</v>
+        <v>0.04467578762299812</v>
       </c>
       <c r="H5" t="b">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>37</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1513630937.348387</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -626,28 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2786139432.361793</v>
+        <v>2244137454.953475</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1230307332523129</v>
+        <v>0.1471992964625072</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05128778370931418</v>
+        <v>0.03753379949547849</v>
       </c>
       <c r="H6" t="b">
         <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>16</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1393069660.630958</v>
       </c>
     </row>
     <row r="7">
@@ -666,22 +626,16 @@
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2564361746.268241</v>
+        <v>2358582744.050918</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1021194711631946</v>
+        <v>0.08497410999010074</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03218594337426876</v>
+        <v>0.04426133062727249</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>30</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1282180879.901012</v>
       </c>
     </row>
     <row r="8">
@@ -700,22 +654,16 @@
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3680559756.375012</v>
+        <v>3537626176.215815</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2035753761171213</v>
+        <v>0.2105365621832677</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03154363034496407</v>
+        <v>0.03354137465198746</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>33</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1840280005.194931</v>
       </c>
     </row>
     <row r="9">
@@ -728,28 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1604794115.616613</v>
+        <v>2071879079.048363</v>
       </c>
       <c r="F9" t="n">
-        <v>0.133838472654632</v>
+        <v>0.1489455268757505</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02574703261065354</v>
+        <v>0.02607779823102859</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>802397139.1771576</v>
       </c>
     </row>
     <row r="10">
@@ -768,22 +710,16 @@
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4664257634.92543</v>
+        <v>4180320919.368121</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1570165809337286</v>
+        <v>0.1344916826314559</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04998080882994194</v>
+        <v>0.03655481599118098</v>
       </c>
       <c r="H10" t="b">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>42</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2332128890.713315</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -796,28 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>4130834982.722104</v>
+        <v>2891642976.638484</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1314942818434973</v>
+        <v>0.1700221963953474</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0444582242761346</v>
+        <v>0.03048812823938717</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>42</v>
-      </c>
-      <c r="J11" t="n">
-        <v>2065417513.149645</v>
       </c>
     </row>
     <row r="12">
@@ -830,28 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2024139079.688287</v>
+        <v>2313595657.836839</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1232811611877329</v>
+        <v>0.1557368796275491</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03778437006195781</v>
+        <v>0.04041159507725239</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>35</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1012069468.441685</v>
       </c>
     </row>
     <row r="13">
@@ -870,22 +794,16 @@
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3491139435.314563</v>
+        <v>3992422819.745688</v>
       </c>
       <c r="F13" t="n">
-        <v>0.1014765416029295</v>
+        <v>0.06387140059638348</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02138228801075959</v>
+        <v>0.01939134015737323</v>
       </c>
       <c r="H13" t="b">
         <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>34</v>
-      </c>
-      <c r="J13" t="n">
-        <v>1745569798.371089</v>
       </c>
     </row>
     <row r="14">
@@ -898,28 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2411889635.680249</v>
+        <v>3651296012.444034</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1401831495010173</v>
+        <v>0.181173394247329</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03310125560983586</v>
+        <v>0.04423182579925599</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>32</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1205944894.80046</v>
       </c>
     </row>
     <row r="15">
@@ -932,28 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1823923945.223676</v>
+        <v>1246264443.684171</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1081024735143516</v>
+        <v>0.09940895171451933</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03905518858574943</v>
+        <v>0.03499291190880709</v>
       </c>
       <c r="H15" t="b">
-        <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>911962131.4722787</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -966,28 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>1767870520.14909</v>
+        <v>2591627657.041265</v>
       </c>
       <c r="F16" t="n">
-        <v>0.07639461787449664</v>
+        <v>0.07080478047226416</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03542519779124782</v>
+        <v>0.04185295839686511</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>15</v>
-      </c>
-      <c r="J16" t="n">
-        <v>883935356.2289653</v>
       </c>
     </row>
     <row r="17">
@@ -1000,28 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4558352186.673143</v>
+        <v>5288930959.094569</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1261187501496799</v>
+        <v>0.1312026407461078</v>
       </c>
       <c r="G17" t="n">
-        <v>0.05304091194621439</v>
+        <v>0.04480624921463338</v>
       </c>
       <c r="H17" t="b">
         <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>29</v>
-      </c>
-      <c r="J17" t="n">
-        <v>2279176100.218824</v>
       </c>
     </row>
     <row r="18">
@@ -1034,28 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2653235404.609937</v>
+        <v>3978345877.22851</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1140249477285096</v>
+        <v>0.1328424802450822</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02640814785357964</v>
+        <v>0.02842218217357271</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>33</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1326617757.555837</v>
       </c>
     </row>
     <row r="19">
@@ -1068,28 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>880459902.237848</v>
+        <v>896971298.2560216</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1769556776855203</v>
+        <v>0.1397079616158884</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02144872949784235</v>
+        <v>0.02573796325473024</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>440229951.2029571</v>
       </c>
     </row>
     <row r="20">
@@ -1102,28 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>1909328679.337503</v>
+        <v>2511781950.65679</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1383980676106445</v>
+        <v>0.09860274757910927</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02062915005848946</v>
+        <v>0.02519741457304551</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>12</v>
-      </c>
-      <c r="J20" t="n">
-        <v>954664375.626377</v>
       </c>
     </row>
     <row r="21">
@@ -1142,22 +1018,16 @@
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2110125280.495546</v>
+        <v>1665689050.070964</v>
       </c>
       <c r="F21" t="n">
-        <v>0.06701631860447585</v>
+        <v>0.08931041318517233</v>
       </c>
       <c r="G21" t="n">
-        <v>0.029678522923969</v>
+        <v>0.04170340678542363</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>9</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1055062665.596524</v>
       </c>
     </row>
     <row r="22">
@@ -1170,28 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3560481463.919548</v>
+        <v>3155053422.399657</v>
       </c>
       <c r="F22" t="n">
-        <v>0.09204300979641997</v>
+        <v>0.1211142026297714</v>
       </c>
       <c r="G22" t="n">
-        <v>0.03557279863897487</v>
+        <v>0.03951470917164807</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>28</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1780240759.859792</v>
       </c>
     </row>
     <row r="23">
@@ -1204,28 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1545893465.039869</v>
+        <v>1206606378.604077</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1148961063514654</v>
+        <v>0.1375297259538815</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04548899934834443</v>
+        <v>0.03963626985297074</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>772946710.6544229</v>
       </c>
     </row>
     <row r="24">
@@ -1238,28 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2915084909.12251</v>
+        <v>3195940684.321885</v>
       </c>
       <c r="F24" t="n">
-        <v>0.09877317065662337</v>
+        <v>0.09731571505193173</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02750135665869453</v>
+        <v>0.02868175132867866</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>29</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1457542495.462808</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -1278,22 +1130,16 @@
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1346364771.99726</v>
+        <v>1393697365.985003</v>
       </c>
       <c r="F25" t="n">
-        <v>0.0989235033489247</v>
+        <v>0.1033018739395666</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02598131413142259</v>
+        <v>0.02670929502550577</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>673182370.2273376</v>
       </c>
     </row>
     <row r="26">
@@ -1306,28 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1080105670.534859</v>
+        <v>1239844071.533546</v>
       </c>
       <c r="F26" t="n">
-        <v>0.09040368990209315</v>
+        <v>0.1114171880124538</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03388992895997772</v>
+        <v>0.02612685574984615</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>540052826.858882</v>
       </c>
     </row>
     <row r="27">
@@ -1340,28 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4592175303.400017</v>
+        <v>4202693584.281518</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1425332044802574</v>
+        <v>0.1355220385279674</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02304096073254878</v>
+        <v>0.01887595849944625</v>
       </c>
       <c r="H27" t="b">
-        <v>1</v>
-      </c>
-      <c r="I27" t="n">
-        <v>22</v>
-      </c>
-      <c r="J27" t="n">
-        <v>2296087632.357955</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -1374,28 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3348374582.657924</v>
+        <v>3527481087.635013</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1202110277700862</v>
+        <v>0.1115913806386393</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03544732205334596</v>
+        <v>0.04318257266967911</v>
       </c>
       <c r="H28" t="b">
-        <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>32</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1674187332.727404</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -1408,28 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5677665130.805969</v>
+        <v>4155001305.819979</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1414501547051514</v>
+        <v>0.1337985094174175</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04199471320655748</v>
+        <v>0.03531746312062794</v>
       </c>
       <c r="H29" t="b">
         <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>45</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2838832465.893529</v>
       </c>
     </row>
     <row r="30">
@@ -1448,22 +1270,16 @@
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1523704150.002849</v>
+        <v>2090361874.012923</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1091053680788059</v>
+        <v>0.09339499210098264</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03526828613389831</v>
+        <v>0.02453909249516307</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>761852058.1267092</v>
       </c>
     </row>
     <row r="31">
@@ -1482,22 +1298,16 @@
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1209177354.216194</v>
+        <v>1374888709.490602</v>
       </c>
       <c r="F31" t="n">
-        <v>0.07866342889485538</v>
+        <v>0.09781860622105021</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04416232913422913</v>
+        <v>0.04262650761207788</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>604588626.3355591</v>
       </c>
     </row>
     <row r="32">
@@ -1516,22 +1326,16 @@
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1273433715.722421</v>
+        <v>1161981622.832758</v>
       </c>
       <c r="F32" t="n">
-        <v>0.09762382632559155</v>
+        <v>0.1205408863495381</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03762576811729033</v>
+        <v>0.02722111592816015</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>636716879.2344514</v>
       </c>
     </row>
     <row r="33">
@@ -1544,28 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2074482279.320056</v>
+        <v>1902471934.121116</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1885107215027691</v>
+        <v>0.132208951268965</v>
       </c>
       <c r="G33" t="n">
-        <v>0.0526905618060078</v>
+        <v>0.05354580772459555</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>28</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1037241214.038017</v>
       </c>
     </row>
     <row r="34">
@@ -1578,28 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1092447132.516786</v>
+        <v>1539267062.207022</v>
       </c>
       <c r="F34" t="n">
-        <v>0.08877688152999086</v>
+        <v>0.121689357341949</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02810395158105878</v>
+        <v>0.02135224306513554</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>546223588.8565298</v>
       </c>
     </row>
     <row r="35">
@@ -1618,22 +1410,16 @@
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>828127204.8674855</v>
+        <v>1207790754.152653</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1032301114305282</v>
+        <v>0.0870875139501352</v>
       </c>
       <c r="G35" t="n">
-        <v>0.029874154638843</v>
+        <v>0.03628710473616053</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>414063658.6382461</v>
       </c>
     </row>
     <row r="36">
@@ -1646,28 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>3000995395.686619</v>
+        <v>2932252729.851903</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1358585091710683</v>
+        <v>0.125756569166857</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02253234952691934</v>
+        <v>0.02640309347538363</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>26</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1500497679.608901</v>
       </c>
     </row>
     <row r="37">
@@ -1680,28 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2254894194.651406</v>
+        <v>1812217304.580805</v>
       </c>
       <c r="F37" t="n">
-        <v>0.09304994393591856</v>
+        <v>0.08873658363948268</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03001060977063859</v>
+        <v>0.02667829799364851</v>
       </c>
       <c r="H37" t="b">
-        <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>25</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1127447159.596622</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38">
@@ -1714,28 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1362530690.441272</v>
+        <v>2136213228.464072</v>
       </c>
       <c r="F38" t="n">
-        <v>0.08480191147338578</v>
+        <v>0.07408158513157174</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03469380240660361</v>
+        <v>0.03791707781978451</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>681265413.8193775</v>
       </c>
     </row>
     <row r="39">
@@ -1754,22 +1522,16 @@
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1494622625.604923</v>
+        <v>2026328936.042963</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1214340698545099</v>
+        <v>0.1522857527847699</v>
       </c>
       <c r="G39" t="n">
-        <v>0.03107994651885495</v>
+        <v>0.03180292377998711</v>
       </c>
       <c r="H39" t="b">
-        <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>747311383.9963448</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40">
@@ -1782,28 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1391957904.614766</v>
+        <v>1199201907.214739</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1349578674432985</v>
+        <v>0.1009196178697139</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04432423467098394</v>
+        <v>0.05268900199638843</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>695978945.5000557</v>
       </c>
     </row>
     <row r="41">
@@ -1822,22 +1578,16 @@
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2487952701.850095</v>
+        <v>2407745298.653695</v>
       </c>
       <c r="F41" t="n">
-        <v>0.159004776606948</v>
+        <v>0.1002297922034853</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04598921622884761</v>
+        <v>0.02908443899925866</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>24</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1243976377.313391</v>
       </c>
     </row>
     <row r="42">
@@ -1850,28 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>2787790711.175261</v>
+        <v>4116733057.502639</v>
       </c>
       <c r="F42" t="n">
-        <v>0.07915950025393657</v>
+        <v>0.09525818783454176</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04400304908394621</v>
+        <v>0.04131636761354931</v>
       </c>
       <c r="H42" t="b">
-        <v>1</v>
-      </c>
-      <c r="I42" t="n">
-        <v>33</v>
-      </c>
-      <c r="J42" t="n">
-        <v>1393895301.333829</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1884,28 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>1966582777.779399</v>
+        <v>2751349723.571876</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1850947452213089</v>
+        <v>0.1798520710462766</v>
       </c>
       <c r="G43" t="n">
-        <v>0.0232919600822377</v>
+        <v>0.0247574968587838</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>32</v>
-      </c>
-      <c r="J43" t="n">
-        <v>983291491.0967541</v>
       </c>
     </row>
     <row r="44">
@@ -1924,22 +1662,16 @@
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1594902351.317092</v>
+        <v>1546510962.702063</v>
       </c>
       <c r="F44" t="n">
-        <v>0.09735596687306793</v>
+        <v>0.06637303335905194</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02337018992123742</v>
+        <v>0.02400947272438865</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>797451201.0914407</v>
       </c>
     </row>
     <row r="45">
@@ -1958,22 +1690,16 @@
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1906786535.992574</v>
+        <v>2457774412.875091</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1243876535349427</v>
+        <v>0.1652834257732507</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04392256426168578</v>
+        <v>0.03770940869710664</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>953393249.3952944</v>
       </c>
     </row>
     <row r="46">
@@ -1986,28 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4960370576.373846</v>
+        <v>4322798823.214242</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1767079177972635</v>
+        <v>0.1409799166820812</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04088375910905695</v>
+        <v>0.05289761296473657</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>36</v>
-      </c>
-      <c r="J46" t="n">
-        <v>2480185312.646605</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -2020,28 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4332553279.16836</v>
+        <v>3483844622.901995</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1737192428997879</v>
+        <v>0.1525851167051916</v>
       </c>
       <c r="G47" t="n">
-        <v>0.055680226049466</v>
+        <v>0.03942525844262332</v>
       </c>
       <c r="H47" t="b">
         <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>27</v>
-      </c>
-      <c r="J47" t="n">
-        <v>2166276657.478708</v>
       </c>
     </row>
     <row r="48">
@@ -2060,22 +1774,16 @@
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3714456743.263422</v>
+        <v>2942311701.467069</v>
       </c>
       <c r="F48" t="n">
-        <v>0.07845518123151635</v>
+        <v>0.07679170650525047</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03571524201091369</v>
+        <v>0.03643264229232619</v>
       </c>
       <c r="H48" t="b">
         <v>1</v>
-      </c>
-      <c r="I48" t="n">
-        <v>35</v>
-      </c>
-      <c r="J48" t="n">
-        <v>1857228422.51013</v>
       </c>
     </row>
     <row r="49">
@@ -2088,28 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1734058292.685299</v>
+        <v>1834473571.495841</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1947937900021629</v>
+        <v>0.1380791347195939</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03198052501231567</v>
+        <v>0.03901453295522914</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>867029141.9038119</v>
       </c>
     </row>
     <row r="50">
@@ -2122,28 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>2649445394.181611</v>
+        <v>4210555410.509783</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1314373719941353</v>
+        <v>0.118221430083297</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03602944415146478</v>
+        <v>0.0523771424081234</v>
       </c>
       <c r="H50" t="b">
-        <v>1</v>
-      </c>
-      <c r="I50" t="n">
-        <v>34</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1324722781.811826</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -2162,22 +1858,16 @@
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1074623002.808088</v>
+        <v>1112788785.455555</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1234026406494395</v>
+        <v>0.1561925907063224</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03443043457199166</v>
+        <v>0.05421782150348067</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>537311573.2189907</v>
       </c>
     </row>
     <row r="52">
@@ -2190,28 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4015769803.55659</v>
+        <v>5111314610.835955</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1376396088997819</v>
+        <v>0.09438139024169646</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04508125306147173</v>
+        <v>0.05224461249619554</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>42</v>
-      </c>
-      <c r="J52" t="n">
-        <v>2007884957.263023</v>
       </c>
     </row>
     <row r="53">
@@ -2230,22 +1914,16 @@
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3678798087.688557</v>
+        <v>3594770278.634009</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1809788251643751</v>
+        <v>0.1562221819407075</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02955955314058741</v>
+        <v>0.03116866581161436</v>
       </c>
       <c r="H53" t="b">
-        <v>1</v>
-      </c>
-      <c r="I53" t="n">
-        <v>28</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1839399029.304343</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -2264,22 +1942,16 @@
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4714488858.565747</v>
+        <v>4011290582.661942</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1542431049292527</v>
+        <v>0.1117942127658289</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03805177101396549</v>
+        <v>0.0360290452292976</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>35</v>
-      </c>
-      <c r="J54" t="n">
-        <v>2357244549.37457</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -2292,28 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4933658478.259859</v>
+        <v>4957791461.202779</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2008909839417064</v>
+        <v>0.1860911459770193</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02088963489480523</v>
+        <v>0.03074547574226498</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>27</v>
-      </c>
-      <c r="J55" t="n">
-        <v>2466829255.184532</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -2326,28 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1478065124.629454</v>
+        <v>1784035780.315408</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1344271536412728</v>
+        <v>0.1537419426403566</v>
       </c>
       <c r="G56" t="n">
-        <v>0.0493787699529154</v>
+        <v>0.0553501409443739</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>739032607.7682077</v>
       </c>
     </row>
     <row r="57">
@@ -2360,28 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3314941122.371314</v>
+        <v>3554838493.683282</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1261699412953067</v>
+        <v>0.12224898534612</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02750819818301304</v>
+        <v>0.01996133019035987</v>
       </c>
       <c r="H57" t="b">
-        <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>32</v>
-      </c>
-      <c r="J57" t="n">
-        <v>1657470591.973725</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58">
@@ -2394,28 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1434021787.112101</v>
+        <v>1608907095.871252</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1483808710815772</v>
+        <v>0.158169951649264</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03210443147309883</v>
+        <v>0.02820778703455011</v>
       </c>
       <c r="H58" t="b">
-        <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>717010930.6525772</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59">
@@ -2428,28 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3684097997.53827</v>
+        <v>4604337435.508621</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1145086221052508</v>
+        <v>0.08866493327355243</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04964897996831933</v>
+        <v>0.04403174313132485</v>
       </c>
       <c r="H59" t="b">
-        <v>1</v>
-      </c>
-      <c r="I59" t="n">
-        <v>29</v>
-      </c>
-      <c r="J59" t="n">
-        <v>1842048989.895859</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -2468,22 +2110,16 @@
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2526507529.893143</v>
+        <v>3675294770.551582</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1717931913326104</v>
+        <v>0.1363453638440083</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02772255926676183</v>
+        <v>0.0269515417411041</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>33</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1263253785.573228</v>
       </c>
     </row>
     <row r="61">
@@ -2502,22 +2138,16 @@
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3168689004.028101</v>
+        <v>3196639314.458269</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1530769899841937</v>
+        <v>0.1376029429069645</v>
       </c>
       <c r="G61" t="n">
-        <v>0.03151310315858605</v>
+        <v>0.02156885196940441</v>
       </c>
       <c r="H61" t="b">
-        <v>1</v>
-      </c>
-      <c r="I61" t="n">
-        <v>34</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1584344466.511788</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -2530,28 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1726189080.275075</v>
+        <v>1766167045.964137</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1900068589101196</v>
+        <v>0.1377199848097234</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03585868929342393</v>
+        <v>0.04533358554286485</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>863094557.0752808</v>
       </c>
     </row>
     <row r="63">
@@ -2564,28 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>5448276857.435495</v>
+        <v>5103926423.539535</v>
       </c>
       <c r="F63" t="n">
-        <v>0.08085956343773081</v>
+        <v>0.09033606647904571</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04267581611504601</v>
+        <v>0.03122309122852826</v>
       </c>
       <c r="H63" t="b">
         <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>29</v>
-      </c>
-      <c r="J63" t="n">
-        <v>2724138426.405128</v>
       </c>
     </row>
     <row r="64">
@@ -2598,28 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4542129606.670889</v>
+        <v>5216300436.196976</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1736172475582889</v>
+        <v>0.181243842080678</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02185230459111451</v>
+        <v>0.0279730118467971</v>
       </c>
       <c r="H64" t="b">
-        <v>1</v>
-      </c>
-      <c r="I64" t="n">
-        <v>31</v>
-      </c>
-      <c r="J64" t="n">
-        <v>2271064877.260189</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -2632,28 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4750760044.78238</v>
+        <v>4734962470.09642</v>
       </c>
       <c r="F65" t="n">
-        <v>0.168531091681071</v>
+        <v>0.1122058568483352</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02233693089038196</v>
+        <v>0.03184809324457087</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>36</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2375379996.108547</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2666,28 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5346407192.499845</v>
+        <v>5201894218.406549</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1402918715662858</v>
+        <v>0.0980616284054763</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04096115785636122</v>
+        <v>0.03467481055207387</v>
       </c>
       <c r="H66" t="b">
-        <v>1</v>
-      </c>
-      <c r="I66" t="n">
-        <v>29</v>
-      </c>
-      <c r="J66" t="n">
-        <v>2673203641.892025</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
@@ -2700,28 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2544348860.590019</v>
+        <v>3130919337.273637</v>
       </c>
       <c r="F67" t="n">
-        <v>0.07316704355187394</v>
+        <v>0.1018979091471134</v>
       </c>
       <c r="G67" t="n">
-        <v>0.05117656209422092</v>
+        <v>0.03993194753954927</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>32</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1272174487.028973</v>
       </c>
     </row>
     <row r="68">
@@ -2734,28 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4152551049.308905</v>
+        <v>4956872433.81104</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1317321329164543</v>
+        <v>0.1550092109577033</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04062348861927076</v>
+        <v>0.04234732433988737</v>
       </c>
       <c r="H68" t="b">
         <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>32</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2076275529.634907</v>
       </c>
     </row>
     <row r="69">
@@ -2768,28 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2454041550.532777</v>
+        <v>1768814760.195405</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1637142241845198</v>
+        <v>0.1405222847617877</v>
       </c>
       <c r="G69" t="n">
-        <v>0.03693747131392246</v>
+        <v>0.05866652884124667</v>
       </c>
       <c r="H69" t="b">
-        <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>1227020838.844913</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70">
@@ -2802,28 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3126692945.896418</v>
+        <v>2672677835.900598</v>
       </c>
       <c r="F70" t="n">
-        <v>0.0830851716405855</v>
+        <v>0.09443963638133947</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03877892056725383</v>
+        <v>0.03351188725364829</v>
       </c>
       <c r="H70" t="b">
         <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>29</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1563346458.163294</v>
       </c>
     </row>
     <row r="71">
@@ -2842,22 +2418,16 @@
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4835804582.444754</v>
+        <v>5269167387.19181</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1543240154680987</v>
+        <v>0.1140874272266541</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02512246374608383</v>
+        <v>0.02803959539602043</v>
       </c>
       <c r="H71" t="b">
         <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>37</v>
-      </c>
-      <c r="J71" t="n">
-        <v>2417902384.583705</v>
       </c>
     </row>
     <row r="72">
@@ -2870,28 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2137989791.377462</v>
+        <v>1552947714.851007</v>
       </c>
       <c r="F72" t="n">
-        <v>0.08346149206180965</v>
+        <v>0.0921434133844608</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03391441489217755</v>
+        <v>0.0486705451956175</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>1068994819.703057</v>
       </c>
     </row>
     <row r="73">
@@ -2904,28 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3086489975.739919</v>
+        <v>2382928798.487614</v>
       </c>
       <c r="F73" t="n">
-        <v>0.07122405553122459</v>
+        <v>0.09127904723135244</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03224223128677988</v>
+        <v>0.03312188189390539</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>39</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1543244975.851214</v>
       </c>
     </row>
     <row r="74">
@@ -2938,28 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2790083476.62848</v>
+        <v>3119999565.817456</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1507279464988619</v>
+        <v>0.1310617904244478</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02376313829818028</v>
+        <v>0.02711454137818246</v>
       </c>
       <c r="H74" t="b">
-        <v>1</v>
-      </c>
-      <c r="I74" t="n">
-        <v>34</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1395041821.795817</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -2978,22 +2530,16 @@
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1766493005.728717</v>
+        <v>1910402380.335695</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1024568397605655</v>
+        <v>0.1329831306554104</v>
       </c>
       <c r="G75" t="n">
-        <v>0.0294274281720087</v>
+        <v>0.03729335345773893</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>883246488.9275708</v>
       </c>
     </row>
     <row r="76">
@@ -3006,28 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4171182658.916883</v>
+        <v>4400590816.721383</v>
       </c>
       <c r="F76" t="n">
-        <v>0.08815260928458993</v>
+        <v>0.106264497777869</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03225483292468356</v>
+        <v>0.02370141296218673</v>
       </c>
       <c r="H76" t="b">
         <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>22</v>
-      </c>
-      <c r="J76" t="n">
-        <v>2085591321.256033</v>
       </c>
     </row>
     <row r="77">
@@ -3046,22 +2586,16 @@
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1718246981.402621</v>
+        <v>2134737086.060088</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1359096516430908</v>
+        <v>0.1464346061010568</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02194616170142637</v>
+        <v>0.02788675259050767</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>859123510.574334</v>
       </c>
     </row>
     <row r="78">
@@ -3074,28 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4446357740.300551</v>
+        <v>3905846663.849105</v>
       </c>
       <c r="F78" t="n">
-        <v>0.09749117582796138</v>
+        <v>0.08943538822721933</v>
       </c>
       <c r="G78" t="n">
-        <v>0.03623550601973557</v>
+        <v>0.04053163018679954</v>
       </c>
       <c r="H78" t="b">
         <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>35</v>
-      </c>
-      <c r="J78" t="n">
-        <v>2223178803.871639</v>
       </c>
     </row>
     <row r="79">
@@ -3108,28 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1507674114.424253</v>
+        <v>1687731419.931758</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1197369068194545</v>
+        <v>0.1619754429433151</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02587627398607997</v>
+        <v>0.02599475558875919</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>753837092.7039076</v>
       </c>
     </row>
     <row r="80">
@@ -3148,22 +2670,16 @@
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4296835480.633787</v>
+        <v>3591876290.73177</v>
       </c>
       <c r="F80" t="n">
-        <v>0.06920599664435839</v>
+        <v>0.1019309995592888</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03058664729719007</v>
+        <v>0.02734232958937652</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>21</v>
-      </c>
-      <c r="J80" t="n">
-        <v>2148417754.479159</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -3176,28 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4646758592.339092</v>
+        <v>4825669641.090378</v>
       </c>
       <c r="F81" t="n">
-        <v>0.124837305225156</v>
+        <v>0.1298826353626537</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02188698753222528</v>
+        <v>0.02768868941673945</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>24</v>
-      </c>
-      <c r="J81" t="n">
-        <v>2323379283.346829</v>
       </c>
     </row>
     <row r="82">
@@ -3216,22 +2726,16 @@
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>3780697133.256433</v>
+        <v>5405558902.945964</v>
       </c>
       <c r="F82" t="n">
-        <v>0.2023715009934609</v>
+        <v>0.1981497265335315</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02255478998059914</v>
+        <v>0.0248162130500459</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>39</v>
-      </c>
-      <c r="J82" t="n">
-        <v>1890348618.573123</v>
       </c>
     </row>
     <row r="83">
@@ -3250,22 +2754,16 @@
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2188612569.839855</v>
+        <v>2073951421.630261</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1237061193826574</v>
+        <v>0.123891379585137</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03814592589144501</v>
+        <v>0.03285394141709226</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
-      <c r="J83" t="n">
-        <v>1094306293.673877</v>
       </c>
     </row>
     <row r="84">
@@ -3278,28 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2274239679.682918</v>
+        <v>1714218040.185926</v>
       </c>
       <c r="F84" t="n">
-        <v>0.09834121797664755</v>
+        <v>0.0768688645528825</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04896778833798683</v>
+        <v>0.04634895625229037</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>1</v>
-      </c>
-      <c r="J84" t="n">
-        <v>1137119804.603057</v>
       </c>
     </row>
     <row r="85">
@@ -3312,28 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2282390422.321252</v>
+        <v>3262169760.203456</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1365556596479936</v>
+        <v>0.1626236164668181</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04347397697621796</v>
+        <v>0.04307325474682385</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>36</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1141195192.022735</v>
       </c>
     </row>
     <row r="86">
@@ -3346,28 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2028652872.5103</v>
+        <v>2545025602.535506</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1699222667004086</v>
+        <v>0.1662271581904867</v>
       </c>
       <c r="G86" t="n">
-        <v>0.0182590073242765</v>
+        <v>0.02465992146935143</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>9</v>
-      </c>
-      <c r="J86" t="n">
-        <v>1014326467.806604</v>
       </c>
     </row>
     <row r="87">
@@ -3380,28 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1126423281.121844</v>
+        <v>1065202736.228322</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1876443785554289</v>
+        <v>0.118225223229161</v>
       </c>
       <c r="G87" t="n">
-        <v>0.04106352886813024</v>
+        <v>0.03177308008875911</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>563211677.2152947</v>
       </c>
     </row>
     <row r="88">
@@ -3420,22 +2894,16 @@
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2581539263.208878</v>
+        <v>2556681515.116763</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1690082967557174</v>
+        <v>0.1584600415571225</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03380320318750654</v>
+        <v>0.03082374820066149</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
-      </c>
-      <c r="I88" t="n">
-        <v>40</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1290769620.630198</v>
       </c>
     </row>
     <row r="89">
@@ -3448,28 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3464620666.590072</v>
+        <v>2508395625.886302</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1475591518217012</v>
+        <v>0.1544395552571378</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02661028868393899</v>
+        <v>0.0288119298221956</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>34</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1732310337.275004</v>
       </c>
     </row>
     <row r="90">
@@ -3482,28 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>2106663331.601302</v>
+        <v>1893469980.370547</v>
       </c>
       <c r="F90" t="n">
-        <v>0.09699516808908182</v>
+        <v>0.09930669733939906</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04156642612650395</v>
+        <v>0.05364996442595328</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>1053331755.494534</v>
       </c>
     </row>
     <row r="91">
@@ -3516,28 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1377375538.607659</v>
+        <v>2086567504.837282</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1400232162171163</v>
+        <v>0.1659110145433551</v>
       </c>
       <c r="G91" t="n">
-        <v>0.03879900453571717</v>
+        <v>0.05587646304642849</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>688687824.479822</v>
       </c>
     </row>
     <row r="92">
@@ -3550,28 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2588511833.940243</v>
+        <v>2113376255.842862</v>
       </c>
       <c r="F92" t="n">
-        <v>0.08666120380806241</v>
+        <v>0.07694697758412722</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03213758529777867</v>
+        <v>0.03759805096153788</v>
       </c>
       <c r="H92" t="b">
         <v>1</v>
-      </c>
-      <c r="I92" t="n">
-        <v>20</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1294255907.541234</v>
       </c>
     </row>
     <row r="93">
@@ -3584,28 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4503204822.318931</v>
+        <v>3694496659.015499</v>
       </c>
       <c r="F93" t="n">
-        <v>0.09518321871602316</v>
+        <v>0.09361780352842848</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03477680105914591</v>
+        <v>0.03398835387172856</v>
       </c>
       <c r="H93" t="b">
         <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>30</v>
-      </c>
-      <c r="J93" t="n">
-        <v>2251602379.184247</v>
       </c>
     </row>
     <row r="94">
@@ -3618,28 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1896641221.713378</v>
+        <v>1704378676.207259</v>
       </c>
       <c r="F94" t="n">
-        <v>0.146222489294646</v>
+        <v>0.1505630964291768</v>
       </c>
       <c r="G94" t="n">
-        <v>0.02997857018974435</v>
+        <v>0.03074779306289517</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="n">
-        <v>948320595.7432097</v>
       </c>
     </row>
     <row r="95">
@@ -3652,28 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2022048444.245473</v>
+        <v>2609390620.245257</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1230461944615286</v>
+        <v>0.1199628823786938</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04450391862251799</v>
+        <v>0.04319836898248482</v>
       </c>
       <c r="H95" t="b">
-        <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>24</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1011024292.926928</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96">
@@ -3692,22 +3118,16 @@
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1651413824.472545</v>
+        <v>1623021431.316148</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1053306707018454</v>
+        <v>0.1003537216433133</v>
       </c>
       <c r="G96" t="n">
-        <v>0.041154734602807</v>
+        <v>0.04049041641240041</v>
       </c>
       <c r="H96" t="b">
-        <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>825706936.3740757</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97">
@@ -3720,28 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3737357699.727519</v>
+        <v>4663917560.98376</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1301769979098707</v>
+        <v>0.1279323881525813</v>
       </c>
       <c r="G97" t="n">
-        <v>0.01768062228900858</v>
+        <v>0.02129130188467731</v>
       </c>
       <c r="H97" t="b">
         <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>33</v>
-      </c>
-      <c r="J97" t="n">
-        <v>1868678885.046772</v>
       </c>
     </row>
     <row r="98">
@@ -3754,28 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2962218104.570079</v>
+        <v>3840743334.930165</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1299058506980776</v>
+        <v>0.09165944607544428</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02247694272113007</v>
+        <v>0.02272700024316709</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>27</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1481109034.350533</v>
       </c>
     </row>
     <row r="99">
@@ -3794,22 +3202,16 @@
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3253328702.834146</v>
+        <v>2676362296.54433</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1066464584169067</v>
+        <v>0.1222696205847909</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02144329560384023</v>
+        <v>0.0336973581320307</v>
       </c>
       <c r="H99" t="b">
-        <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>32</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1626664355.694174</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100">
@@ -3822,28 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4425258668.312953</v>
+        <v>4779517425.654312</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1166751841623999</v>
+        <v>0.1198978278516417</v>
       </c>
       <c r="G100" t="n">
-        <v>0.0230881762079276</v>
+        <v>0.02408417388935932</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>31</v>
-      </c>
-      <c r="J100" t="n">
-        <v>2212629438.703869</v>
       </c>
     </row>
     <row r="101">
@@ -3862,22 +3258,16 @@
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3367102009.531937</v>
+        <v>3030225376.143951</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1396978546248968</v>
+        <v>0.1664410055434684</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05680670251452888</v>
+        <v>0.04258719600102649</v>
       </c>
       <c r="H101" t="b">
-        <v>1</v>
-      </c>
-      <c r="I101" t="n">
-        <v>42</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1683551142.251012</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_100.xlsx
+++ b/output/fit_clients/fit_round_100.xlsx
@@ -480,19 +480,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2091775806.788141</v>
+        <v>2464687338.575039</v>
       </c>
       <c r="F2" t="n">
-        <v>0.09046201950094797</v>
+        <v>0.0908259787859689</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04277161026691714</v>
+        <v>0.03246114876474815</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -508,22 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2009556252.354353</v>
+        <v>2149516947.178508</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1419472486165079</v>
+        <v>0.12671718113089</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04408051440249551</v>
+        <v>0.03045354871934261</v>
       </c>
       <c r="H3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -536,19 +536,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3368079865.364101</v>
+        <v>4470154167.002923</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1286947728715943</v>
+        <v>0.1203724701982272</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02326847321710065</v>
+        <v>0.03724600519237914</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -564,19 +564,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>4125492275.741315</v>
+        <v>2921146026.931612</v>
       </c>
       <c r="F5" t="n">
-        <v>0.09952529357263702</v>
+        <v>0.0822754840551182</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04467578762299812</v>
+        <v>0.04305280093037366</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -598,16 +598,16 @@
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2244137454.953475</v>
+        <v>2124650195.229777</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1471992964625072</v>
+        <v>0.1122674866751922</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03753379949547849</v>
+        <v>0.0376220262440176</v>
       </c>
       <c r="H6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -620,19 +620,19 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2358582744.050918</v>
+        <v>2154667934.814827</v>
       </c>
       <c r="F7" t="n">
-        <v>0.08497410999010074</v>
+        <v>0.09090357668214452</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04426133062727249</v>
+        <v>0.03403400348323624</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -648,19 +648,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3537626176.215815</v>
+        <v>3421710268.716667</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2105365621832677</v>
+        <v>0.2086267457070036</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03354137465198746</v>
+        <v>0.03107798230853339</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -676,19 +676,19 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2071879079.048363</v>
+        <v>2078400182.155218</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1489455268757505</v>
+        <v>0.1902143901890047</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02607779823102859</v>
+        <v>0.03386050227146251</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -710,16 +710,16 @@
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4180320919.368121</v>
+        <v>4611388134.891263</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1344916826314559</v>
+        <v>0.1656024722026947</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03655481599118098</v>
+        <v>0.04808263658497389</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -732,19 +732,19 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>2891642976.638484</v>
+        <v>3099559632.334126</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1700221963953474</v>
+        <v>0.1524137719582365</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03048812823938717</v>
+        <v>0.03138458376187983</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -760,19 +760,19 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2313595657.836839</v>
+        <v>2132190906.197734</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1557368796275491</v>
+        <v>0.1915456968470293</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04041159507725239</v>
+        <v>0.04592070968057445</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -794,16 +794,16 @@
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3992422819.745688</v>
+        <v>4941340466.736024</v>
       </c>
       <c r="F13" t="n">
-        <v>0.06387140059638348</v>
+        <v>0.06127465373559314</v>
       </c>
       <c r="G13" t="n">
-        <v>0.01939134015737323</v>
+        <v>0.02536259554993432</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3651296012.444034</v>
+        <v>2388927400.950214</v>
       </c>
       <c r="F14" t="n">
-        <v>0.181173394247329</v>
+        <v>0.1811101203670031</v>
       </c>
       <c r="G14" t="n">
-        <v>0.04423182579925599</v>
+        <v>0.03942646837653022</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
@@ -844,22 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1246264443.684171</v>
+        <v>1362845995.374786</v>
       </c>
       <c r="F15" t="n">
-        <v>0.09940895171451933</v>
+        <v>0.1075763555103596</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03499291190880709</v>
+        <v>0.031640480106716</v>
       </c>
       <c r="H15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -872,19 +872,19 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2591627657.041265</v>
+        <v>2354989464.766028</v>
       </c>
       <c r="F16" t="n">
-        <v>0.07080478047226416</v>
+        <v>0.09455496312655308</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04185295839686511</v>
+        <v>0.04910804736875745</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -900,22 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>5288930959.094569</v>
+        <v>3601940898.68</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1312026407461078</v>
+        <v>0.1402328699694018</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04480624921463338</v>
+        <v>0.0374625844329874</v>
       </c>
       <c r="H17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -928,19 +928,19 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3978345877.22851</v>
+        <v>2941151118.215621</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1328424802450822</v>
+        <v>0.1714089924135576</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02842218217357271</v>
+        <v>0.02848814166750935</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -956,19 +956,19 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>896971298.2560216</v>
+        <v>1064771344.105468</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1397079616158884</v>
+        <v>0.1294416514409073</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02573796325473024</v>
+        <v>0.02221348976884325</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -984,19 +984,19 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2511781950.65679</v>
+        <v>2672826771.346419</v>
       </c>
       <c r="F20" t="n">
-        <v>0.09860274757910927</v>
+        <v>0.1238381391757534</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02519741457304551</v>
+        <v>0.02759871523019592</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1665689050.070964</v>
+        <v>2208920481.411351</v>
       </c>
       <c r="F21" t="n">
-        <v>0.08931041318517233</v>
+        <v>0.08202037408900015</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04170340678542363</v>
+        <v>0.03378899847058964</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
@@ -1040,19 +1040,19 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3155053422.399657</v>
+        <v>3955952794.561736</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1211142026297714</v>
+        <v>0.1225895247711076</v>
       </c>
       <c r="G22" t="n">
-        <v>0.03951470917164807</v>
+        <v>0.04784993155222159</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
@@ -1068,19 +1068,19 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1206606378.604077</v>
+        <v>1506331517.903517</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1375297259538815</v>
+        <v>0.1788906688796363</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03963626985297074</v>
+        <v>0.04777161077876916</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1096,22 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3195940684.321885</v>
+        <v>3741916309.827983</v>
       </c>
       <c r="F24" t="n">
-        <v>0.09731571505193173</v>
+        <v>0.1255804116898427</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02868175132867866</v>
+        <v>0.02564854704900642</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1130,13 +1130,13 @@
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1393697365.985003</v>
+        <v>1343244247.594476</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1033018739395666</v>
+        <v>0.08471427170465223</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02670929502550577</v>
+        <v>0.02496148974107737</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -1158,13 +1158,13 @@
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1239844071.533546</v>
+        <v>1259901966.928405</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1114171880124538</v>
+        <v>0.10722771341938</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02612685574984615</v>
+        <v>0.02648334855625425</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
@@ -1180,22 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4202693584.281518</v>
+        <v>3702264563.647203</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1355220385279674</v>
+        <v>0.1505708422305111</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01887595849944625</v>
+        <v>0.02717419507958994</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1214,13 +1214,13 @@
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3527481087.635013</v>
+        <v>3144561133.228987</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1115913806386393</v>
+        <v>0.1211288847719856</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04318257266967911</v>
+        <v>0.04473839739218395</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -1236,22 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4155001305.819979</v>
+        <v>4110568156.393505</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1337985094174175</v>
+        <v>0.09769687239571502</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03531746312062794</v>
+        <v>0.03706485983594186</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1264,19 +1264,19 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2090361874.012923</v>
+        <v>1663764294.063139</v>
       </c>
       <c r="F30" t="n">
-        <v>0.09339499210098264</v>
+        <v>0.1186596662500916</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02453909249516307</v>
+        <v>0.02436607738621829</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
@@ -1292,19 +1292,19 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1374888709.490602</v>
+        <v>1059822847.779382</v>
       </c>
       <c r="F31" t="n">
-        <v>0.09781860622105021</v>
+        <v>0.0863396688125723</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04262650761207788</v>
+        <v>0.0337669265782382</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
@@ -1320,19 +1320,19 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1161981622.832758</v>
+        <v>1384072079.162083</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1205408863495381</v>
+        <v>0.09722989198572708</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02722111592816015</v>
+        <v>0.02332925425381504</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -1348,19 +1348,19 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>1902471934.121116</v>
+        <v>2386332961.17272</v>
       </c>
       <c r="F33" t="n">
-        <v>0.132208951268965</v>
+        <v>0.1512434718351587</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05354580772459555</v>
+        <v>0.03705432411183535</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
@@ -1376,19 +1376,19 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1539267062.207022</v>
+        <v>1393696994.884368</v>
       </c>
       <c r="F34" t="n">
-        <v>0.121689357341949</v>
+        <v>0.08585298483009864</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02135224306513554</v>
+        <v>0.02392685968265284</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -1404,19 +1404,19 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1207790754.152653</v>
+        <v>1105828347.923551</v>
       </c>
       <c r="F35" t="n">
-        <v>0.0870875139501352</v>
+        <v>0.07251693284200972</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03628710473616053</v>
+        <v>0.02780396119767904</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -1432,19 +1432,19 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2932252729.851903</v>
+        <v>3201634537.114731</v>
       </c>
       <c r="F36" t="n">
-        <v>0.125756569166857</v>
+        <v>0.1738162020233165</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02640309347538363</v>
+        <v>0.02524375199301684</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -1460,22 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>1812217304.580805</v>
+        <v>2937763350.467752</v>
       </c>
       <c r="F37" t="n">
-        <v>0.08873658363948268</v>
+        <v>0.08919730793888871</v>
       </c>
       <c r="G37" t="n">
-        <v>0.02667829799364851</v>
+        <v>0.03112944341376169</v>
       </c>
       <c r="H37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1488,19 +1488,19 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>2136213228.464072</v>
+        <v>1875566356.306563</v>
       </c>
       <c r="F38" t="n">
-        <v>0.07408158513157174</v>
+        <v>0.08924084369955203</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03791707781978451</v>
+        <v>0.03514817818145619</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -1516,22 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>2026328936.042963</v>
+        <v>1548279255.630583</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1522857527847699</v>
+        <v>0.1717289581205893</v>
       </c>
       <c r="G39" t="n">
-        <v>0.03180292377998711</v>
+        <v>0.02149300492129633</v>
       </c>
       <c r="H39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -1544,19 +1544,19 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1199201907.214739</v>
+        <v>1350123180.187861</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1009196178697139</v>
+        <v>0.1359632315276244</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05268900199638843</v>
+        <v>0.04276835847308292</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
@@ -1578,13 +1578,13 @@
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2407745298.653695</v>
+        <v>2840770242.942619</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1002297922034853</v>
+        <v>0.1344189276914072</v>
       </c>
       <c r="G41" t="n">
-        <v>0.02908443899925866</v>
+        <v>0.03177810642000575</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
@@ -1600,19 +1600,19 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>4116733057.502639</v>
+        <v>4010864104.553298</v>
       </c>
       <c r="F42" t="n">
-        <v>0.09525818783454176</v>
+        <v>0.08947541439749389</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04131636761354931</v>
+        <v>0.04630297987282524</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
@@ -1628,19 +1628,19 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2751349723.571876</v>
+        <v>2666559569.86455</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1798520710462766</v>
+        <v>0.1578438798747852</v>
       </c>
       <c r="G43" t="n">
-        <v>0.0247574968587838</v>
+        <v>0.01851244964008463</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -1662,13 +1662,13 @@
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1546510962.702063</v>
+        <v>2026403343.457941</v>
       </c>
       <c r="F44" t="n">
-        <v>0.06637303335905194</v>
+        <v>0.09297238995495961</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02400947272438865</v>
+        <v>0.03356856373531419</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -1690,13 +1690,13 @@
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2457774412.875091</v>
+        <v>2374148697.896292</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1652834257732507</v>
+        <v>0.1574582453390284</v>
       </c>
       <c r="G45" t="n">
-        <v>0.03770940869710664</v>
+        <v>0.05107200088461294</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
@@ -1718,13 +1718,13 @@
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4322798823.214242</v>
+        <v>5623206579.461524</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1409799166820812</v>
+        <v>0.1394584968987837</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05289761296473657</v>
+        <v>0.0553943941769897</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
@@ -1740,22 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3483844622.901995</v>
+        <v>3814121809.440347</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1525851167051916</v>
+        <v>0.1261992962480895</v>
       </c>
       <c r="G47" t="n">
-        <v>0.03942525844262332</v>
+        <v>0.04359089922276598</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1768,22 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>2942311701.467069</v>
+        <v>4027597387.586815</v>
       </c>
       <c r="F48" t="n">
-        <v>0.07679170650525047</v>
+        <v>0.06697806373272584</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03643264229232619</v>
+        <v>0.03086171934446452</v>
       </c>
       <c r="H48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -1796,19 +1796,19 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1834473571.495841</v>
+        <v>1455805059.651185</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1380791347195939</v>
+        <v>0.1534099201400176</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03901453295522914</v>
+        <v>0.0308275879908728</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
@@ -1824,19 +1824,19 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>4210555410.509783</v>
+        <v>3850877721.963119</v>
       </c>
       <c r="F50" t="n">
-        <v>0.118221430083297</v>
+        <v>0.1360744646125734</v>
       </c>
       <c r="G50" t="n">
-        <v>0.0523771424081234</v>
+        <v>0.03384656297600112</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
@@ -1852,19 +1852,19 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1112788785.455555</v>
+        <v>1432077547.016933</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1561925907063224</v>
+        <v>0.1949051539682348</v>
       </c>
       <c r="G51" t="n">
-        <v>0.05421782150348067</v>
+        <v>0.04152254064710584</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
@@ -1886,13 +1886,13 @@
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>5111314610.835955</v>
+        <v>3683857622.452833</v>
       </c>
       <c r="F52" t="n">
-        <v>0.09438139024169646</v>
+        <v>0.09658044782453876</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05224461249619554</v>
+        <v>0.05268859466242309</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
@@ -1908,19 +1908,19 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3594770278.634009</v>
+        <v>3585551052.861534</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1562221819407075</v>
+        <v>0.1413209072684985</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03116866581161436</v>
+        <v>0.0310672802899327</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -1936,19 +1936,19 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4011290582.661942</v>
+        <v>3607562658.980634</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1117942127658289</v>
+        <v>0.1329109268608092</v>
       </c>
       <c r="G54" t="n">
-        <v>0.0360290452292976</v>
+        <v>0.04742949115134536</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
@@ -1964,19 +1964,19 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4957791461.202779</v>
+        <v>4066608619.117377</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1860911459770193</v>
+        <v>0.1936151354839512</v>
       </c>
       <c r="G55" t="n">
-        <v>0.03074547574226498</v>
+        <v>0.02066396145972021</v>
       </c>
       <c r="H55" t="b">
         <v>1</v>
@@ -1998,13 +1998,13 @@
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1784035780.315408</v>
+        <v>1592818893.054646</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1537419426403566</v>
+        <v>0.1282238469370479</v>
       </c>
       <c r="G56" t="n">
-        <v>0.0553501409443739</v>
+        <v>0.048441138601214</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -2026,16 +2026,16 @@
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3554838493.683282</v>
+        <v>3638169161.479147</v>
       </c>
       <c r="F57" t="n">
-        <v>0.12224898534612</v>
+        <v>0.1516391211967592</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01996133019035987</v>
+        <v>0.02725468909194103</v>
       </c>
       <c r="H57" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -2054,16 +2054,16 @@
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1608907095.871252</v>
+        <v>1623139763.140227</v>
       </c>
       <c r="F58" t="n">
-        <v>0.158169951649264</v>
+        <v>0.187961364973146</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02820778703455011</v>
+        <v>0.03495802613416391</v>
       </c>
       <c r="H58" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59">
@@ -2082,13 +2082,13 @@
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4604337435.508621</v>
+        <v>4937594621.700809</v>
       </c>
       <c r="F59" t="n">
-        <v>0.08866493327355243</v>
+        <v>0.09361307573054997</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04403174313132485</v>
+        <v>0.04249987676173722</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
@@ -2104,19 +2104,19 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3675294770.551582</v>
+        <v>3060501603.897227</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1363453638440083</v>
+        <v>0.1919676189681728</v>
       </c>
       <c r="G60" t="n">
-        <v>0.0269515417411041</v>
+        <v>0.02352439278370728</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -2132,19 +2132,19 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3196639314.458269</v>
+        <v>2689937672.024543</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1376029429069645</v>
+        <v>0.1136120300705899</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02156885196940441</v>
+        <v>0.02227314433164888</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -2160,19 +2160,19 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1766167045.964137</v>
+        <v>1632960736.529133</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1377199848097234</v>
+        <v>0.1562169737218459</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04533358554286485</v>
+        <v>0.04565808833732061</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -2188,22 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>5103926423.539535</v>
+        <v>5292246425.255327</v>
       </c>
       <c r="F63" t="n">
-        <v>0.09033606647904571</v>
+        <v>0.08594594992710765</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03122309122852826</v>
+        <v>0.04184021278941602</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>5216300436.196976</v>
+        <v>3658280288.468791</v>
       </c>
       <c r="F64" t="n">
-        <v>0.181243842080678</v>
+        <v>0.1854319155707567</v>
       </c>
       <c r="G64" t="n">
-        <v>0.0279730118467971</v>
+        <v>0.02571501670849912</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2244,19 +2244,19 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4734962470.09642</v>
+        <v>5628882393.660345</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1122058568483352</v>
+        <v>0.1644815619282864</v>
       </c>
       <c r="G65" t="n">
-        <v>0.03184809324457087</v>
+        <v>0.0228634020859003</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
@@ -2278,16 +2278,16 @@
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5201894218.406549</v>
+        <v>3749406111.088656</v>
       </c>
       <c r="F66" t="n">
-        <v>0.0980616284054763</v>
+        <v>0.1556390262591776</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03467481055207387</v>
+        <v>0.04562492960210929</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2306,13 +2306,13 @@
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3130919337.273637</v>
+        <v>2546749660.584845</v>
       </c>
       <c r="F67" t="n">
-        <v>0.1018979091471134</v>
+        <v>0.1022428314867446</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03993194753954927</v>
+        <v>0.04854985060004653</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
@@ -2334,16 +2334,16 @@
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4956872433.81104</v>
+        <v>5575576422.342804</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1550092109577033</v>
+        <v>0.1189371263321883</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04234732433988737</v>
+        <v>0.03223835233464836</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2356,22 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1768814760.195405</v>
+        <v>2165574687.778915</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1405222847617877</v>
+        <v>0.1538535481329219</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05866652884124667</v>
+        <v>0.04027200876259771</v>
       </c>
       <c r="H69" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70">
@@ -2384,22 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2672677835.900598</v>
+        <v>2401152294.468052</v>
       </c>
       <c r="F70" t="n">
-        <v>0.09443963638133947</v>
+        <v>0.08397482475927927</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03351188725364829</v>
+        <v>0.04400081397872601</v>
       </c>
       <c r="H70" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -2412,22 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5269167387.19181</v>
+        <v>4338763539.24486</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1140874272266541</v>
+        <v>0.1529390455750423</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02803959539602043</v>
+        <v>0.0316929382820261</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2446,13 +2446,13 @@
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1552947714.851007</v>
+        <v>1636667225.482679</v>
       </c>
       <c r="F72" t="n">
-        <v>0.0921434133844608</v>
+        <v>0.1044813789797799</v>
       </c>
       <c r="G72" t="n">
-        <v>0.0486705451956175</v>
+        <v>0.04213530615553523</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -2468,19 +2468,19 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2382928798.487614</v>
+        <v>3144471126.815832</v>
       </c>
       <c r="F73" t="n">
-        <v>0.09127904723135244</v>
+        <v>0.08202260859132628</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03312188189390539</v>
+        <v>0.04133415103591462</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -2496,19 +2496,19 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3119999565.817456</v>
+        <v>3938746573.228175</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1310617904244478</v>
+        <v>0.1593013071011506</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02711454137818246</v>
+        <v>0.03403326416217039</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -2524,19 +2524,19 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1910402380.335695</v>
+        <v>1658324106.710788</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1329831306554104</v>
+        <v>0.1080311192190224</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03729335345773893</v>
+        <v>0.02903035127738584</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -2552,22 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4400590816.721383</v>
+        <v>5355327684.159515</v>
       </c>
       <c r="F76" t="n">
-        <v>0.106264497777869</v>
+        <v>0.09719339034774926</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02370141296218673</v>
+        <v>0.02274079793750148</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2580,19 +2580,19 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2134737086.060088</v>
+        <v>1649807239.742181</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1464346061010568</v>
+        <v>0.1168755000835727</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02788675259050767</v>
+        <v>0.02194823864470173</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
@@ -2608,22 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3905846663.849105</v>
+        <v>3832374510.235032</v>
       </c>
       <c r="F78" t="n">
-        <v>0.08943538822721933</v>
+        <v>0.09418690506040782</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04053163018679954</v>
+        <v>0.03725234337886254</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2642,13 +2642,13 @@
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1687731419.931758</v>
+        <v>1180770650.285247</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1619754429433151</v>
+        <v>0.1192223513673497</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02599475558875919</v>
+        <v>0.0390969611195477</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
@@ -2664,19 +2664,19 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>3591876290.73177</v>
+        <v>5063396749.776542</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1019309995592888</v>
+        <v>0.1011569678624098</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02734232958937652</v>
+        <v>0.02730351915788541</v>
       </c>
       <c r="H80" t="b">
         <v>1</v>
@@ -2698,13 +2698,13 @@
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4825669641.090378</v>
+        <v>3471826639.145558</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1298826353626537</v>
+        <v>0.119769084009786</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02768868941673945</v>
+        <v>0.02103324554187176</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -2720,19 +2720,19 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5405558902.945964</v>
+        <v>5031700695.444053</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1981497265335315</v>
+        <v>0.1886133077375046</v>
       </c>
       <c r="G82" t="n">
-        <v>0.0248162130500459</v>
+        <v>0.02545998232824929</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
@@ -2754,13 +2754,13 @@
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2073951421.630261</v>
+        <v>2485423689.896044</v>
       </c>
       <c r="F83" t="n">
-        <v>0.123891379585137</v>
+        <v>0.1106040289195524</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03285394141709226</v>
+        <v>0.04082282222572688</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
@@ -2776,19 +2776,19 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1714218040.185926</v>
+        <v>2257009199.726636</v>
       </c>
       <c r="F84" t="n">
-        <v>0.0768688645528825</v>
+        <v>0.1030862404892458</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04634895625229037</v>
+        <v>0.04763146951445136</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -2804,19 +2804,19 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3262169760.203456</v>
+        <v>3374580787.55305</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1626236164668181</v>
+        <v>0.1431527779963032</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04307325474682385</v>
+        <v>0.05074602791279103</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
@@ -2832,19 +2832,19 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2545025602.535506</v>
+        <v>2530406992.929164</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1662271581904867</v>
+        <v>0.1415669460587234</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02465992146935143</v>
+        <v>0.02495399223006944</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
@@ -2860,19 +2860,19 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1065202736.228322</v>
+        <v>1420369906.790793</v>
       </c>
       <c r="F87" t="n">
-        <v>0.118225223229161</v>
+        <v>0.1879026302137468</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03177308008875911</v>
+        <v>0.04283409903667328</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
@@ -2888,19 +2888,19 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2556681515.116763</v>
+        <v>2396632557.172719</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1584600415571225</v>
+        <v>0.1637678259031266</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03082374820066149</v>
+        <v>0.03603115629743751</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
@@ -2916,19 +2916,19 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2508395625.886302</v>
+        <v>3073585240.392588</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1544395552571378</v>
+        <v>0.1431153616683559</v>
       </c>
       <c r="G89" t="n">
-        <v>0.0288119298221956</v>
+        <v>0.03265765922863269</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -2944,19 +2944,19 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1893469980.370547</v>
+        <v>1513801736.448774</v>
       </c>
       <c r="F90" t="n">
-        <v>0.09930669733939906</v>
+        <v>0.1072278445127076</v>
       </c>
       <c r="G90" t="n">
-        <v>0.05364996442595328</v>
+        <v>0.04673454648469725</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -2972,19 +2972,19 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>2086567504.837282</v>
+        <v>1636345027.551269</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1659110145433551</v>
+        <v>0.1626016393653178</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05587646304642849</v>
+        <v>0.05446567231200483</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -3000,22 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2113376255.842862</v>
+        <v>2510333647.792404</v>
       </c>
       <c r="F92" t="n">
-        <v>0.07694697758412722</v>
+        <v>0.08759530442174762</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03759805096153788</v>
+        <v>0.03820172319991919</v>
       </c>
       <c r="H92" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -3028,22 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3694496659.015499</v>
+        <v>4866944566.784521</v>
       </c>
       <c r="F93" t="n">
-        <v>0.09361780352842848</v>
+        <v>0.136232191452801</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03398835387172856</v>
+        <v>0.05386844474372444</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3056,19 +3056,19 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1704378676.207259</v>
+        <v>1613030568.291741</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1505630964291768</v>
+        <v>0.114058842910044</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03074779306289517</v>
+        <v>0.03637287130616979</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -3084,22 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2609390620.245257</v>
+        <v>2899237563.005506</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1199628823786938</v>
+        <v>0.09915729499374952</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04319836898248482</v>
+        <v>0.04359857885368661</v>
       </c>
       <c r="H95" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96">
@@ -3112,22 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1623021431.316148</v>
+        <v>2212853343.21727</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1003537216433133</v>
+        <v>0.1203557382308148</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04049041641240041</v>
+        <v>0.03717083721732858</v>
       </c>
       <c r="H96" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97">
@@ -3140,22 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4663917560.98376</v>
+        <v>5023830131.921659</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1279323881525813</v>
+        <v>0.1193310575653901</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02129130188467731</v>
+        <v>0.01781617494264093</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3168,19 +3168,19 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3840743334.930165</v>
+        <v>3825124914.516038</v>
       </c>
       <c r="F98" t="n">
-        <v>0.09165944607544428</v>
+        <v>0.1163259975228057</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02272700024316709</v>
+        <v>0.0257971250295164</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -3202,16 +3202,16 @@
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2676362296.54433</v>
+        <v>3424495661.031013</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1222696205847909</v>
+        <v>0.1098243609362584</v>
       </c>
       <c r="G99" t="n">
-        <v>0.0336973581320307</v>
+        <v>0.03400467212078716</v>
       </c>
       <c r="H99" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -3224,19 +3224,19 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4779517425.654312</v>
+        <v>4604652268.067673</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1198978278516417</v>
+        <v>0.1780434347478654</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02408417388935932</v>
+        <v>0.01961297190840707</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
@@ -3252,19 +3252,19 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3030225376.143951</v>
+        <v>2263436039.999454</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1664410055434684</v>
+        <v>0.1881755983281007</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04258719600102649</v>
+        <v>0.05657979545730229</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>

--- a/output/fit_clients/fit_round_100.xlsx
+++ b/output/fit_clients/fit_round_100.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -480,23 +495,30 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2464687338.575039</v>
+        <v>2314301684.341918</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0908259787859689</v>
+        <v>0.1095419379597322</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03246114876474815</v>
+        <v>0.04005766443933219</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -508,23 +530,30 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2149516947.178508</v>
+        <v>2244590306.94521</v>
       </c>
       <c r="F3" t="n">
-        <v>0.12671718113089</v>
+        <v>0.116035851840148</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03045354871934261</v>
+        <v>0.04997339219420784</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -542,17 +571,24 @@
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4470154167.002923</v>
+        <v>4709108633.906986</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1203724701982272</v>
+        <v>0.1468092339182596</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03724600519237914</v>
+        <v>0.02308575825765817</v>
       </c>
       <c r="H4" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>62</v>
+      </c>
+      <c r="J4" t="n">
+        <v>100</v>
+      </c>
+      <c r="K4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -564,23 +600,30 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>2921146026.931612</v>
+        <v>3608011418.199998</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0822754840551182</v>
+        <v>0.07704668116643774</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04305280093037366</v>
+        <v>0.04661343988848073</v>
       </c>
       <c r="H5" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>41</v>
+      </c>
+      <c r="J5" t="n">
+        <v>100</v>
+      </c>
+      <c r="K5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -592,23 +635,30 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2124650195.229777</v>
+        <v>1730757141.930637</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1122674866751922</v>
+        <v>0.0966721869032844</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0376220262440176</v>
+        <v>0.04627231888403478</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -620,23 +670,30 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2154667934.814827</v>
+        <v>2202279154.466972</v>
       </c>
       <c r="F7" t="n">
-        <v>0.09090357668214452</v>
+        <v>0.07271610191043501</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03403400348323624</v>
+        <v>0.0393413370555106</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -648,23 +705,30 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3421710268.716667</v>
+        <v>2640849284.520152</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2086267457070036</v>
+        <v>0.141140017943703</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03107798230853339</v>
+        <v>0.02351803907382403</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
       </c>
+      <c r="I8" t="n">
+        <v>27</v>
+      </c>
+      <c r="J8" t="n">
+        <v>97</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -676,23 +740,30 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2078400182.155218</v>
+        <v>1428334677.252314</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1902143901890047</v>
+        <v>0.1569427229788491</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03386050227146251</v>
+        <v>0.03083792372411051</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -710,17 +781,24 @@
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4611388134.891263</v>
+        <v>5742639441.456649</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1656024722026947</v>
+        <v>0.1818523446564132</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04808263658497389</v>
+        <v>0.04745920808853296</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
       </c>
+      <c r="I10" t="n">
+        <v>93</v>
+      </c>
+      <c r="J10" t="n">
+        <v>100</v>
+      </c>
+      <c r="K10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -732,23 +810,30 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3099559632.334126</v>
+        <v>3531603309.288395</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1524137719582365</v>
+        <v>0.1598390254725454</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03138458376187983</v>
+        <v>0.03402173271759796</v>
       </c>
       <c r="H11" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>41</v>
+      </c>
+      <c r="J11" t="n">
+        <v>100</v>
+      </c>
+      <c r="K11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -760,23 +845,30 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2132190906.197734</v>
+        <v>2550091286.632261</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1915456968470293</v>
+        <v>0.1735627290518623</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04592070968057445</v>
+        <v>0.04337613061207412</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -794,16 +886,25 @@
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4941340466.736024</v>
+        <v>4143427193.195063</v>
       </c>
       <c r="F13" t="n">
-        <v>0.06127465373559314</v>
+        <v>0.06235429150472094</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02536259554993432</v>
+        <v>0.02258617629698979</v>
       </c>
       <c r="H13" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>50</v>
+      </c>
+      <c r="J13" t="n">
+        <v>99</v>
+      </c>
+      <c r="K13" t="n">
+        <v>156.1159254132857</v>
       </c>
     </row>
     <row r="14">
@@ -822,17 +923,24 @@
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2388927400.950214</v>
+        <v>2758470566.552483</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1811101203670031</v>
+        <v>0.1264121849673841</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03942646837653022</v>
+        <v>0.03154315754956302</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
       </c>
+      <c r="I14" t="n">
+        <v>19</v>
+      </c>
+      <c r="J14" t="n">
+        <v>97</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -844,23 +952,30 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1362845995.374786</v>
+        <v>1772489413.381055</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1075763555103596</v>
+        <v>0.09696058276110257</v>
       </c>
       <c r="G15" t="n">
-        <v>0.031640480106716</v>
+        <v>0.04284861397719494</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -872,23 +987,30 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2354989464.766028</v>
+        <v>2904416041.255755</v>
       </c>
       <c r="F16" t="n">
-        <v>0.09455496312655308</v>
+        <v>0.09064977053042925</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04910804736875745</v>
+        <v>0.03192542854798835</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -900,23 +1022,30 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3601940898.68</v>
+        <v>3976778486.161693</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1402328699694018</v>
+        <v>0.138169624329799</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0374625844329874</v>
+        <v>0.03744437322214322</v>
       </c>
       <c r="H17" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>48</v>
+      </c>
+      <c r="J17" t="n">
+        <v>100</v>
+      </c>
+      <c r="K17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -928,23 +1057,30 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2941151118.215621</v>
+        <v>2509409891.715615</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1714089924135576</v>
+        <v>0.1514149265078709</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02848814166750935</v>
+        <v>0.03177372980565468</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
       </c>
+      <c r="I18" t="n">
+        <v>26</v>
+      </c>
+      <c r="J18" t="n">
+        <v>95</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -962,17 +1098,24 @@
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1064771344.105468</v>
+        <v>977622224.3564345</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1294416514409073</v>
+        <v>0.1589316378306475</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02221348976884325</v>
+        <v>0.01791016006549355</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -984,23 +1127,30 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2672826771.346419</v>
+        <v>2801651645.730649</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1238381391757534</v>
+        <v>0.1321031207763912</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02759871523019592</v>
+        <v>0.03007491401426294</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1012,23 +1162,30 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2208920481.411351</v>
+        <v>2199116481.640436</v>
       </c>
       <c r="F21" t="n">
-        <v>0.08202037408900015</v>
+        <v>0.0680120620081648</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03378899847058964</v>
+        <v>0.04277017533122772</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1046,16 +1203,25 @@
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3955952794.561736</v>
+        <v>3451499469.994564</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1225895247711076</v>
+        <v>0.1082824398857338</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04784993155222159</v>
+        <v>0.04310812826918199</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>25</v>
+      </c>
+      <c r="J22" t="n">
+        <v>99</v>
+      </c>
+      <c r="K22" t="n">
+        <v>109.5408508685621</v>
       </c>
     </row>
     <row r="23">
@@ -1068,23 +1234,30 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1506331517.903517</v>
+        <v>1346542478.474756</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1788906688796363</v>
+        <v>0.123278135010942</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04777161077876916</v>
+        <v>0.04776277123901247</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1096,22 +1269,31 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3741916309.827983</v>
+        <v>3989814206.167598</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1255804116898427</v>
+        <v>0.1053095479338578</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02564854704900642</v>
+        <v>0.02745862430199387</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>29</v>
+      </c>
+      <c r="J24" t="n">
+        <v>99</v>
+      </c>
+      <c r="K24" t="n">
+        <v>147.6744042535789</v>
       </c>
     </row>
     <row r="25">
@@ -1124,23 +1306,30 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1343244247.594476</v>
+        <v>1387712683.046528</v>
       </c>
       <c r="F25" t="n">
-        <v>0.08471427170465223</v>
+        <v>0.1025222266610047</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02496148974107737</v>
+        <v>0.02838737052761913</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1158,17 +1347,24 @@
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1259901966.928405</v>
+        <v>1032993952.081144</v>
       </c>
       <c r="F26" t="n">
-        <v>0.10722771341938</v>
+        <v>0.08186981563188588</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02648334855625425</v>
+        <v>0.03913231585192827</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1180,23 +1376,30 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3702264563.647203</v>
+        <v>3166602024.532705</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1505708422305111</v>
+        <v>0.1488624672767923</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02717419507958994</v>
+        <v>0.01658522091794441</v>
       </c>
       <c r="H27" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>39</v>
+      </c>
+      <c r="J27" t="n">
+        <v>98</v>
+      </c>
+      <c r="K27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1208,23 +1411,30 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3144561133.228987</v>
+        <v>3369981760.240979</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1211288847719856</v>
+        <v>0.1447532636698748</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04473839739218395</v>
+        <v>0.0475474374091626</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
       </c>
+      <c r="I28" t="n">
+        <v>23</v>
+      </c>
+      <c r="J28" t="n">
+        <v>95</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1236,22 +1446,31 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4110568156.393505</v>
+        <v>5863365098.713691</v>
       </c>
       <c r="F29" t="n">
-        <v>0.09769687239571502</v>
+        <v>0.09110544757187745</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03706485983594186</v>
+        <v>0.04343582362179356</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>94</v>
+      </c>
+      <c r="J29" t="n">
+        <v>100</v>
+      </c>
+      <c r="K29" t="n">
+        <v>192.1072436506228</v>
       </c>
     </row>
     <row r="30">
@@ -1264,23 +1483,30 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1663764294.063139</v>
+        <v>1936399009.547381</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1186596662500916</v>
+        <v>0.1041005130767568</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02436607738621829</v>
+        <v>0.03420524346994185</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1292,23 +1518,30 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1059822847.779382</v>
+        <v>1423956310.889042</v>
       </c>
       <c r="F31" t="n">
-        <v>0.0863396688125723</v>
+        <v>0.08726954784257297</v>
       </c>
       <c r="G31" t="n">
-        <v>0.0337669265782382</v>
+        <v>0.03743096312726495</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1320,23 +1553,30 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1384072079.162083</v>
+        <v>1161893631.807389</v>
       </c>
       <c r="F32" t="n">
-        <v>0.09722989198572708</v>
+        <v>0.1197120138201474</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02332925425381504</v>
+        <v>0.02633853097308442</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1348,23 +1588,30 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2386332961.17272</v>
+        <v>2720095076.188919</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1512434718351587</v>
+        <v>0.1279223937984264</v>
       </c>
       <c r="G33" t="n">
-        <v>0.03705432411183535</v>
+        <v>0.0404582752931272</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1376,23 +1623,30 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1393696994.884368</v>
+        <v>953514058.3058746</v>
       </c>
       <c r="F34" t="n">
-        <v>0.08585298483009864</v>
+        <v>0.1160529325127716</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02392685968265284</v>
+        <v>0.01983290965303325</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1404,23 +1658,30 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1105828347.923551</v>
+        <v>978779923.7818674</v>
       </c>
       <c r="F35" t="n">
-        <v>0.07251693284200972</v>
+        <v>0.07531633193569116</v>
       </c>
       <c r="G35" t="n">
-        <v>0.02780396119767904</v>
+        <v>0.03293126544499985</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1432,23 +1693,30 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>3201634537.114731</v>
+        <v>2459049731.510571</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1738162020233165</v>
+        <v>0.1725734446420634</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02524375199301684</v>
+        <v>0.01968355944469543</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>2</v>
+      </c>
+      <c r="J36" t="n">
+        <v>86</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1460,23 +1728,30 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2937763350.467752</v>
+        <v>2298404847.01405</v>
       </c>
       <c r="F37" t="n">
-        <v>0.08919730793888871</v>
+        <v>0.1028049601783723</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03112944341376169</v>
+        <v>0.02853251146946733</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1494,17 +1769,24 @@
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1875566356.306563</v>
+        <v>1526922290.960112</v>
       </c>
       <c r="F38" t="n">
-        <v>0.08924084369955203</v>
+        <v>0.08855809117924124</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03514817818145619</v>
+        <v>0.03824829974391946</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1516,23 +1798,30 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1548279255.630583</v>
+        <v>1683409767.170569</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1717289581205893</v>
+        <v>0.1434795935989029</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02149300492129633</v>
+        <v>0.02596879359095583</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1544,23 +1833,30 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1350123180.187861</v>
+        <v>1269772066.615469</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1359632315276244</v>
+        <v>0.1614473676184774</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04276835847308292</v>
+        <v>0.04664639718499231</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1572,23 +1868,30 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2840770242.942619</v>
+        <v>2124777923.200425</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1344189276914072</v>
+        <v>0.1334872833806255</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03177810642000575</v>
+        <v>0.03059093975312357</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1600,22 +1903,31 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>4010864104.553298</v>
+        <v>4185547315.905208</v>
       </c>
       <c r="F42" t="n">
-        <v>0.08947541439749389</v>
+        <v>0.1063016647041007</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04630297987282524</v>
+        <v>0.03608800184876237</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
+      </c>
+      <c r="I42" t="n">
+        <v>39</v>
+      </c>
+      <c r="J42" t="n">
+        <v>99</v>
+      </c>
+      <c r="K42" t="n">
+        <v>166.0478412529344</v>
       </c>
     </row>
     <row r="43">
@@ -1628,23 +1940,30 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2666559569.86455</v>
+        <v>2479246881.667838</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1578438798747852</v>
+        <v>0.1353248680468384</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01851244964008463</v>
+        <v>0.01661040049935477</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1662,17 +1981,24 @@
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2026403343.457941</v>
+        <v>2226394577.297943</v>
       </c>
       <c r="F44" t="n">
-        <v>0.09297238995495961</v>
+        <v>0.07201452796884029</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03356856373531419</v>
+        <v>0.02820180375545896</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1684,23 +2010,30 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2374148697.896292</v>
+        <v>2075613401.421151</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1574582453390284</v>
+        <v>0.1597563678006806</v>
       </c>
       <c r="G45" t="n">
-        <v>0.05107200088461294</v>
+        <v>0.04189854265280773</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1712,23 +2045,30 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5623206579.461524</v>
+        <v>3502790950.436441</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1394584968987837</v>
+        <v>0.1362636346976098</v>
       </c>
       <c r="G46" t="n">
-        <v>0.0553943941769897</v>
+        <v>0.03902686843540956</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
       </c>
+      <c r="I46" t="n">
+        <v>57</v>
+      </c>
+      <c r="J46" t="n">
+        <v>100</v>
+      </c>
+      <c r="K46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1740,23 +2080,30 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3814121809.440347</v>
+        <v>5140284791.649677</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1261992962480895</v>
+        <v>0.188787974284928</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04359089922276598</v>
+        <v>0.04045540628585483</v>
       </c>
       <c r="H47" t="b">
         <v>1</v>
       </c>
+      <c r="I47" t="n">
+        <v>43</v>
+      </c>
+      <c r="J47" t="n">
+        <v>100</v>
+      </c>
+      <c r="K47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1774,17 +2121,24 @@
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4027597387.586815</v>
+        <v>3315216721.012344</v>
       </c>
       <c r="F48" t="n">
-        <v>0.06697806373272584</v>
+        <v>0.09272178244170727</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03086171934446452</v>
+        <v>0.03000733483159785</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
       </c>
+      <c r="I48" t="n">
+        <v>37</v>
+      </c>
+      <c r="J48" t="n">
+        <v>98</v>
+      </c>
+      <c r="K48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1796,23 +2150,30 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1455805059.651185</v>
+        <v>1797628320.757356</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1534099201400176</v>
+        <v>0.1270706999245228</v>
       </c>
       <c r="G49" t="n">
-        <v>0.0308275879908728</v>
+        <v>0.03529443788205296</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1824,22 +2185,31 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3850877721.963119</v>
+        <v>2953680618.757796</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1360744646125734</v>
+        <v>0.1496848841029213</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03384656297600112</v>
+        <v>0.04005887933346706</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
+      </c>
+      <c r="I50" t="n">
+        <v>35</v>
+      </c>
+      <c r="J50" t="n">
+        <v>99</v>
+      </c>
+      <c r="K50" t="n">
+        <v>87.12879519658102</v>
       </c>
     </row>
     <row r="51">
@@ -1852,23 +2222,30 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1432077547.016933</v>
+        <v>1245794435.853804</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1949051539682348</v>
+        <v>0.1283743429243775</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04152254064710584</v>
+        <v>0.0462804139641444</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1886,16 +2263,25 @@
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3683857622.452833</v>
+        <v>5120220408.769097</v>
       </c>
       <c r="F52" t="n">
-        <v>0.09658044782453876</v>
+        <v>0.1180442621495489</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05268859466242309</v>
+        <v>0.03983854735457591</v>
       </c>
       <c r="H52" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>77</v>
+      </c>
+      <c r="J52" t="n">
+        <v>100</v>
+      </c>
+      <c r="K52" t="n">
+        <v>171.3157651730953</v>
       </c>
     </row>
     <row r="53">
@@ -1908,23 +2294,30 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3585551052.861534</v>
+        <v>3032464076.861306</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1413209072684985</v>
+        <v>0.1405144927901782</v>
       </c>
       <c r="G53" t="n">
-        <v>0.0310672802899327</v>
+        <v>0.0352316041699214</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
       </c>
+      <c r="I53" t="n">
+        <v>11</v>
+      </c>
+      <c r="J53" t="n">
+        <v>90</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1936,22 +2329,31 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3607562658.980634</v>
+        <v>3828583443.728939</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1329109268608092</v>
+        <v>0.1494826126915146</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04742949115134536</v>
+        <v>0.03948589344257794</v>
       </c>
       <c r="H54" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
+        <v>45</v>
+      </c>
+      <c r="J54" t="n">
+        <v>99</v>
+      </c>
+      <c r="K54" t="n">
+        <v>145.7967994126465</v>
       </c>
     </row>
     <row r="55">
@@ -1964,23 +2366,30 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4066608619.117377</v>
+        <v>3876154994.405503</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1936151354839512</v>
+        <v>0.2201570943942968</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02066396145972021</v>
+        <v>0.02166965685046042</v>
       </c>
       <c r="H55" t="b">
         <v>1</v>
       </c>
+      <c r="I55" t="n">
+        <v>45</v>
+      </c>
+      <c r="J55" t="n">
+        <v>100</v>
+      </c>
+      <c r="K55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -1998,17 +2407,24 @@
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1592818893.054646</v>
+        <v>1431123923.934951</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1282238469370479</v>
+        <v>0.1476993771650721</v>
       </c>
       <c r="G56" t="n">
-        <v>0.048441138601214</v>
+        <v>0.04111995920699222</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2020,22 +2436,31 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3638169161.479147</v>
+        <v>3431379068.73295</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1516391211967592</v>
+        <v>0.1211142311214891</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02725468909194103</v>
+        <v>0.02597105587662803</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
+      </c>
+      <c r="I57" t="n">
+        <v>38</v>
+      </c>
+      <c r="J57" t="n">
+        <v>99</v>
+      </c>
+      <c r="K57" t="n">
+        <v>111.4080763131321</v>
       </c>
     </row>
     <row r="58">
@@ -2048,23 +2473,30 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1623139763.140227</v>
+        <v>1542708215.893398</v>
       </c>
       <c r="F58" t="n">
-        <v>0.187961364973146</v>
+        <v>0.1973445674233369</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03495802613416391</v>
+        <v>0.02766818942391834</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2076,22 +2508,31 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4937594621.700809</v>
+        <v>3640490243.454905</v>
       </c>
       <c r="F59" t="n">
-        <v>0.09361307573054997</v>
+        <v>0.1204122941337636</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04249987676173722</v>
+        <v>0.04510884068658159</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
+      </c>
+      <c r="I59" t="n">
+        <v>49</v>
+      </c>
+      <c r="J59" t="n">
+        <v>99</v>
+      </c>
+      <c r="K59" t="n">
+        <v>122.6995737551558</v>
       </c>
     </row>
     <row r="60">
@@ -2104,23 +2545,30 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3060501603.897227</v>
+        <v>2970812619.383866</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1919676189681728</v>
+        <v>0.1404059832051652</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02352439278370728</v>
+        <v>0.03340296093679036</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
       </c>
+      <c r="I60" t="n">
+        <v>14</v>
+      </c>
+      <c r="J60" t="n">
+        <v>97</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2132,23 +2580,30 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2689937672.024543</v>
+        <v>2481424159.356473</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1136120300705899</v>
+        <v>0.1455936061687148</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02227314433164888</v>
+        <v>0.02369862193582215</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>1</v>
+      </c>
+      <c r="J61" t="n">
+        <v>79</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2166,17 +2621,24 @@
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1632960736.529133</v>
+        <v>1992469450.872843</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1562169737218459</v>
+        <v>0.1606478702952372</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04565808833732061</v>
+        <v>0.0418771913537963</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2188,23 +2650,30 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>5292246425.255327</v>
+        <v>5339311171.042977</v>
       </c>
       <c r="F63" t="n">
-        <v>0.08594594992710765</v>
+        <v>0.1045482510368271</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04184021278941602</v>
+        <v>0.04605621562739126</v>
       </c>
       <c r="H63" t="b">
         <v>1</v>
       </c>
+      <c r="I63" t="n">
+        <v>49</v>
+      </c>
+      <c r="J63" t="n">
+        <v>100</v>
+      </c>
+      <c r="K63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2216,23 +2685,30 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3658280288.468791</v>
+        <v>4549096909.904361</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1854319155707567</v>
+        <v>0.1497095899322708</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02571501670849912</v>
+        <v>0.03192153946539309</v>
       </c>
       <c r="H64" t="b">
         <v>1</v>
       </c>
+      <c r="I64" t="n">
+        <v>49</v>
+      </c>
+      <c r="J64" t="n">
+        <v>100</v>
+      </c>
+      <c r="K64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2244,22 +2720,31 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5628882393.660345</v>
+        <v>4027591383.309745</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1644815619282864</v>
+        <v>0.137186079610329</v>
       </c>
       <c r="G65" t="n">
-        <v>0.0228634020859003</v>
+        <v>0.0303879116264883</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>81</v>
+      </c>
+      <c r="J65" t="n">
+        <v>100</v>
+      </c>
+      <c r="K65" t="n">
+        <v>167.3801830922724</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2757,31 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>3749406111.088656</v>
+        <v>4508574964.366036</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1556390262591776</v>
+        <v>0.1332551024802135</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04562492960210929</v>
+        <v>0.04835608294418502</v>
       </c>
       <c r="H66" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>49</v>
+      </c>
+      <c r="J66" t="n">
+        <v>99</v>
+      </c>
+      <c r="K66" t="n">
+        <v>153.0214664691675</v>
       </c>
     </row>
     <row r="67">
@@ -2300,23 +2794,30 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2546749660.584845</v>
+        <v>3008761620.687522</v>
       </c>
       <c r="F67" t="n">
-        <v>0.1022428314867446</v>
+        <v>0.07322172847093245</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04854985060004653</v>
+        <v>0.04091743489610163</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>0</v>
+      </c>
+      <c r="J67" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2328,22 +2829,31 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5575576422.342804</v>
+        <v>5255988027.880757</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1189371263321883</v>
+        <v>0.09727305078509456</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03223835233464836</v>
+        <v>0.0380199705550574</v>
       </c>
       <c r="H68" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
+        <v>50</v>
+      </c>
+      <c r="J68" t="n">
+        <v>99</v>
+      </c>
+      <c r="K68" t="n">
+        <v>153.8394203136185</v>
       </c>
     </row>
     <row r="69">
@@ -2356,23 +2866,30 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2165574687.778915</v>
+        <v>1922990448.832167</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1538535481329219</v>
+        <v>0.1284745442370014</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04027200876259771</v>
+        <v>0.05011001986101708</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2390,17 +2907,24 @@
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2401152294.468052</v>
+        <v>2915752134.169713</v>
       </c>
       <c r="F70" t="n">
-        <v>0.08397482475927927</v>
+        <v>0.09230954701195035</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04400081397872601</v>
+        <v>0.04785473011899458</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
       </c>
+      <c r="I70" t="n">
+        <v>12</v>
+      </c>
+      <c r="J70" t="n">
+        <v>95</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2412,22 +2936,31 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4338763539.24486</v>
+        <v>4260602225.231604</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1529390455750423</v>
+        <v>0.1202054929307882</v>
       </c>
       <c r="G71" t="n">
-        <v>0.0316929382820261</v>
+        <v>0.02526934965628351</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
+      </c>
+      <c r="I71" t="n">
+        <v>81</v>
+      </c>
+      <c r="J71" t="n">
+        <v>100</v>
+      </c>
+      <c r="K71" t="n">
+        <v>168.7200226104458</v>
       </c>
     </row>
     <row r="72">
@@ -2446,17 +2979,24 @@
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1636667225.482679</v>
+        <v>2105918996.016115</v>
       </c>
       <c r="F72" t="n">
-        <v>0.1044813789797799</v>
+        <v>0.09892260793371227</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04213530615553523</v>
+        <v>0.04015718375140991</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2468,23 +3008,30 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3144471126.815832</v>
+        <v>2552560793.2782</v>
       </c>
       <c r="F73" t="n">
-        <v>0.08202260859132628</v>
+        <v>0.08412546861633019</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04133415103591462</v>
+        <v>0.05004331396350616</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
+      <c r="I73" t="n">
+        <v>7</v>
+      </c>
+      <c r="J73" t="n">
+        <v>98</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2502,17 +3049,24 @@
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3938746573.228175</v>
+        <v>3739409863.780767</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1593013071011506</v>
+        <v>0.1760755531494777</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03403326416217039</v>
+        <v>0.02907403277206016</v>
       </c>
       <c r="H74" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I74" t="n">
+        <v>32</v>
+      </c>
+      <c r="J74" t="n">
+        <v>100</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2524,23 +3078,30 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1658324106.710788</v>
+        <v>1932180432.296944</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1080311192190224</v>
+        <v>0.1058218490415889</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02903035127738584</v>
+        <v>0.03153928539481653</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2552,22 +3113,31 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>5355327684.159515</v>
+        <v>4956309963.733238</v>
       </c>
       <c r="F76" t="n">
-        <v>0.09719339034774926</v>
+        <v>0.08492013774370004</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02274079793750148</v>
+        <v>0.02074601721475779</v>
       </c>
       <c r="H76" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
+        <v>46</v>
+      </c>
+      <c r="J76" t="n">
+        <v>99</v>
+      </c>
+      <c r="K76" t="n">
+        <v>133.1753048116815</v>
       </c>
     </row>
     <row r="77">
@@ -2580,23 +3150,30 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1649807239.742181</v>
+        <v>1483094493.093332</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1168755000835727</v>
+        <v>0.168390025313659</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02194823864470173</v>
+        <v>0.02208891211176799</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2608,22 +3185,31 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3832374510.235032</v>
+        <v>3465305026.68617</v>
       </c>
       <c r="F78" t="n">
-        <v>0.09418690506040782</v>
+        <v>0.116067771560995</v>
       </c>
       <c r="G78" t="n">
-        <v>0.03725234337886254</v>
+        <v>0.03836357252000935</v>
       </c>
       <c r="H78" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
+        <v>51</v>
+      </c>
+      <c r="J78" t="n">
+        <v>99</v>
+      </c>
+      <c r="K78" t="n">
+        <v>125.9035242167268</v>
       </c>
     </row>
     <row r="79">
@@ -2642,17 +3228,24 @@
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1180770650.285247</v>
+        <v>1577235107.534232</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1192223513673497</v>
+        <v>0.1100316955179088</v>
       </c>
       <c r="G79" t="n">
-        <v>0.0390969611195477</v>
+        <v>0.03540905278558325</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2670,16 +3263,25 @@
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5063396749.776542</v>
+        <v>5232384043.571645</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1011569678624098</v>
+        <v>0.08262083022264943</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02730351915788541</v>
+        <v>0.03285241888808616</v>
       </c>
       <c r="H80" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
+        <v>48</v>
+      </c>
+      <c r="J80" t="n">
+        <v>99</v>
+      </c>
+      <c r="K80" t="n">
+        <v>123.7847314531621</v>
       </c>
     </row>
     <row r="81">
@@ -2698,17 +3300,24 @@
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3471826639.145558</v>
+        <v>4597838516.909232</v>
       </c>
       <c r="F81" t="n">
-        <v>0.119769084009786</v>
+        <v>0.1098412277395077</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02103324554187176</v>
+        <v>0.02080204282667365</v>
       </c>
       <c r="H81" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>45</v>
+      </c>
+      <c r="J81" t="n">
+        <v>100</v>
+      </c>
+      <c r="K81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -2720,22 +3329,31 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5031700695.444053</v>
+        <v>4974046992.159893</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1886133077375046</v>
+        <v>0.175023572161609</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02545998232824929</v>
+        <v>0.02885447867191397</v>
       </c>
       <c r="H82" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>65</v>
+      </c>
+      <c r="J82" t="n">
+        <v>100</v>
+      </c>
+      <c r="K82" t="n">
+        <v>170.9957779062055</v>
       </c>
     </row>
     <row r="83">
@@ -2748,23 +3366,30 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2485423689.896044</v>
+        <v>1593018161.549025</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1106040289195524</v>
+        <v>0.1208523746141208</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04082282222572688</v>
+        <v>0.03412911395469839</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2776,23 +3401,30 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2257009199.726636</v>
+        <v>2045369612.805766</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1030862404892458</v>
+        <v>0.1024340323047715</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04763146951445136</v>
+        <v>0.04480644640621896</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2804,23 +3436,30 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3374580787.55305</v>
+        <v>3526292247.840518</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1431527779963032</v>
+        <v>0.1120263279166626</v>
       </c>
       <c r="G85" t="n">
-        <v>0.05074602791279103</v>
+        <v>0.05161092001243164</v>
       </c>
       <c r="H85" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I85" t="n">
+        <v>17</v>
+      </c>
+      <c r="J85" t="n">
+        <v>100</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2832,23 +3471,30 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2530406992.929164</v>
+        <v>1705283211.968205</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1415669460587234</v>
+        <v>0.1208953274350697</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02495399223006944</v>
+        <v>0.01806331853596791</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2866,17 +3512,24 @@
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1420369906.790793</v>
+        <v>1035963687.476092</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1879026302137468</v>
+        <v>0.161800669427815</v>
       </c>
       <c r="G87" t="n">
-        <v>0.04283409903667328</v>
+        <v>0.03752287256398289</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2888,23 +3541,30 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2396632557.172719</v>
+        <v>3484398479.346887</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1637678259031266</v>
+        <v>0.1613349575369333</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03603115629743751</v>
+        <v>0.03598192136146137</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
       </c>
+      <c r="I88" t="n">
+        <v>16</v>
+      </c>
+      <c r="J88" t="n">
+        <v>98</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2916,23 +3576,30 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3073585240.392588</v>
+        <v>2423593893.013208</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1431153616683559</v>
+        <v>0.1408315035435047</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03265765922863269</v>
+        <v>0.03664679678078964</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>10</v>
+      </c>
+      <c r="J89" t="n">
+        <v>97</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2944,23 +3611,30 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1513801736.448774</v>
+        <v>1434793385.630485</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1072278445127076</v>
+        <v>0.1236316248351311</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04673454648469725</v>
+        <v>0.03488726768454897</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2972,23 +3646,30 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1636345027.551269</v>
+        <v>1581026478.426174</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1626016393653178</v>
+        <v>0.1484833726941245</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05446567231200483</v>
+        <v>0.03964442163004787</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3000,23 +3681,30 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2510333647.792404</v>
+        <v>2849543176.220209</v>
       </c>
       <c r="F92" t="n">
-        <v>0.08759530442174762</v>
+        <v>0.1089165436018464</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03820172319991919</v>
+        <v>0.0430562919261465</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3034,17 +3722,24 @@
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4866944566.784521</v>
+        <v>3526096685.523048</v>
       </c>
       <c r="F93" t="n">
-        <v>0.136232191452801</v>
+        <v>0.1322527529310045</v>
       </c>
       <c r="G93" t="n">
-        <v>0.05386844474372444</v>
+        <v>0.05237748115419864</v>
       </c>
       <c r="H93" t="b">
         <v>1</v>
       </c>
+      <c r="I93" t="n">
+        <v>45</v>
+      </c>
+      <c r="J93" t="n">
+        <v>100</v>
+      </c>
+      <c r="K93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3056,23 +3751,30 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1613030568.291741</v>
+        <v>2260718386.145361</v>
       </c>
       <c r="F94" t="n">
-        <v>0.114058842910044</v>
+        <v>0.1227848142443008</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03637287130616979</v>
+        <v>0.02998100133721781</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3084,23 +3786,30 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2899237563.005506</v>
+        <v>2337251149.312276</v>
       </c>
       <c r="F95" t="n">
-        <v>0.09915729499374952</v>
+        <v>0.09406909481389066</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04359857885368661</v>
+        <v>0.04469136010292857</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>1</v>
+      </c>
+      <c r="J95" t="n">
+        <v>14</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3118,17 +3827,24 @@
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2212853343.21727</v>
+        <v>2116032859.77892</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1203557382308148</v>
+        <v>0.1014393474579005</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03717083721732858</v>
+        <v>0.03003344235348067</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3140,22 +3856,31 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>5023830131.921659</v>
+        <v>3700171310.711165</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1193310575653901</v>
+        <v>0.1109469317706009</v>
       </c>
       <c r="G97" t="n">
-        <v>0.01781617494264093</v>
+        <v>0.02681295623344021</v>
       </c>
       <c r="H97" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
+        <v>48</v>
+      </c>
+      <c r="J97" t="n">
+        <v>99</v>
+      </c>
+      <c r="K97" t="n">
+        <v>135.741856847284</v>
       </c>
     </row>
     <row r="98">
@@ -3168,23 +3893,30 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3825124914.516038</v>
+        <v>3885355194.208138</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1163259975228057</v>
+        <v>0.1287337265657837</v>
       </c>
       <c r="G98" t="n">
-        <v>0.0257971250295164</v>
+        <v>0.02988337787387512</v>
       </c>
       <c r="H98" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I98" t="n">
+        <v>21</v>
+      </c>
+      <c r="J98" t="n">
+        <v>100</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3196,23 +3928,30 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3424495661.031013</v>
+        <v>2597167486.606165</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1098243609362584</v>
+        <v>0.09962791493088426</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03400467212078716</v>
+        <v>0.02814844028220288</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>1</v>
+      </c>
+      <c r="J99" t="n">
+        <v>62</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3224,22 +3963,31 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4604652268.067673</v>
+        <v>3607335710.326914</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1780434347478654</v>
+        <v>0.1702453505852921</v>
       </c>
       <c r="G100" t="n">
-        <v>0.01961297190840707</v>
+        <v>0.023462661343222</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
+      </c>
+      <c r="I100" t="n">
+        <v>41</v>
+      </c>
+      <c r="J100" t="n">
+        <v>99</v>
+      </c>
+      <c r="K100" t="n">
+        <v>121.0259342785175</v>
       </c>
     </row>
     <row r="101">
@@ -3258,17 +4006,24 @@
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2263436039.999454</v>
+        <v>3062673842.234588</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1881755983281007</v>
+        <v>0.1491227498850237</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05657979545730229</v>
+        <v>0.05800391084708904</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
+      <c r="I101" t="n">
+        <v>5</v>
+      </c>
+      <c r="J101" t="n">
+        <v>90</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
